--- a/name/vnindex/20230103/VNINDEX_HOSE_5p_20230103.xlsx
+++ b/name/vnindex/20230103/VNINDEX_HOSE_5p_20230103.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,7 +457,7 @@
         <v>1672736400000</v>
       </c>
       <c r="B2">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="C2">
         <v>3600</v>
@@ -466,7 +466,7 @@
         <v>400</v>
       </c>
       <c r="E2">
-        <v>38780000</v>
+        <v>37500000</v>
       </c>
       <c r="F2">
         <v>46610000</v>
@@ -475,2636 +475,6236 @@
         <v>5000000</v>
       </c>
       <c r="H2">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="I2">
-        <v>90390000</v>
+        <v>89110000</v>
       </c>
       <c r="J2" t="str">
         <v>2023-01-03T09:00:00.000Z</v>
       </c>
       <c r="K2">
-        <v>90390000</v>
+        <v>89110000</v>
       </c>
       <c r="L2">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="M2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="N2">
-        <v>7830000</v>
+        <v>9110000</v>
       </c>
       <c r="O2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P2">
-        <v>7830000</v>
+        <v>9110000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1672736700000</v>
+        <v>1672736520000</v>
       </c>
       <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>400</v>
-      </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1280000</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>1280000</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2023-01-03T09:02:00.000Z</v>
+      </c>
+      <c r="K3">
+        <v>90390000</v>
+      </c>
+      <c r="L3">
+        <v>7100</v>
+      </c>
+      <c r="M3">
+        <v>-100</v>
+      </c>
+      <c r="N3">
+        <v>-1280000</v>
+      </c>
+      <c r="O3">
         <v>500</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>5120000</v>
-      </c>
-      <c r="G3">
-        <v>6200000</v>
-      </c>
-      <c r="H3">
-        <v>900</v>
-      </c>
-      <c r="I3">
-        <v>11320000</v>
-      </c>
-      <c r="J3" t="str">
-        <v>2023-01-03T09:05:00.000Z</v>
-      </c>
-      <c r="K3">
-        <v>101710000</v>
-      </c>
-      <c r="L3">
-        <v>8000</v>
-      </c>
-      <c r="M3">
-        <v>400</v>
-      </c>
-      <c r="N3">
-        <v>5120000</v>
-      </c>
-      <c r="O3">
-        <v>900</v>
-      </c>
       <c r="P3">
-        <v>12950000</v>
+        <v>7830000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1672737000000</v>
+        <v>1672736640000</v>
       </c>
       <c r="B4">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>3000</v>
-      </c>
       <c r="E4">
-        <v>35950000</v>
+        <v>0</v>
       </c>
       <c r="F4">
+        <v>5120000</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>37200000</v>
-      </c>
       <c r="H4">
-        <v>5900</v>
+        <v>400</v>
       </c>
       <c r="I4">
-        <v>73150000</v>
+        <v>5120000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-01-03T09:10:00.000Z</v>
+        <v>2023-01-03T09:04:00.000Z</v>
       </c>
       <c r="K4">
-        <v>174860000</v>
+        <v>95510000</v>
       </c>
       <c r="L4">
-        <v>13900</v>
+        <v>7500</v>
       </c>
       <c r="M4">
-        <v>-2900</v>
+        <v>400</v>
       </c>
       <c r="N4">
-        <v>-35950000</v>
+        <v>5120000</v>
       </c>
       <c r="O4">
-        <v>-2000</v>
+        <v>900</v>
       </c>
       <c r="P4">
-        <v>-23000000</v>
+        <v>12950000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1672737300000</v>
+        <v>1672736880000</v>
       </c>
       <c r="B5">
-        <v>7886800</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5091600</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1377900</v>
+        <v>500</v>
       </c>
       <c r="E5">
-        <v>70319037000</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>83128963000</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>18511858000</v>
+        <v>6200000</v>
       </c>
       <c r="H5">
-        <v>14356300</v>
+        <v>500</v>
       </c>
       <c r="I5">
-        <v>171959858000</v>
+        <v>6200000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-01-03T09:15:00.000Z</v>
+        <v>2023-01-03T09:08:00.000Z</v>
       </c>
       <c r="K5">
-        <v>172134718000</v>
+        <v>101710000</v>
       </c>
       <c r="L5">
-        <v>14370200</v>
+        <v>8000</v>
       </c>
       <c r="M5">
-        <v>-2795200</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12809926000</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>-2797200</v>
+        <v>900</v>
       </c>
       <c r="P5">
-        <v>12786926000</v>
+        <v>12950000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1672737600000</v>
+        <v>1672737000000</v>
       </c>
       <c r="B6">
-        <v>3354400</v>
+        <v>2800</v>
       </c>
       <c r="C6">
-        <v>4656100</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>139700</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>46847526000</v>
+        <v>34720000</v>
       </c>
       <c r="F6">
-        <v>69582677000</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1983908000</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8150200</v>
+        <v>2800</v>
       </c>
       <c r="I6">
-        <v>118414111000</v>
+        <v>34720000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-01-03T09:20:00.000Z</v>
+        <v>2023-01-03T09:10:00.000Z</v>
       </c>
       <c r="K6">
-        <v>290548829000</v>
+        <v>136430000</v>
       </c>
       <c r="L6">
-        <v>22520400</v>
+        <v>10800</v>
       </c>
       <c r="M6">
-        <v>1301700</v>
+        <v>-2800</v>
       </c>
       <c r="N6">
-        <v>22735151000</v>
+        <v>-34720000</v>
       </c>
       <c r="O6">
-        <v>-1495500</v>
+        <v>-1900</v>
       </c>
       <c r="P6">
-        <v>35522077000</v>
+        <v>-21770000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1672737900000</v>
+        <v>1672737120000</v>
       </c>
       <c r="B7">
-        <v>3269800</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>3769700</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>140100</v>
+        <v>3000</v>
       </c>
       <c r="E7">
-        <v>49274716000</v>
+        <v>1230000</v>
       </c>
       <c r="F7">
-        <v>58205007000</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1301245000</v>
+        <v>37200000</v>
       </c>
       <c r="H7">
-        <v>7179600</v>
+        <v>3100</v>
       </c>
       <c r="I7">
-        <v>108780968000</v>
+        <v>38430000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-01-03T09:25:00.000Z</v>
+        <v>2023-01-03T09:12:00.000Z</v>
       </c>
       <c r="K7">
-        <v>399329797000</v>
+        <v>174860000</v>
       </c>
       <c r="L7">
-        <v>29700000</v>
+        <v>13900</v>
       </c>
       <c r="M7">
-        <v>499900</v>
+        <v>-100</v>
       </c>
       <c r="N7">
-        <v>8930291000</v>
+        <v>-1230000</v>
       </c>
       <c r="O7">
-        <v>-995600</v>
+        <v>-2000</v>
       </c>
       <c r="P7">
-        <v>44452368000</v>
+        <v>-23000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1672738200000</v>
+        <v>1672737240000</v>
       </c>
       <c r="B8">
-        <v>4140900</v>
+        <v>5780800</v>
       </c>
       <c r="C8">
-        <v>8270500</v>
+        <v>1589400</v>
       </c>
       <c r="D8">
-        <v>60100</v>
+        <v>1337900</v>
       </c>
       <c r="E8">
-        <v>57120849000</v>
+        <v>42679316000</v>
       </c>
       <c r="F8">
-        <v>111634856000</v>
+        <v>31364786000</v>
       </c>
       <c r="G8">
-        <v>809621000</v>
+        <v>17884352000</v>
       </c>
       <c r="H8">
-        <v>12471500</v>
+        <v>8708100</v>
       </c>
       <c r="I8">
-        <v>169565326000</v>
+        <v>91928454000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-01-03T09:30:00.000Z</v>
+        <v>2023-01-03T09:14:00.000Z</v>
       </c>
       <c r="K8">
-        <v>568895123000</v>
+        <v>92103314000</v>
       </c>
       <c r="L8">
-        <v>42171500</v>
+        <v>8722000</v>
       </c>
       <c r="M8">
-        <v>4129600</v>
+        <v>-4191400</v>
       </c>
       <c r="N8">
-        <v>54514007000</v>
+        <v>-11314530000</v>
       </c>
       <c r="O8">
-        <v>3134000</v>
+        <v>-4193400</v>
       </c>
       <c r="P8">
-        <v>98966375000</v>
+        <v>-11337530000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1672738500000</v>
+        <v>1672737360000</v>
       </c>
       <c r="B9">
-        <v>4152700</v>
+        <v>1033500</v>
       </c>
       <c r="C9">
-        <v>13784300</v>
+        <v>1712100</v>
       </c>
       <c r="D9">
-        <v>77300</v>
+        <v>27900</v>
       </c>
       <c r="E9">
-        <v>54480304000</v>
+        <v>12788205000</v>
       </c>
       <c r="F9">
-        <v>208513705000</v>
+        <v>25076995000</v>
       </c>
       <c r="G9">
-        <v>967799000</v>
+        <v>440617000</v>
       </c>
       <c r="H9">
-        <v>18014300</v>
+        <v>2773500</v>
       </c>
       <c r="I9">
-        <v>263961808000</v>
+        <v>38305817000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-01-03T09:35:00.000Z</v>
+        <v>2023-01-03T09:16:00.000Z</v>
       </c>
       <c r="K9">
-        <v>832856931000</v>
+        <v>130409131000</v>
       </c>
       <c r="L9">
-        <v>60185800</v>
+        <v>11495500</v>
       </c>
       <c r="M9">
-        <v>9631600</v>
+        <v>678600</v>
       </c>
       <c r="N9">
-        <v>154033401000</v>
+        <v>12288790000</v>
       </c>
       <c r="O9">
-        <v>12765600</v>
+        <v>-3514800</v>
       </c>
       <c r="P9">
-        <v>252999776000</v>
+        <v>951260000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1672738800000</v>
+        <v>1672737480000</v>
       </c>
       <c r="B10">
-        <v>4713900</v>
+        <v>1072500</v>
       </c>
       <c r="C10">
-        <v>9498400</v>
+        <v>1790100</v>
       </c>
       <c r="D10">
-        <v>96100</v>
+        <v>12100</v>
       </c>
       <c r="E10">
-        <v>70419872000</v>
+        <v>14851516000</v>
       </c>
       <c r="F10">
-        <v>145673622000</v>
+        <v>26687182000</v>
       </c>
       <c r="G10">
-        <v>1673281000</v>
+        <v>186889000</v>
       </c>
       <c r="H10">
-        <v>14308400</v>
+        <v>2874700</v>
       </c>
       <c r="I10">
-        <v>217766775000</v>
+        <v>41725587000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-01-03T09:40:00.000Z</v>
+        <v>2023-01-03T09:18:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1050623706000</v>
+        <v>172134718000</v>
       </c>
       <c r="L10">
-        <v>74494200</v>
+        <v>14370200</v>
       </c>
       <c r="M10">
-        <v>4784500</v>
+        <v>717600</v>
       </c>
       <c r="N10">
-        <v>75253750000</v>
+        <v>11835666000</v>
       </c>
       <c r="O10">
-        <v>17550100</v>
+        <v>-2797200</v>
       </c>
       <c r="P10">
-        <v>328253526000</v>
+        <v>12786926000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1672739100000</v>
+        <v>1672737600000</v>
       </c>
       <c r="B11">
-        <v>3845700</v>
+        <v>1090500</v>
       </c>
       <c r="C11">
-        <v>8979900</v>
+        <v>1585800</v>
       </c>
       <c r="D11">
-        <v>88900</v>
+        <v>14300</v>
       </c>
       <c r="E11">
-        <v>56479888000</v>
+        <v>14864597000</v>
       </c>
       <c r="F11">
-        <v>130342837000</v>
+        <v>22411724000</v>
       </c>
       <c r="G11">
-        <v>2232451000</v>
+        <v>258515000</v>
       </c>
       <c r="H11">
-        <v>12914500</v>
+        <v>2690600</v>
       </c>
       <c r="I11">
-        <v>189055176000</v>
+        <v>37534836000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-01-03T09:45:00.000Z</v>
+        <v>2023-01-03T09:20:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1239678882000</v>
+        <v>209669554000</v>
       </c>
       <c r="L11">
-        <v>87408700</v>
+        <v>17060800</v>
       </c>
       <c r="M11">
-        <v>5134200</v>
+        <v>495300</v>
       </c>
       <c r="N11">
-        <v>73862949000</v>
+        <v>7547127000</v>
       </c>
       <c r="O11">
-        <v>22684300</v>
+        <v>-2301900</v>
       </c>
       <c r="P11">
-        <v>402116475000</v>
+        <v>20334053000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1672739400000</v>
+        <v>1672737720000</v>
       </c>
       <c r="B12">
-        <v>5049100</v>
+        <v>1503300</v>
       </c>
       <c r="C12">
-        <v>12662700</v>
+        <v>1838700</v>
       </c>
       <c r="D12">
-        <v>153500</v>
+        <v>66500</v>
       </c>
       <c r="E12">
-        <v>78171489000</v>
+        <v>20593324000</v>
       </c>
       <c r="F12">
-        <v>195451595000</v>
+        <v>27132775000</v>
       </c>
       <c r="G12">
-        <v>2552380000</v>
+        <v>1012442000</v>
       </c>
       <c r="H12">
-        <v>17865300</v>
+        <v>3408500</v>
       </c>
       <c r="I12">
-        <v>276175464000</v>
+        <v>48738541000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-01-03T09:50:00.000Z</v>
+        <v>2023-01-03T09:22:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1515854346000</v>
+        <v>258408095000</v>
       </c>
       <c r="L12">
-        <v>105274000</v>
+        <v>20469300</v>
       </c>
       <c r="M12">
-        <v>7613600</v>
+        <v>335400</v>
       </c>
       <c r="N12">
-        <v>117280106000</v>
+        <v>6539451000</v>
       </c>
       <c r="O12">
-        <v>30297900</v>
+        <v>-1966500</v>
       </c>
       <c r="P12">
-        <v>519396581000</v>
+        <v>26873504000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1672739700000</v>
+        <v>1672737840000</v>
       </c>
       <c r="B13">
-        <v>5063800</v>
+        <v>1507300</v>
       </c>
       <c r="C13">
-        <v>11033100</v>
+        <v>2050500</v>
       </c>
       <c r="D13">
-        <v>67700</v>
+        <v>74100</v>
       </c>
       <c r="E13">
-        <v>78567186000</v>
+        <v>22814944000</v>
       </c>
       <c r="F13">
-        <v>168527236000</v>
+        <v>33459697000</v>
       </c>
       <c r="G13">
-        <v>844494000</v>
+        <v>814189000</v>
       </c>
       <c r="H13">
-        <v>16164600</v>
+        <v>3631900</v>
       </c>
       <c r="I13">
-        <v>247938916000</v>
+        <v>57088830000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-01-03T09:55:00.000Z</v>
+        <v>2023-01-03T09:24:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1763793262000</v>
+        <v>315496925000</v>
       </c>
       <c r="L13">
-        <v>121438600</v>
+        <v>24101200</v>
       </c>
       <c r="M13">
-        <v>5969300</v>
+        <v>543200</v>
       </c>
       <c r="N13">
-        <v>89960050000</v>
+        <v>10644753000</v>
       </c>
       <c r="O13">
-        <v>36267200</v>
+        <v>-1423300</v>
       </c>
       <c r="P13">
-        <v>609356631000</v>
+        <v>37518257000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1672740000000</v>
+        <v>1672737960000</v>
       </c>
       <c r="B14">
-        <v>5248900</v>
+        <v>1309800</v>
       </c>
       <c r="C14">
-        <v>6310300</v>
+        <v>1130600</v>
       </c>
       <c r="D14">
-        <v>32100</v>
+        <v>38300</v>
       </c>
       <c r="E14">
-        <v>80891065000</v>
+        <v>20615698000</v>
       </c>
       <c r="F14">
-        <v>101137426000</v>
+        <v>18985453000</v>
       </c>
       <c r="G14">
-        <v>773480000</v>
+        <v>374475000</v>
       </c>
       <c r="H14">
-        <v>11591300</v>
+        <v>2478700</v>
       </c>
       <c r="I14">
-        <v>182801971000</v>
+        <v>39975626000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-01-03T10:00:00.000Z</v>
+        <v>2023-01-03T09:26:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1946595233000</v>
+        <v>355472551000</v>
       </c>
       <c r="L14">
-        <v>133029900</v>
+        <v>26579900</v>
       </c>
       <c r="M14">
-        <v>1061400</v>
+        <v>-179200</v>
       </c>
       <c r="N14">
-        <v>20246361000</v>
+        <v>-1630245000</v>
       </c>
       <c r="O14">
-        <v>37328600</v>
+        <v>-1602500</v>
       </c>
       <c r="P14">
-        <v>629602992000</v>
+        <v>35888012000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1672740300000</v>
+        <v>1672738080000</v>
       </c>
       <c r="B15">
-        <v>8276100</v>
+        <v>1213300</v>
       </c>
       <c r="C15">
-        <v>4157400</v>
+        <v>1820200</v>
       </c>
       <c r="D15">
-        <v>71900</v>
+        <v>86600</v>
       </c>
       <c r="E15">
-        <v>123907995000</v>
+        <v>17233679000</v>
       </c>
       <c r="F15">
-        <v>70640748000</v>
+        <v>25798035000</v>
       </c>
       <c r="G15">
-        <v>1264405000</v>
+        <v>825532000</v>
       </c>
       <c r="H15">
-        <v>12505400</v>
+        <v>3120100</v>
       </c>
       <c r="I15">
-        <v>195813148000</v>
+        <v>43857246000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-01-03T10:05:00.000Z</v>
+        <v>2023-01-03T09:28:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2142408381000</v>
+        <v>399329797000</v>
       </c>
       <c r="L15">
-        <v>145535300</v>
+        <v>29700000</v>
       </c>
       <c r="M15">
-        <v>-4118700</v>
+        <v>606900</v>
       </c>
       <c r="N15">
-        <v>-53267247000</v>
+        <v>8564356000</v>
       </c>
       <c r="O15">
-        <v>33209900</v>
+        <v>-995600</v>
       </c>
       <c r="P15">
-        <v>576335745000</v>
+        <v>44452368000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1672740600000</v>
+        <v>1672738200000</v>
       </c>
       <c r="B16">
-        <v>7454200</v>
+        <v>1343900</v>
       </c>
       <c r="C16">
-        <v>2679100</v>
+        <v>2484600</v>
       </c>
       <c r="D16">
-        <v>59600</v>
+        <v>30100</v>
       </c>
       <c r="E16">
-        <v>113926006000</v>
+        <v>19767875000</v>
       </c>
       <c r="F16">
-        <v>51785628000</v>
+        <v>33847481000</v>
       </c>
       <c r="G16">
-        <v>821111000</v>
+        <v>262320000</v>
       </c>
       <c r="H16">
-        <v>10192900</v>
+        <v>3858600</v>
       </c>
       <c r="I16">
-        <v>166532745000</v>
+        <v>53877676000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-01-03T10:10:00.000Z</v>
+        <v>2023-01-03T09:30:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2308941126000</v>
+        <v>453207473000</v>
       </c>
       <c r="L16">
-        <v>155728200</v>
+        <v>33558600</v>
       </c>
       <c r="M16">
-        <v>-4775100</v>
+        <v>1140700</v>
       </c>
       <c r="N16">
-        <v>-62140378000</v>
+        <v>14079606000</v>
       </c>
       <c r="O16">
-        <v>28434800</v>
+        <v>145100</v>
       </c>
       <c r="P16">
-        <v>514195367000</v>
+        <v>58531974000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1672740900000</v>
+        <v>1672738320000</v>
       </c>
       <c r="B17">
-        <v>3253300</v>
+        <v>1989300</v>
       </c>
       <c r="C17">
-        <v>6171100</v>
+        <v>3690200</v>
       </c>
       <c r="D17">
-        <v>120600</v>
+        <v>26700</v>
       </c>
       <c r="E17">
-        <v>59805038000</v>
+        <v>25632249000</v>
       </c>
       <c r="F17">
-        <v>103911170000</v>
+        <v>49817257000</v>
       </c>
       <c r="G17">
-        <v>2165356000</v>
+        <v>523259000</v>
       </c>
       <c r="H17">
-        <v>9545000</v>
+        <v>5706200</v>
       </c>
       <c r="I17">
-        <v>165881564000</v>
+        <v>75972765000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-01-03T10:15:00.000Z</v>
+        <v>2023-01-03T09:32:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2474822690000</v>
+        <v>529180238000</v>
       </c>
       <c r="L17">
-        <v>165273200</v>
+        <v>39264800</v>
       </c>
       <c r="M17">
-        <v>2917800</v>
+        <v>1700900</v>
       </c>
       <c r="N17">
-        <v>44106132000</v>
+        <v>24185008000</v>
       </c>
       <c r="O17">
-        <v>31352600</v>
+        <v>1846000</v>
       </c>
       <c r="P17">
-        <v>558301499000</v>
+        <v>82716982000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1672741200000</v>
+        <v>1672738440000</v>
       </c>
       <c r="B18">
-        <v>2648600</v>
+        <v>1555900</v>
       </c>
       <c r="C18">
-        <v>2589900</v>
+        <v>4362900</v>
       </c>
       <c r="D18">
-        <v>27800</v>
+        <v>27500</v>
       </c>
       <c r="E18">
-        <v>45084208000</v>
+        <v>21474342000</v>
       </c>
       <c r="F18">
-        <v>48524164000</v>
+        <v>64708694000</v>
       </c>
       <c r="G18">
-        <v>480243000</v>
+        <v>281943000</v>
       </c>
       <c r="H18">
-        <v>5266300</v>
+        <v>5946300</v>
       </c>
       <c r="I18">
-        <v>94088615000</v>
+        <v>86464979000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-01-03T10:20:00.000Z</v>
+        <v>2023-01-03T09:34:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2568911305000</v>
+        <v>615645217000</v>
       </c>
       <c r="L18">
-        <v>170539500</v>
+        <v>45211100</v>
       </c>
       <c r="M18">
-        <v>-58700</v>
+        <v>2807000</v>
       </c>
       <c r="N18">
-        <v>3439956000</v>
+        <v>43234352000</v>
       </c>
       <c r="O18">
-        <v>31293900</v>
+        <v>4653000</v>
       </c>
       <c r="P18">
-        <v>561741455000</v>
+        <v>125951334000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1672741500000</v>
+        <v>1672738560000</v>
       </c>
       <c r="B19">
-        <v>2275100</v>
+        <v>1560200</v>
       </c>
       <c r="C19">
-        <v>3910500</v>
+        <v>6088000</v>
       </c>
       <c r="D19">
-        <v>34300</v>
+        <v>29700</v>
       </c>
       <c r="E19">
-        <v>36319219000</v>
+        <v>19128600000</v>
       </c>
       <c r="F19">
-        <v>66413177000</v>
+        <v>90908779000</v>
       </c>
       <c r="G19">
-        <v>489190000</v>
+        <v>340365000</v>
       </c>
       <c r="H19">
-        <v>6219900</v>
+        <v>7677900</v>
       </c>
       <c r="I19">
-        <v>103221586000</v>
+        <v>110377744000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-01-03T10:25:00.000Z</v>
+        <v>2023-01-03T09:36:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2672132891000</v>
+        <v>726022961000</v>
       </c>
       <c r="L19">
-        <v>176759400</v>
+        <v>52889000</v>
       </c>
       <c r="M19">
-        <v>1635400</v>
+        <v>4527800</v>
       </c>
       <c r="N19">
-        <v>30093958000</v>
+        <v>71780179000</v>
       </c>
       <c r="O19">
-        <v>32929300</v>
+        <v>9180800</v>
       </c>
       <c r="P19">
-        <v>591835413000</v>
+        <v>197731513000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1672741800000</v>
+        <v>1672738680000</v>
       </c>
       <c r="B20">
-        <v>4762000</v>
+        <v>1844300</v>
       </c>
       <c r="C20">
-        <v>1997000</v>
+        <v>5429100</v>
       </c>
       <c r="D20">
-        <v>20700</v>
+        <v>23400</v>
       </c>
       <c r="E20">
-        <v>77388521000</v>
+        <v>25598087000</v>
       </c>
       <c r="F20">
-        <v>35184009000</v>
+        <v>80866350000</v>
       </c>
       <c r="G20">
-        <v>583947000</v>
+        <v>369533000</v>
       </c>
       <c r="H20">
-        <v>6779700</v>
+        <v>7296800</v>
       </c>
       <c r="I20">
-        <v>113156477000</v>
+        <v>106833970000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-01-03T10:30:00.000Z</v>
+        <v>2023-01-03T09:38:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2785289368000</v>
+        <v>832856931000</v>
       </c>
       <c r="L20">
-        <v>183539100</v>
+        <v>60185800</v>
       </c>
       <c r="M20">
-        <v>-2765000</v>
+        <v>3584800</v>
       </c>
       <c r="N20">
-        <v>-42204512000</v>
+        <v>55268263000</v>
       </c>
       <c r="O20">
-        <v>30164300</v>
+        <v>12765600</v>
       </c>
       <c r="P20">
-        <v>549630901000</v>
+        <v>252999776000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1672742100000</v>
+        <v>1672738800000</v>
       </c>
       <c r="B21">
-        <v>2416100</v>
+        <v>2244100</v>
       </c>
       <c r="C21">
-        <v>1740800</v>
+        <v>4096500</v>
       </c>
       <c r="D21">
-        <v>28800</v>
+        <v>46900</v>
       </c>
       <c r="E21">
-        <v>40502423000</v>
+        <v>31535405000</v>
       </c>
       <c r="F21">
-        <v>34764080000</v>
+        <v>62115437000</v>
       </c>
       <c r="G21">
-        <v>344980000</v>
+        <v>974619000</v>
       </c>
       <c r="H21">
-        <v>4185700</v>
+        <v>6387500</v>
       </c>
       <c r="I21">
-        <v>75611483000</v>
+        <v>94625461000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-01-03T10:35:00.000Z</v>
+        <v>2023-01-03T09:40:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2860900851000</v>
+        <v>927482392000</v>
       </c>
       <c r="L21">
-        <v>187724800</v>
+        <v>66573300</v>
       </c>
       <c r="M21">
-        <v>-675300</v>
+        <v>1852400</v>
       </c>
       <c r="N21">
-        <v>-5738343000</v>
+        <v>30580032000</v>
       </c>
       <c r="O21">
-        <v>29489000</v>
+        <v>14618000</v>
       </c>
       <c r="P21">
-        <v>543892558000</v>
+        <v>283579808000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1672742400000</v>
+        <v>1672738920000</v>
       </c>
       <c r="B22">
-        <v>2765100</v>
+        <v>1364000</v>
       </c>
       <c r="C22">
-        <v>1778300</v>
+        <v>3767400</v>
       </c>
       <c r="D22">
-        <v>2100</v>
+        <v>38200</v>
       </c>
       <c r="E22">
-        <v>41494032000</v>
+        <v>21183626000</v>
       </c>
       <c r="F22">
-        <v>35160137000</v>
+        <v>58277353000</v>
       </c>
       <c r="G22">
-        <v>39860000</v>
+        <v>587045000</v>
       </c>
       <c r="H22">
-        <v>4545500</v>
+        <v>5169600</v>
       </c>
       <c r="I22">
-        <v>76694029000</v>
+        <v>80048024000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-01-03T10:40:00.000Z</v>
+        <v>2023-01-03T09:42:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2937594880000</v>
+        <v>1007530416000</v>
       </c>
       <c r="L22">
-        <v>192270300</v>
+        <v>71742900</v>
       </c>
       <c r="M22">
-        <v>-986800</v>
+        <v>2403400</v>
       </c>
       <c r="N22">
-        <v>-6333895000</v>
+        <v>37093727000</v>
       </c>
       <c r="O22">
-        <v>28502200</v>
+        <v>17021400</v>
       </c>
       <c r="P22">
-        <v>537558663000</v>
+        <v>320673535000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1672742700000</v>
+        <v>1672739040000</v>
       </c>
       <c r="B23">
-        <v>2509700</v>
+        <v>1981600</v>
       </c>
       <c r="C23">
-        <v>3605100</v>
+        <v>3266500</v>
       </c>
       <c r="D23">
-        <v>80600</v>
+        <v>46500</v>
       </c>
       <c r="E23">
-        <v>40421411000</v>
+        <v>30969791000</v>
       </c>
       <c r="F23">
-        <v>67666511000</v>
+        <v>47577437000</v>
       </c>
       <c r="G23">
-        <v>993313000</v>
+        <v>1324505000</v>
       </c>
       <c r="H23">
-        <v>6195400</v>
+        <v>5294600</v>
       </c>
       <c r="I23">
-        <v>109081235000</v>
+        <v>79871733000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-01-03T10:45:00.000Z</v>
+        <v>2023-01-03T09:44:00.000Z</v>
       </c>
       <c r="K23">
-        <v>3046676115000</v>
+        <v>1087402149000</v>
       </c>
       <c r="L23">
-        <v>198465700</v>
+        <v>77037500</v>
       </c>
       <c r="M23">
-        <v>1095400</v>
+        <v>1284900</v>
       </c>
       <c r="N23">
-        <v>27245100000</v>
+        <v>16607646000</v>
       </c>
       <c r="O23">
-        <v>29597600</v>
+        <v>18306300</v>
       </c>
       <c r="P23">
-        <v>564803763000</v>
+        <v>337281181000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1672743000000</v>
+        <v>1672739160000</v>
       </c>
       <c r="B24">
-        <v>2381400</v>
+        <v>1475500</v>
       </c>
       <c r="C24">
-        <v>3262100</v>
+        <v>3455700</v>
       </c>
       <c r="D24">
-        <v>67700</v>
+        <v>24300</v>
       </c>
       <c r="E24">
-        <v>45499898000</v>
+        <v>21534049000</v>
       </c>
       <c r="F24">
-        <v>59769734000</v>
+        <v>48588379000</v>
       </c>
       <c r="G24">
-        <v>1076269000</v>
+        <v>327014000</v>
       </c>
       <c r="H24">
-        <v>5711200</v>
+        <v>4955500</v>
       </c>
       <c r="I24">
-        <v>106345901000</v>
+        <v>70449442000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-01-03T10:50:00.000Z</v>
+        <v>2023-01-03T09:46:00.000Z</v>
       </c>
       <c r="K24">
-        <v>3153022016000</v>
+        <v>1157851591000</v>
       </c>
       <c r="L24">
-        <v>204176900</v>
+        <v>81993000</v>
       </c>
       <c r="M24">
-        <v>880700</v>
+        <v>1980200</v>
       </c>
       <c r="N24">
-        <v>14269836000</v>
+        <v>27054330000</v>
       </c>
       <c r="O24">
-        <v>30478300</v>
+        <v>20286500</v>
       </c>
       <c r="P24">
-        <v>579073599000</v>
+        <v>364335511000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1672743300000</v>
+        <v>1672739280000</v>
       </c>
       <c r="B25">
-        <v>2299900</v>
+        <v>1494400</v>
       </c>
       <c r="C25">
-        <v>3146100</v>
+        <v>3892200</v>
       </c>
       <c r="D25">
-        <v>37800</v>
+        <v>29100</v>
       </c>
       <c r="E25">
-        <v>40154805000</v>
+        <v>21676889000</v>
       </c>
       <c r="F25">
-        <v>55063977000</v>
+        <v>59457853000</v>
       </c>
       <c r="G25">
-        <v>1102920000</v>
+        <v>692549000</v>
       </c>
       <c r="H25">
-        <v>5483800</v>
+        <v>5415700</v>
       </c>
       <c r="I25">
-        <v>96321702000</v>
+        <v>81827291000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-01-03T10:55:00.000Z</v>
+        <v>2023-01-03T09:48:00.000Z</v>
       </c>
       <c r="K25">
-        <v>3249343718000</v>
+        <v>1239678882000</v>
       </c>
       <c r="L25">
-        <v>209660700</v>
+        <v>87408700</v>
       </c>
       <c r="M25">
-        <v>846200</v>
+        <v>2397800</v>
       </c>
       <c r="N25">
-        <v>14909172000</v>
+        <v>37780964000</v>
       </c>
       <c r="O25">
-        <v>31324500</v>
+        <v>22684300</v>
       </c>
       <c r="P25">
-        <v>593982771000</v>
+        <v>402116475000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1672743600000</v>
+        <v>1672739400000</v>
       </c>
       <c r="B26">
-        <v>1805500</v>
+        <v>1928400</v>
       </c>
       <c r="C26">
-        <v>5627700</v>
+        <v>5602700</v>
       </c>
       <c r="D26">
-        <v>50500</v>
+        <v>24500</v>
       </c>
       <c r="E26">
-        <v>32306990000</v>
+        <v>30911744000</v>
       </c>
       <c r="F26">
-        <v>103731697000</v>
+        <v>86616049000</v>
       </c>
       <c r="G26">
-        <v>837101000</v>
+        <v>687442000</v>
       </c>
       <c r="H26">
-        <v>7483700</v>
+        <v>7555600</v>
       </c>
       <c r="I26">
-        <v>136875788000</v>
+        <v>118215235000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-01-03T11:00:00.000Z</v>
+        <v>2023-01-03T09:50:00.000Z</v>
       </c>
       <c r="K26">
-        <v>3386219506000</v>
+        <v>1357894117000</v>
       </c>
       <c r="L26">
-        <v>217144400</v>
+        <v>94964300</v>
       </c>
       <c r="M26">
-        <v>3822200</v>
+        <v>3674300</v>
       </c>
       <c r="N26">
-        <v>71424707000</v>
+        <v>55704305000</v>
       </c>
       <c r="O26">
-        <v>35146700</v>
+        <v>26358600</v>
       </c>
       <c r="P26">
-        <v>665407478000</v>
+        <v>457820780000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1672743900000</v>
+        <v>1672739520000</v>
       </c>
       <c r="B27">
-        <v>2487800</v>
+        <v>1692000</v>
       </c>
       <c r="C27">
-        <v>11741900</v>
+        <v>5323600</v>
       </c>
       <c r="D27">
-        <v>59600</v>
+        <v>4800</v>
       </c>
       <c r="E27">
-        <v>44352689000</v>
+        <v>25352595000</v>
       </c>
       <c r="F27">
-        <v>194262548000</v>
+        <v>82217995000</v>
       </c>
       <c r="G27">
-        <v>1271197000</v>
+        <v>94727000</v>
       </c>
       <c r="H27">
-        <v>14289300</v>
+        <v>7020400</v>
       </c>
       <c r="I27">
-        <v>239886434000</v>
+        <v>107665317000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-01-03T11:05:00.000Z</v>
+        <v>2023-01-03T09:52:00.000Z</v>
       </c>
       <c r="K27">
-        <v>3626105940000</v>
+        <v>1465559434000</v>
       </c>
       <c r="L27">
-        <v>231433700</v>
+        <v>101984700</v>
       </c>
       <c r="M27">
-        <v>9254100</v>
+        <v>3631600</v>
       </c>
       <c r="N27">
-        <v>149909859000</v>
+        <v>56865400000</v>
       </c>
       <c r="O27">
-        <v>44400800</v>
+        <v>29990200</v>
       </c>
       <c r="P27">
-        <v>815317337000</v>
+        <v>514686180000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1672744200000</v>
+        <v>1672739640000</v>
       </c>
       <c r="B28">
-        <v>4387600</v>
+        <v>2597600</v>
       </c>
       <c r="C28">
-        <v>8914200</v>
+        <v>3800700</v>
       </c>
       <c r="D28">
-        <v>45600</v>
+        <v>146000</v>
       </c>
       <c r="E28">
-        <v>70054521000</v>
+        <v>39769985000</v>
       </c>
       <c r="F28">
-        <v>146879097000</v>
+        <v>57923628000</v>
       </c>
       <c r="G28">
-        <v>962047000</v>
+        <v>2037486000</v>
       </c>
       <c r="H28">
-        <v>13347400</v>
+        <v>6544300</v>
       </c>
       <c r="I28">
-        <v>217895665000</v>
+        <v>99731099000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-01-03T11:10:00.000Z</v>
+        <v>2023-01-03T09:54:00.000Z</v>
       </c>
       <c r="K28">
-        <v>3844001605000</v>
+        <v>1565290533000</v>
       </c>
       <c r="L28">
-        <v>244781100</v>
+        <v>108529000</v>
       </c>
       <c r="M28">
-        <v>4526600</v>
+        <v>1203100</v>
       </c>
       <c r="N28">
-        <v>76824576000</v>
+        <v>18153643000</v>
       </c>
       <c r="O28">
-        <v>48927400</v>
+        <v>31193300</v>
       </c>
       <c r="P28">
-        <v>892141913000</v>
+        <v>532839823000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1672744500000</v>
+        <v>1672739760000</v>
       </c>
       <c r="B29">
-        <v>2859300</v>
+        <v>2024900</v>
       </c>
       <c r="C29">
-        <v>1854000</v>
+        <v>4629000</v>
       </c>
       <c r="D29">
-        <v>44000</v>
+        <v>24500</v>
       </c>
       <c r="E29">
-        <v>54305023000</v>
+        <v>31754992000</v>
       </c>
       <c r="F29">
-        <v>32428581000</v>
+        <v>71100304000</v>
       </c>
       <c r="G29">
-        <v>661256000</v>
+        <v>354358000</v>
       </c>
       <c r="H29">
-        <v>4757300</v>
+        <v>6678400</v>
       </c>
       <c r="I29">
-        <v>87394860000</v>
+        <v>103209654000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-01-03T11:15:00.000Z</v>
+        <v>2023-01-03T09:56:00.000Z</v>
       </c>
       <c r="K29">
-        <v>3931396465000</v>
+        <v>1668500187000</v>
       </c>
       <c r="L29">
-        <v>249538400</v>
+        <v>115207400</v>
       </c>
       <c r="M29">
-        <v>-1005300</v>
+        <v>2604100</v>
       </c>
       <c r="N29">
-        <v>-21876442000</v>
+        <v>39345312000</v>
       </c>
       <c r="O29">
-        <v>47922100</v>
+        <v>33797400</v>
       </c>
       <c r="P29">
-        <v>870265471000</v>
+        <v>572185135000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1672744800000</v>
+        <v>1672739880000</v>
       </c>
       <c r="B30">
-        <v>2530500</v>
+        <v>1870000</v>
       </c>
       <c r="C30">
-        <v>2521800</v>
+        <v>4339800</v>
       </c>
       <c r="D30">
-        <v>92300</v>
+        <v>21400</v>
       </c>
       <c r="E30">
-        <v>52376317000</v>
+        <v>28949359000</v>
       </c>
       <c r="F30">
-        <v>47526555000</v>
+        <v>66120855000</v>
       </c>
       <c r="G30">
-        <v>1900020000</v>
+        <v>222861000</v>
       </c>
       <c r="H30">
-        <v>5144600</v>
+        <v>6231200</v>
       </c>
       <c r="I30">
-        <v>101802892000</v>
+        <v>95293075000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-01-03T11:20:00.000Z</v>
+        <v>2023-01-03T09:58:00.000Z</v>
       </c>
       <c r="K30">
-        <v>4033199357000</v>
+        <v>1763793262000</v>
       </c>
       <c r="L30">
-        <v>254683000</v>
+        <v>121438600</v>
       </c>
       <c r="M30">
-        <v>-8700</v>
+        <v>2469800</v>
       </c>
       <c r="N30">
-        <v>-4849762000</v>
+        <v>37171496000</v>
       </c>
       <c r="O30">
-        <v>47913400</v>
+        <v>36267200</v>
       </c>
       <c r="P30">
-        <v>865415709000</v>
+        <v>609356631000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1672745100000</v>
+        <v>1672740000000</v>
       </c>
       <c r="B31">
-        <v>3337900</v>
+        <v>2034400</v>
       </c>
       <c r="C31">
-        <v>2164300</v>
+        <v>2822400</v>
       </c>
       <c r="D31">
-        <v>13600</v>
+        <v>4400</v>
       </c>
       <c r="E31">
-        <v>54959272000</v>
+        <v>32493086000</v>
       </c>
       <c r="F31">
-        <v>38975318000</v>
+        <v>44042925000</v>
       </c>
       <c r="G31">
-        <v>244414000</v>
+        <v>141059000</v>
       </c>
       <c r="H31">
-        <v>5515800</v>
+        <v>4861200</v>
       </c>
       <c r="I31">
-        <v>94179004000</v>
+        <v>76677070000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-01-03T11:25:00.000Z</v>
+        <v>2023-01-03T10:00:00.000Z</v>
       </c>
       <c r="K31">
-        <v>4127378361000</v>
+        <v>1840470332000</v>
       </c>
       <c r="L31">
-        <v>260198800</v>
+        <v>126299800</v>
       </c>
       <c r="M31">
-        <v>-1173600</v>
+        <v>788000</v>
       </c>
       <c r="N31">
-        <v>-15983954000</v>
+        <v>11549839000</v>
       </c>
       <c r="O31">
-        <v>46739800</v>
+        <v>37055200</v>
       </c>
       <c r="P31">
-        <v>849431755000</v>
+        <v>620906470000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1672750800000</v>
+        <v>1672740120000</v>
       </c>
       <c r="B32">
-        <v>6376600</v>
+        <v>2089600</v>
       </c>
       <c r="C32">
-        <v>5084800</v>
+        <v>2633200</v>
       </c>
       <c r="D32">
-        <v>131000</v>
+        <v>17600</v>
       </c>
       <c r="E32">
-        <v>86053374000</v>
+        <v>29768911000</v>
       </c>
       <c r="F32">
-        <v>80160960000</v>
+        <v>41429192000</v>
       </c>
       <c r="G32">
-        <v>2268756000</v>
+        <v>461660000</v>
       </c>
       <c r="H32">
-        <v>11592400</v>
+        <v>4740400</v>
       </c>
       <c r="I32">
-        <v>168483090000</v>
+        <v>71659763000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-01-03T13:00:00.000Z</v>
+        <v>2023-01-03T10:02:00.000Z</v>
       </c>
       <c r="K32">
-        <v>4295861451000</v>
+        <v>1912130095000</v>
       </c>
       <c r="L32">
-        <v>271791200</v>
+        <v>131040200</v>
       </c>
       <c r="M32">
-        <v>-1291800</v>
+        <v>543600</v>
       </c>
       <c r="N32">
-        <v>-5892414000</v>
+        <v>11660281000</v>
       </c>
       <c r="O32">
-        <v>45448000</v>
+        <v>37598800</v>
       </c>
       <c r="P32">
-        <v>843539341000</v>
+        <v>632566751000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1672751100000</v>
+        <v>1672740240000</v>
       </c>
       <c r="B33">
-        <v>2825100</v>
+        <v>2506800</v>
       </c>
       <c r="C33">
-        <v>5853600</v>
+        <v>1751200</v>
       </c>
       <c r="D33">
-        <v>50100</v>
+        <v>21000</v>
       </c>
       <c r="E33">
-        <v>51824653000</v>
+        <v>39915394000</v>
       </c>
       <c r="F33">
-        <v>105847549000</v>
+        <v>32202756000</v>
       </c>
       <c r="G33">
-        <v>1389181000</v>
+        <v>246150000</v>
       </c>
       <c r="H33">
-        <v>8728800</v>
+        <v>4279000</v>
       </c>
       <c r="I33">
-        <v>159061383000</v>
+        <v>72364300000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-01-03T13:05:00.000Z</v>
+        <v>2023-01-03T10:04:00.000Z</v>
       </c>
       <c r="K33">
-        <v>4454922834000</v>
+        <v>1984494395000</v>
       </c>
       <c r="L33">
-        <v>280520000</v>
+        <v>135319200</v>
       </c>
       <c r="M33">
-        <v>3028500</v>
+        <v>-755600</v>
       </c>
       <c r="N33">
-        <v>54022896000</v>
+        <v>-7712638000</v>
       </c>
       <c r="O33">
-        <v>48476500</v>
+        <v>36843200</v>
       </c>
       <c r="P33">
-        <v>897562237000</v>
+        <v>624854113000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1672751400000</v>
+        <v>1672740360000</v>
       </c>
       <c r="B34">
-        <v>3173800</v>
+        <v>2387900</v>
       </c>
       <c r="C34">
-        <v>8551300</v>
+        <v>1980600</v>
       </c>
       <c r="D34">
-        <v>102600</v>
+        <v>43300</v>
       </c>
       <c r="E34">
-        <v>51997728000</v>
+        <v>35023649000</v>
       </c>
       <c r="F34">
-        <v>139593410000</v>
+        <v>31009515000</v>
       </c>
       <c r="G34">
-        <v>1390500000</v>
+        <v>961373000</v>
       </c>
       <c r="H34">
-        <v>11827700</v>
+        <v>4411800</v>
       </c>
       <c r="I34">
-        <v>192981638000</v>
+        <v>66994537000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-01-03T13:10:00.000Z</v>
+        <v>2023-01-03T10:06:00.000Z</v>
       </c>
       <c r="K34">
-        <v>4647904472000</v>
+        <v>2051488932000</v>
       </c>
       <c r="L34">
-        <v>292347700</v>
+        <v>139731000</v>
       </c>
       <c r="M34">
-        <v>5377500</v>
+        <v>-407300</v>
       </c>
       <c r="N34">
-        <v>87595682000</v>
+        <v>-4014134000</v>
       </c>
       <c r="O34">
-        <v>53854000</v>
+        <v>36435900</v>
       </c>
       <c r="P34">
-        <v>985157919000</v>
+        <v>620839979000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1672751700000</v>
+        <v>1672740480000</v>
       </c>
       <c r="B35">
-        <v>4698900</v>
+        <v>4506300</v>
       </c>
       <c r="C35">
-        <v>7398300</v>
+        <v>1280300</v>
       </c>
       <c r="D35">
-        <v>42200</v>
+        <v>17700</v>
       </c>
       <c r="E35">
-        <v>78392368000</v>
+        <v>67598020000</v>
       </c>
       <c r="F35">
-        <v>129212128000</v>
+        <v>23093786000</v>
       </c>
       <c r="G35">
-        <v>1226782000</v>
+        <v>227643000</v>
       </c>
       <c r="H35">
-        <v>12139400</v>
+        <v>5804300</v>
       </c>
       <c r="I35">
-        <v>208831278000</v>
+        <v>90919449000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-01-03T13:15:00.000Z</v>
+        <v>2023-01-03T10:08:00.000Z</v>
       </c>
       <c r="K35">
-        <v>4856735750000</v>
+        <v>2142408381000</v>
       </c>
       <c r="L35">
-        <v>304487100</v>
+        <v>145535300</v>
       </c>
       <c r="M35">
-        <v>2699400</v>
+        <v>-3226000</v>
       </c>
       <c r="N35">
-        <v>50819760000</v>
+        <v>-44504234000</v>
       </c>
       <c r="O35">
-        <v>56553400</v>
+        <v>33209900</v>
       </c>
       <c r="P35">
-        <v>1035977679000</v>
+        <v>576335745000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1672752000000</v>
+        <v>1672740600000</v>
       </c>
       <c r="B36">
-        <v>2987200</v>
+        <v>4327100</v>
       </c>
       <c r="C36">
-        <v>10019400</v>
+        <v>1130300</v>
       </c>
       <c r="D36">
-        <v>67000</v>
+        <v>26200</v>
       </c>
       <c r="E36">
-        <v>51507404000</v>
+        <v>63114203000</v>
       </c>
       <c r="F36">
-        <v>163223588000</v>
+        <v>22376220000</v>
       </c>
       <c r="G36">
-        <v>1803164000</v>
+        <v>439597000</v>
       </c>
       <c r="H36">
-        <v>13073600</v>
+        <v>5483600</v>
       </c>
       <c r="I36">
-        <v>216534156000</v>
+        <v>85930020000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-01-03T13:20:00.000Z</v>
+        <v>2023-01-03T10:10:00.000Z</v>
       </c>
       <c r="K36">
-        <v>5073269906000</v>
+        <v>2228338401000</v>
       </c>
       <c r="L36">
-        <v>317560700</v>
+        <v>151018900</v>
       </c>
       <c r="M36">
-        <v>7032200</v>
+        <v>-3196800</v>
       </c>
       <c r="N36">
-        <v>111716184000</v>
+        <v>-40737983000</v>
       </c>
       <c r="O36">
-        <v>63585600</v>
+        <v>30013100</v>
       </c>
       <c r="P36">
-        <v>1147693863000</v>
+        <v>535597762000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1672752300000</v>
+        <v>1672740720000</v>
       </c>
       <c r="B37">
-        <v>4561700</v>
+        <v>2399600</v>
       </c>
       <c r="C37">
-        <v>5265300</v>
+        <v>1002300</v>
       </c>
       <c r="D37">
-        <v>62700</v>
+        <v>25600</v>
       </c>
       <c r="E37">
-        <v>72176645000</v>
+        <v>39027109000</v>
       </c>
       <c r="F37">
-        <v>95755511000</v>
+        <v>19058905000</v>
       </c>
       <c r="G37">
-        <v>759156000</v>
+        <v>327746000</v>
       </c>
       <c r="H37">
-        <v>9889700</v>
+        <v>3427500</v>
       </c>
       <c r="I37">
-        <v>168691312000</v>
+        <v>58413760000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-01-03T13:25:00.000Z</v>
+        <v>2023-01-03T10:12:00.000Z</v>
       </c>
       <c r="K37">
-        <v>5241961218000</v>
+        <v>2286752161000</v>
       </c>
       <c r="L37">
-        <v>327450400</v>
+        <v>154446400</v>
       </c>
       <c r="M37">
-        <v>703600</v>
+        <v>-1397300</v>
       </c>
       <c r="N37">
-        <v>23578866000</v>
+        <v>-19968204000</v>
       </c>
       <c r="O37">
-        <v>64289200</v>
+        <v>28615800</v>
       </c>
       <c r="P37">
-        <v>1171272729000</v>
+        <v>515629558000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1672752600000</v>
+        <v>1672740840000</v>
       </c>
       <c r="B38">
-        <v>3731100</v>
+        <v>1286500</v>
       </c>
       <c r="C38">
-        <v>3469700</v>
+        <v>1424900</v>
       </c>
       <c r="D38">
-        <v>24700</v>
+        <v>17000</v>
       </c>
       <c r="E38">
-        <v>61599622000</v>
+        <v>21309138000</v>
       </c>
       <c r="F38">
-        <v>77310939000</v>
+        <v>25332033000</v>
       </c>
       <c r="G38">
-        <v>318770000</v>
+        <v>290346000</v>
       </c>
       <c r="H38">
-        <v>7225500</v>
+        <v>2728400</v>
       </c>
       <c r="I38">
-        <v>139229331000</v>
+        <v>46931517000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-01-03T13:30:00.000Z</v>
+        <v>2023-01-03T10:14:00.000Z</v>
       </c>
       <c r="K38">
-        <v>5381190549000</v>
+        <v>2333683678000</v>
       </c>
       <c r="L38">
-        <v>334675900</v>
+        <v>157174800</v>
       </c>
       <c r="M38">
-        <v>-261400</v>
+        <v>138400</v>
       </c>
       <c r="N38">
-        <v>15711317000</v>
+        <v>4022895000</v>
       </c>
       <c r="O38">
-        <v>64027800</v>
+        <v>28754200</v>
       </c>
       <c r="P38">
-        <v>1186984046000</v>
+        <v>519652453000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1672752900000</v>
+        <v>1672740960000</v>
       </c>
       <c r="B39">
-        <v>2897600</v>
+        <v>1042500</v>
       </c>
       <c r="C39">
-        <v>9050900</v>
+        <v>3197900</v>
       </c>
       <c r="D39">
-        <v>64200</v>
+        <v>8500</v>
       </c>
       <c r="E39">
-        <v>55808552000</v>
+        <v>18796196000</v>
       </c>
       <c r="F39">
-        <v>160919918000</v>
+        <v>54110831000</v>
       </c>
       <c r="G39">
-        <v>1732398000</v>
+        <v>168043000</v>
       </c>
       <c r="H39">
-        <v>12012700</v>
+        <v>4248900</v>
       </c>
       <c r="I39">
-        <v>218460868000</v>
+        <v>73075070000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-01-03T13:35:00.000Z</v>
+        <v>2023-01-03T10:16:00.000Z</v>
       </c>
       <c r="K39">
-        <v>5599651417000</v>
+        <v>2406758748000</v>
       </c>
       <c r="L39">
-        <v>346688600</v>
+        <v>161423700</v>
       </c>
       <c r="M39">
-        <v>6153300</v>
+        <v>2155400</v>
       </c>
       <c r="N39">
-        <v>105111366000</v>
+        <v>35314635000</v>
       </c>
       <c r="O39">
-        <v>70181100</v>
+        <v>30909600</v>
       </c>
       <c r="P39">
-        <v>1292095412000</v>
+        <v>554967088000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1672753200000</v>
+        <v>1672741080000</v>
       </c>
       <c r="B40">
-        <v>2821800</v>
+        <v>1651800</v>
       </c>
       <c r="C40">
-        <v>12064800</v>
+        <v>2094800</v>
       </c>
       <c r="D40">
-        <v>41900</v>
+        <v>102900</v>
       </c>
       <c r="E40">
-        <v>52132831000</v>
+        <v>31484398000</v>
       </c>
       <c r="F40">
-        <v>245873638000</v>
+        <v>34818809000</v>
       </c>
       <c r="G40">
-        <v>911813000</v>
+        <v>1760735000</v>
       </c>
       <c r="H40">
-        <v>14928500</v>
+        <v>3849500</v>
       </c>
       <c r="I40">
-        <v>298918282000</v>
+        <v>68063942000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-01-03T13:40:00.000Z</v>
+        <v>2023-01-03T10:18:00.000Z</v>
       </c>
       <c r="K40">
-        <v>5898569699000</v>
+        <v>2474822690000</v>
       </c>
       <c r="L40">
-        <v>361617100</v>
+        <v>165273200</v>
       </c>
       <c r="M40">
-        <v>9243000</v>
+        <v>443000</v>
       </c>
       <c r="N40">
-        <v>193740807000</v>
+        <v>3334411000</v>
       </c>
       <c r="O40">
-        <v>79424100</v>
+        <v>31352600</v>
       </c>
       <c r="P40">
-        <v>1485836219000</v>
+        <v>558301499000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1672753500000</v>
+        <v>1672741200000</v>
       </c>
       <c r="B41">
-        <v>3943300</v>
+        <v>1103800</v>
       </c>
       <c r="C41">
-        <v>10932700</v>
+        <v>1088100</v>
       </c>
       <c r="D41">
-        <v>72400</v>
+        <v>8900</v>
       </c>
       <c r="E41">
-        <v>68181219000</v>
+        <v>18029423000</v>
       </c>
       <c r="F41">
-        <v>207311661000</v>
+        <v>20816051000</v>
       </c>
       <c r="G41">
-        <v>1070536000</v>
+        <v>290915000</v>
       </c>
       <c r="H41">
-        <v>14948400</v>
+        <v>2200800</v>
       </c>
       <c r="I41">
-        <v>276563416000</v>
+        <v>39136389000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-01-03T13:45:00.000Z</v>
+        <v>2023-01-03T10:20:00.000Z</v>
       </c>
       <c r="K41">
-        <v>6175133115000</v>
+        <v>2513959079000</v>
       </c>
       <c r="L41">
-        <v>376565500</v>
+        <v>167474000</v>
       </c>
       <c r="M41">
-        <v>6989400</v>
+        <v>-15700</v>
       </c>
       <c r="N41">
-        <v>139130442000</v>
+        <v>2786628000</v>
       </c>
       <c r="O41">
-        <v>86413500</v>
+        <v>31336900</v>
       </c>
       <c r="P41">
-        <v>1624966661000</v>
+        <v>561088127000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1672753800000</v>
+        <v>1672741320000</v>
       </c>
       <c r="B42">
-        <v>5277500</v>
+        <v>880300</v>
       </c>
       <c r="C42">
-        <v>6478800</v>
+        <v>856800</v>
       </c>
       <c r="D42">
-        <v>23400</v>
+        <v>18800</v>
       </c>
       <c r="E42">
-        <v>98951047000</v>
+        <v>15023291000</v>
       </c>
       <c r="F42">
-        <v>116866446000</v>
+        <v>16295921000</v>
       </c>
       <c r="G42">
-        <v>509303000</v>
+        <v>185328000</v>
       </c>
       <c r="H42">
-        <v>11779700</v>
+        <v>1755900</v>
       </c>
       <c r="I42">
-        <v>216326796000</v>
+        <v>31504540000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-01-03T13:50:00.000Z</v>
+        <v>2023-01-03T10:22:00.000Z</v>
       </c>
       <c r="K42">
-        <v>6391459911000</v>
+        <v>2545463619000</v>
       </c>
       <c r="L42">
-        <v>388345200</v>
+        <v>169229900</v>
       </c>
       <c r="M42">
-        <v>1201300</v>
+        <v>-23500</v>
       </c>
       <c r="N42">
-        <v>17915399000</v>
+        <v>1272630000</v>
       </c>
       <c r="O42">
-        <v>87614800</v>
+        <v>31313400</v>
       </c>
       <c r="P42">
-        <v>1642882060000</v>
+        <v>562360757000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1672754100000</v>
+        <v>1672741440000</v>
       </c>
       <c r="B43">
-        <v>5048900</v>
+        <v>1029300</v>
       </c>
       <c r="C43">
-        <v>4440900</v>
+        <v>1463600</v>
       </c>
       <c r="D43">
-        <v>35200</v>
+        <v>13200</v>
       </c>
       <c r="E43">
-        <v>91479231000</v>
+        <v>17774821000</v>
       </c>
       <c r="F43">
-        <v>85989414000</v>
+        <v>26075967000</v>
       </c>
       <c r="G43">
-        <v>611343000</v>
+        <v>162335000</v>
       </c>
       <c r="H43">
-        <v>9525000</v>
+        <v>2506100</v>
       </c>
       <c r="I43">
-        <v>178079988000</v>
+        <v>44013123000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-01-03T13:55:00.000Z</v>
+        <v>2023-01-03T10:24:00.000Z</v>
       </c>
       <c r="K43">
-        <v>6569539899000</v>
+        <v>2589476742000</v>
       </c>
       <c r="L43">
-        <v>397870200</v>
+        <v>171736000</v>
       </c>
       <c r="M43">
-        <v>-608000</v>
+        <v>434300</v>
       </c>
       <c r="N43">
-        <v>-5489817000</v>
+        <v>8301146000</v>
       </c>
       <c r="O43">
-        <v>87006800</v>
+        <v>31747700</v>
       </c>
       <c r="P43">
-        <v>1637392243000</v>
+        <v>570661903000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1672754400000</v>
+        <v>1672741560000</v>
       </c>
       <c r="B44">
-        <v>3797000</v>
+        <v>833500</v>
       </c>
       <c r="C44">
-        <v>4161900</v>
+        <v>1570600</v>
       </c>
       <c r="D44">
-        <v>46000</v>
+        <v>6800</v>
       </c>
       <c r="E44">
-        <v>69712384000</v>
+        <v>13469459000</v>
       </c>
       <c r="F44">
-        <v>90341053000</v>
+        <v>25532147000</v>
       </c>
       <c r="G44">
-        <v>679589000</v>
+        <v>154340000</v>
       </c>
       <c r="H44">
-        <v>8004900</v>
+        <v>2410900</v>
       </c>
       <c r="I44">
-        <v>160733026000</v>
+        <v>39155946000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-01-03T14:00:00.000Z</v>
+        <v>2023-01-03T10:26:00.000Z</v>
       </c>
       <c r="K44">
-        <v>6730272925000</v>
+        <v>2628632688000</v>
       </c>
       <c r="L44">
-        <v>405875100</v>
+        <v>174146900</v>
       </c>
       <c r="M44">
-        <v>364900</v>
+        <v>737100</v>
       </c>
       <c r="N44">
-        <v>20628669000</v>
+        <v>12062688000</v>
       </c>
       <c r="O44">
-        <v>87371700</v>
+        <v>32484800</v>
       </c>
       <c r="P44">
-        <v>1658020912000</v>
+        <v>582724591000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1672754700000</v>
+        <v>1672741680000</v>
       </c>
       <c r="B45">
-        <v>3858900</v>
+        <v>1076800</v>
       </c>
       <c r="C45">
-        <v>6534700</v>
+        <v>1521300</v>
       </c>
       <c r="D45">
-        <v>43600</v>
+        <v>14400</v>
       </c>
       <c r="E45">
-        <v>72339786000</v>
+        <v>17106433000</v>
       </c>
       <c r="F45">
-        <v>115787583000</v>
+        <v>26217255000</v>
       </c>
       <c r="G45">
-        <v>866472000</v>
+        <v>176515000</v>
       </c>
       <c r="H45">
-        <v>10437200</v>
+        <v>2612500</v>
       </c>
       <c r="I45">
-        <v>188993841000</v>
+        <v>43500203000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-01-03T14:05:00.000Z</v>
+        <v>2023-01-03T10:28:00.000Z</v>
       </c>
       <c r="K45">
-        <v>6919266766000</v>
+        <v>2672132891000</v>
       </c>
       <c r="L45">
-        <v>416312300</v>
+        <v>176759400</v>
       </c>
       <c r="M45">
-        <v>2675800</v>
+        <v>444500</v>
       </c>
       <c r="N45">
-        <v>43447797000</v>
+        <v>9110822000</v>
       </c>
       <c r="O45">
-        <v>90047500</v>
+        <v>32929300</v>
       </c>
       <c r="P45">
-        <v>1701468709000</v>
+        <v>591835413000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1672755000000</v>
+        <v>1672741800000</v>
       </c>
       <c r="B46">
-        <v>4761300</v>
+        <v>1514300</v>
       </c>
       <c r="C46">
-        <v>7722700</v>
+        <v>898600</v>
       </c>
       <c r="D46">
-        <v>42800</v>
+        <v>4300</v>
       </c>
       <c r="E46">
-        <v>88350905000</v>
+        <v>26561108000</v>
       </c>
       <c r="F46">
-        <v>131822917000</v>
+        <v>16312925000</v>
       </c>
       <c r="G46">
-        <v>734805000</v>
+        <v>61425000</v>
       </c>
       <c r="H46">
-        <v>12526800</v>
+        <v>2417200</v>
       </c>
       <c r="I46">
-        <v>220908627000</v>
+        <v>42935458000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-01-03T14:10:00.000Z</v>
+        <v>2023-01-03T10:30:00.000Z</v>
       </c>
       <c r="K46">
-        <v>7140175393000</v>
+        <v>2715068349000</v>
       </c>
       <c r="L46">
-        <v>428839100</v>
+        <v>179176600</v>
       </c>
       <c r="M46">
-        <v>2961400</v>
+        <v>-615700</v>
       </c>
       <c r="N46">
-        <v>43472012000</v>
+        <v>-10248183000</v>
       </c>
       <c r="O46">
-        <v>93008900</v>
+        <v>32313600</v>
       </c>
       <c r="P46">
-        <v>1744940721000</v>
+        <v>581587230000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1672755300000</v>
+        <v>1672741920000</v>
       </c>
       <c r="B47">
-        <v>5901200</v>
+        <v>2766100</v>
       </c>
       <c r="C47">
-        <v>7565000</v>
+        <v>654300</v>
       </c>
       <c r="D47">
-        <v>35000</v>
+        <v>13800</v>
       </c>
       <c r="E47">
-        <v>108455370000</v>
+        <v>42870791000</v>
       </c>
       <c r="F47">
-        <v>117366701000</v>
+        <v>11232834000</v>
       </c>
       <c r="G47">
-        <v>604194000</v>
+        <v>473902000</v>
       </c>
       <c r="H47">
-        <v>13501200</v>
+        <v>3434200</v>
       </c>
       <c r="I47">
-        <v>226426265000</v>
+        <v>54577527000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-01-03T14:15:00.000Z</v>
+        <v>2023-01-03T10:32:00.000Z</v>
       </c>
       <c r="K47">
-        <v>7366601658000</v>
+        <v>2769645876000</v>
       </c>
       <c r="L47">
-        <v>442340300</v>
+        <v>182610800</v>
       </c>
       <c r="M47">
-        <v>1663800</v>
+        <v>-2111800</v>
       </c>
       <c r="N47">
-        <v>8911331000</v>
+        <v>-31637957000</v>
       </c>
       <c r="O47">
-        <v>94672700</v>
+        <v>30201800</v>
       </c>
       <c r="P47">
-        <v>1753852052000</v>
+        <v>549949273000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1672755600000</v>
+        <v>1672742040000</v>
       </c>
       <c r="B48">
-        <v>5390700</v>
+        <v>844800</v>
       </c>
       <c r="C48">
-        <v>5151500</v>
+        <v>888500</v>
       </c>
       <c r="D48">
-        <v>22100</v>
+        <v>2600</v>
       </c>
       <c r="E48">
-        <v>77375758000</v>
+        <v>13054786000</v>
       </c>
       <c r="F48">
-        <v>89952255000</v>
+        <v>17691821000</v>
       </c>
       <c r="G48">
-        <v>328666000</v>
+        <v>48620000</v>
       </c>
       <c r="H48">
-        <v>10564300</v>
+        <v>1735900</v>
       </c>
       <c r="I48">
-        <v>167656679000</v>
+        <v>30795227000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-01-03T14:20:00.000Z</v>
+        <v>2023-01-03T10:34:00.000Z</v>
       </c>
       <c r="K48">
-        <v>7534258337000</v>
+        <v>2800441103000</v>
       </c>
       <c r="L48">
-        <v>452904600</v>
+        <v>184346700</v>
       </c>
       <c r="M48">
-        <v>-239200</v>
+        <v>43700</v>
       </c>
       <c r="N48">
-        <v>12576497000</v>
+        <v>4637035000</v>
       </c>
       <c r="O48">
-        <v>94433500</v>
+        <v>30245500</v>
       </c>
       <c r="P48">
-        <v>1766428549000</v>
+        <v>554586308000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1672755900000</v>
+        <v>1672742160000</v>
       </c>
       <c r="B49">
-        <v>5165600</v>
+        <v>769500</v>
       </c>
       <c r="C49">
-        <v>10508100</v>
+        <v>693500</v>
       </c>
       <c r="D49">
-        <v>65200</v>
+        <v>27500</v>
       </c>
       <c r="E49">
-        <v>72270507000</v>
+        <v>13718811000</v>
       </c>
       <c r="F49">
-        <v>209565260000</v>
+        <v>11594322000</v>
       </c>
       <c r="G49">
-        <v>1918640000</v>
+        <v>319331000</v>
       </c>
       <c r="H49">
-        <v>15738900</v>
+        <v>1490500</v>
       </c>
       <c r="I49">
-        <v>283754407000</v>
+        <v>25632464000</v>
       </c>
       <c r="J49" t="str">
-        <v>2023-01-03T14:25:00.000Z</v>
+        <v>2023-01-03T10:36:00.000Z</v>
       </c>
       <c r="K49">
-        <v>7818012744000</v>
+        <v>2826073567000</v>
       </c>
       <c r="L49">
-        <v>468643500</v>
+        <v>185837200</v>
       </c>
       <c r="M49">
-        <v>5342500</v>
+        <v>-76000</v>
       </c>
       <c r="N49">
-        <v>137294753000</v>
+        <v>-2124489000</v>
       </c>
       <c r="O49">
-        <v>99776000</v>
+        <v>30169500</v>
       </c>
       <c r="P49">
-        <v>1903723302000</v>
+        <v>552461819000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1672756200000</v>
+        <v>1672742280000</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1283400</v>
       </c>
       <c r="C50">
-        <v>500</v>
+        <v>602900</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>21685448000</v>
       </c>
       <c r="F50">
-        <v>6500000</v>
+        <v>13116187000</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>25649000</v>
       </c>
       <c r="H50">
-        <v>500</v>
+        <v>1887600</v>
       </c>
       <c r="I50">
-        <v>6500000</v>
+        <v>34827284000</v>
       </c>
       <c r="J50" t="str">
-        <v>2023-01-03T14:30:00.000Z</v>
+        <v>2023-01-03T10:38:00.000Z</v>
       </c>
       <c r="K50">
-        <v>7818019244000</v>
+        <v>2860900851000</v>
       </c>
       <c r="L50">
-        <v>468644000</v>
+        <v>187724800</v>
       </c>
       <c r="M50">
-        <v>500</v>
+        <v>-680500</v>
       </c>
       <c r="N50">
-        <v>6500000</v>
+        <v>-8569261000</v>
       </c>
       <c r="O50">
-        <v>99776500</v>
+        <v>29489000</v>
       </c>
       <c r="P50">
-        <v>1903729802000</v>
+        <v>543892558000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1672756800000</v>
+        <v>1672742400000</v>
       </c>
       <c r="B51">
+        <v>794300</v>
+      </c>
+      <c r="C51">
+        <v>613800</v>
+      </c>
+      <c r="D51">
         <v>0</v>
       </c>
-      <c r="C51">
-        <v>100</v>
-      </c>
-      <c r="D51">
-        <v>2800</v>
-      </c>
       <c r="E51">
+        <v>13594174000</v>
+      </c>
+      <c r="F51">
+        <v>10925938000</v>
+      </c>
+      <c r="G51">
         <v>0</v>
       </c>
-      <c r="F51">
-        <v>1300000</v>
-      </c>
-      <c r="G51">
-        <v>36400000</v>
-      </c>
       <c r="H51">
-        <v>2900</v>
+        <v>1408100</v>
       </c>
       <c r="I51">
-        <v>37700000</v>
+        <v>24520112000</v>
       </c>
       <c r="J51" t="str">
-        <v>2023-01-03T14:40:00.000Z</v>
+        <v>2023-01-03T10:40:00.000Z</v>
       </c>
       <c r="K51">
-        <v>7818056944000</v>
+        <v>2885420963000</v>
       </c>
       <c r="L51">
-        <v>468646900</v>
+        <v>189132900</v>
       </c>
       <c r="M51">
-        <v>100</v>
+        <v>-180500</v>
       </c>
       <c r="N51">
-        <v>1300000</v>
+        <v>-2668236000</v>
       </c>
       <c r="O51">
-        <v>99776600</v>
+        <v>29308500</v>
       </c>
       <c r="P51">
-        <v>1903731102000</v>
+        <v>541224322000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1672757100000</v>
+        <v>1672742520000</v>
       </c>
       <c r="B52">
-        <v>2178700</v>
+        <v>1712300</v>
       </c>
       <c r="C52">
-        <v>7449400</v>
+        <v>918700</v>
       </c>
       <c r="D52">
-        <v>15969600</v>
+        <v>2100</v>
       </c>
       <c r="E52">
-        <v>37354459000</v>
+        <v>24038422000</v>
       </c>
       <c r="F52">
-        <v>145408105000</v>
+        <v>18735757000</v>
       </c>
       <c r="G52">
-        <v>334523534000</v>
+        <v>39860000</v>
       </c>
       <c r="H52">
-        <v>25597700</v>
+        <v>2633100</v>
       </c>
       <c r="I52">
-        <v>517286098000</v>
+        <v>42814039000</v>
       </c>
       <c r="J52" t="str">
-        <v>2023-01-03T14:45:00.000Z</v>
+        <v>2023-01-03T10:42:00.000Z</v>
       </c>
       <c r="K52">
-        <v>8335343042000</v>
+        <v>2928235002000</v>
       </c>
       <c r="L52">
-        <v>494244600</v>
+        <v>191766000</v>
       </c>
       <c r="M52">
-        <v>5270700</v>
+        <v>-793600</v>
       </c>
       <c r="N52">
-        <v>108053646000</v>
+        <v>-5302665000</v>
       </c>
       <c r="O52">
-        <v>105047300</v>
+        <v>28514900</v>
       </c>
       <c r="P52">
-        <v>2011784748000</v>
+        <v>535921657000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1672757400000</v>
+        <v>1672742640000</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>828000</v>
       </c>
       <c r="C53">
-        <v>1800</v>
+        <v>1028500</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>10614327000</v>
       </c>
       <c r="F53">
-        <v>23580000</v>
+        <v>22188975000</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>25255000</v>
       </c>
       <c r="H53">
-        <v>1800</v>
+        <v>1857300</v>
       </c>
       <c r="I53">
-        <v>23580000</v>
+        <v>32828557000</v>
       </c>
       <c r="J53" t="str">
-        <v>2023-01-03T14:50:00.000Z</v>
+        <v>2023-01-03T10:44:00.000Z</v>
       </c>
       <c r="K53">
-        <v>8335366622000</v>
+        <v>2961063559000</v>
       </c>
       <c r="L53">
-        <v>494246400</v>
+        <v>193623300</v>
       </c>
       <c r="M53">
-        <v>1800</v>
+        <v>200500</v>
       </c>
       <c r="N53">
-        <v>23580000</v>
+        <v>11574648000</v>
       </c>
       <c r="O53">
-        <v>105049100</v>
+        <v>28715400</v>
       </c>
       <c r="P53">
-        <v>2011808328000</v>
+        <v>547496305000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1672757700000</v>
+        <v>1672742760000</v>
       </c>
       <c r="B54">
+        <v>1069900</v>
+      </c>
+      <c r="C54">
+        <v>1820800</v>
+      </c>
+      <c r="D54">
+        <v>56400</v>
+      </c>
+      <c r="E54">
+        <v>18542563000</v>
+      </c>
+      <c r="F54">
+        <v>33457822000</v>
+      </c>
+      <c r="G54">
+        <v>521085000</v>
+      </c>
+      <c r="H54">
+        <v>2947100</v>
+      </c>
+      <c r="I54">
+        <v>52521470000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-01-03T10:46:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>3013585029000</v>
+      </c>
+      <c r="L54">
+        <v>196570400</v>
+      </c>
+      <c r="M54">
+        <v>750900</v>
+      </c>
+      <c r="N54">
+        <v>14915259000</v>
+      </c>
+      <c r="O54">
+        <v>29466300</v>
+      </c>
+      <c r="P54">
+        <v>562411564000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1672742880000</v>
+      </c>
+      <c r="B55">
+        <v>870300</v>
+      </c>
+      <c r="C55">
+        <v>1001600</v>
+      </c>
+      <c r="D55">
+        <v>23400</v>
+      </c>
+      <c r="E55">
+        <v>15125957000</v>
+      </c>
+      <c r="F55">
+        <v>17518156000</v>
+      </c>
+      <c r="G55">
+        <v>446973000</v>
+      </c>
+      <c r="H55">
+        <v>1895300</v>
+      </c>
+      <c r="I55">
+        <v>33091086000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-01-03T10:48:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>3046676115000</v>
+      </c>
+      <c r="L55">
+        <v>198465700</v>
+      </c>
+      <c r="M55">
+        <v>131300</v>
+      </c>
+      <c r="N55">
+        <v>2392199000</v>
+      </c>
+      <c r="O55">
+        <v>29597600</v>
+      </c>
+      <c r="P55">
+        <v>564803763000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1672743000000</v>
+      </c>
+      <c r="B56">
+        <v>1166100</v>
+      </c>
+      <c r="C56">
+        <v>602800</v>
+      </c>
+      <c r="D56">
+        <v>10300</v>
+      </c>
+      <c r="E56">
+        <v>22610371000</v>
+      </c>
+      <c r="F56">
+        <v>11292566000</v>
+      </c>
+      <c r="G56">
+        <v>226250000</v>
+      </c>
+      <c r="H56">
+        <v>1779200</v>
+      </c>
+      <c r="I56">
+        <v>34129187000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-01-03T10:50:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>3080805302000</v>
+      </c>
+      <c r="L56">
+        <v>200244900</v>
+      </c>
+      <c r="M56">
+        <v>-563300</v>
+      </c>
+      <c r="N56">
+        <v>-11317805000</v>
+      </c>
+      <c r="O56">
+        <v>29034300</v>
+      </c>
+      <c r="P56">
+        <v>553485958000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1672743120000</v>
+      </c>
+      <c r="B57">
+        <v>647900</v>
+      </c>
+      <c r="C57">
+        <v>1971100</v>
+      </c>
+      <c r="D57">
+        <v>56900</v>
+      </c>
+      <c r="E57">
+        <v>11640677000</v>
+      </c>
+      <c r="F57">
+        <v>33052089000</v>
+      </c>
+      <c r="G57">
+        <v>847624000</v>
+      </c>
+      <c r="H57">
+        <v>2675900</v>
+      </c>
+      <c r="I57">
+        <v>45540390000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-01-03T10:52:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>3126345692000</v>
+      </c>
+      <c r="L57">
+        <v>202920800</v>
+      </c>
+      <c r="M57">
+        <v>1323200</v>
+      </c>
+      <c r="N57">
+        <v>21411412000</v>
+      </c>
+      <c r="O57">
+        <v>30357500</v>
+      </c>
+      <c r="P57">
+        <v>574897370000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1672743240000</v>
+      </c>
+      <c r="B58">
+        <v>1060800</v>
+      </c>
+      <c r="C58">
+        <v>1531600</v>
+      </c>
+      <c r="D58">
+        <v>6900</v>
+      </c>
+      <c r="E58">
+        <v>20192361000</v>
+      </c>
+      <c r="F58">
+        <v>28866832000</v>
+      </c>
+      <c r="G58">
+        <v>107185000</v>
+      </c>
+      <c r="H58">
+        <v>2599300</v>
+      </c>
+      <c r="I58">
+        <v>49166378000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-01-03T10:54:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>3175512070000</v>
+      </c>
+      <c r="L58">
+        <v>205520100</v>
+      </c>
+      <c r="M58">
+        <v>470800</v>
+      </c>
+      <c r="N58">
+        <v>8674471000</v>
+      </c>
+      <c r="O58">
+        <v>30828300</v>
+      </c>
+      <c r="P58">
+        <v>583571841000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1672743360000</v>
+      </c>
+      <c r="B59">
+        <v>952000</v>
+      </c>
+      <c r="C59">
+        <v>685100</v>
+      </c>
+      <c r="D59">
+        <v>800</v>
+      </c>
+      <c r="E59">
+        <v>16447753000</v>
+      </c>
+      <c r="F59">
+        <v>12046853000</v>
+      </c>
+      <c r="G59">
+        <v>3279999.9999999995</v>
+      </c>
+      <c r="H59">
+        <v>1637900</v>
+      </c>
+      <c r="I59">
+        <v>28497886000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-01-03T10:56:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>3204009956000</v>
+      </c>
+      <c r="L59">
+        <v>207158000</v>
+      </c>
+      <c r="M59">
+        <v>-266900</v>
+      </c>
+      <c r="N59">
+        <v>-4400900000</v>
+      </c>
+      <c r="O59">
+        <v>30561400</v>
+      </c>
+      <c r="P59">
+        <v>579170941000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1672743480000</v>
+      </c>
+      <c r="B60">
+        <v>854500</v>
+      </c>
+      <c r="C60">
+        <v>1617600</v>
+      </c>
+      <c r="D60">
+        <v>30600</v>
+      </c>
+      <c r="E60">
+        <v>14763541000</v>
+      </c>
+      <c r="F60">
+        <v>29575371000</v>
+      </c>
+      <c r="G60">
+        <v>994850000</v>
+      </c>
+      <c r="H60">
+        <v>2502700</v>
+      </c>
+      <c r="I60">
+        <v>45333762000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-01-03T10:58:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>3249343718000</v>
+      </c>
+      <c r="L60">
+        <v>209660700</v>
+      </c>
+      <c r="M60">
+        <v>763100</v>
+      </c>
+      <c r="N60">
+        <v>14811830000</v>
+      </c>
+      <c r="O60">
+        <v>31324500</v>
+      </c>
+      <c r="P60">
+        <v>593982771000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1672743600000</v>
+      </c>
+      <c r="B61">
+        <v>618200</v>
+      </c>
+      <c r="C61">
+        <v>1394600</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>9655134000</v>
+      </c>
+      <c r="F61">
+        <v>28589962000</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>2012800</v>
+      </c>
+      <c r="I61">
+        <v>38245096000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-01-03T11:00:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>3287588814000</v>
+      </c>
+      <c r="L61">
+        <v>211673500</v>
+      </c>
+      <c r="M61">
+        <v>776400</v>
+      </c>
+      <c r="N61">
+        <v>18934828000</v>
+      </c>
+      <c r="O61">
+        <v>32100900</v>
+      </c>
+      <c r="P61">
+        <v>612917599000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1672743720000</v>
+      </c>
+      <c r="B62">
+        <v>751800</v>
+      </c>
+      <c r="C62">
+        <v>2502100</v>
+      </c>
+      <c r="D62">
+        <v>30100</v>
+      </c>
+      <c r="E62">
+        <v>14891727000</v>
+      </c>
+      <c r="F62">
+        <v>42977137000</v>
+      </c>
+      <c r="G62">
+        <v>538406000</v>
+      </c>
+      <c r="H62">
+        <v>3284000</v>
+      </c>
+      <c r="I62">
+        <v>58407270000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-01-03T11:02:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>3345996084000</v>
+      </c>
+      <c r="L62">
+        <v>214957500</v>
+      </c>
+      <c r="M62">
+        <v>1750300</v>
+      </c>
+      <c r="N62">
+        <v>28085410000</v>
+      </c>
+      <c r="O62">
+        <v>33851200</v>
+      </c>
+      <c r="P62">
+        <v>641003009000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1672743840000</v>
+      </c>
+      <c r="B63">
+        <v>986600</v>
+      </c>
+      <c r="C63">
+        <v>3590400</v>
+      </c>
+      <c r="D63">
+        <v>34100</v>
+      </c>
+      <c r="E63">
+        <v>17769588000</v>
+      </c>
+      <c r="F63">
+        <v>63013832000</v>
+      </c>
+      <c r="G63">
+        <v>510190000</v>
+      </c>
+      <c r="H63">
+        <v>4611100</v>
+      </c>
+      <c r="I63">
+        <v>81293610000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-01-03T11:04:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>3427289694000</v>
+      </c>
+      <c r="L63">
+        <v>219568600</v>
+      </c>
+      <c r="M63">
+        <v>2603800</v>
+      </c>
+      <c r="N63">
+        <v>45244244000</v>
+      </c>
+      <c r="O63">
+        <v>36455000</v>
+      </c>
+      <c r="P63">
+        <v>686247253000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1672743960000</v>
+      </c>
+      <c r="B64">
+        <v>1215300</v>
+      </c>
+      <c r="C64">
+        <v>6218900</v>
+      </c>
+      <c r="D64">
+        <v>38400</v>
+      </c>
+      <c r="E64">
+        <v>20659468000</v>
+      </c>
+      <c r="F64">
+        <v>104812777000</v>
+      </c>
+      <c r="G64">
+        <v>994159000</v>
+      </c>
+      <c r="H64">
+        <v>7472600</v>
+      </c>
+      <c r="I64">
+        <v>126466404000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-01-03T11:06:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>3553756098000</v>
+      </c>
+      <c r="L64">
+        <v>227041200</v>
+      </c>
+      <c r="M64">
+        <v>5003600</v>
+      </c>
+      <c r="N64">
+        <v>84153309000</v>
+      </c>
+      <c r="O64">
+        <v>41458600</v>
+      </c>
+      <c r="P64">
+        <v>770400562000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1672744080000</v>
+      </c>
+      <c r="B65">
+        <v>721400</v>
+      </c>
+      <c r="C65">
+        <v>3663600</v>
+      </c>
+      <c r="D65">
+        <v>7500</v>
+      </c>
+      <c r="E65">
+        <v>13683762000</v>
+      </c>
+      <c r="F65">
+        <v>58600537000</v>
+      </c>
+      <c r="G65">
+        <v>65543000</v>
+      </c>
+      <c r="H65">
+        <v>4392500</v>
+      </c>
+      <c r="I65">
+        <v>72349842000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-01-03T11:08:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>3626105940000</v>
+      </c>
+      <c r="L65">
+        <v>231433700</v>
+      </c>
+      <c r="M65">
+        <v>2942200</v>
+      </c>
+      <c r="N65">
+        <v>44916775000</v>
+      </c>
+      <c r="O65">
+        <v>44400800</v>
+      </c>
+      <c r="P65">
+        <v>815317337000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1672744200000</v>
+      </c>
+      <c r="B66">
+        <v>1093400</v>
+      </c>
+      <c r="C66">
+        <v>3968300</v>
+      </c>
+      <c r="D66">
+        <v>5800</v>
+      </c>
+      <c r="E66">
+        <v>19683472000</v>
+      </c>
+      <c r="F66">
+        <v>63986896000</v>
+      </c>
+      <c r="G66">
+        <v>121865000</v>
+      </c>
+      <c r="H66">
+        <v>5067500</v>
+      </c>
+      <c r="I66">
+        <v>83792233000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-01-03T11:10:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>3709898173000</v>
+      </c>
+      <c r="L66">
+        <v>236501200</v>
+      </c>
+      <c r="M66">
+        <v>2874900</v>
+      </c>
+      <c r="N66">
+        <v>44303424000</v>
+      </c>
+      <c r="O66">
+        <v>47275700</v>
+      </c>
+      <c r="P66">
+        <v>859620761000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1672744320000</v>
+      </c>
+      <c r="B67">
+        <v>2436700</v>
+      </c>
+      <c r="C67">
+        <v>3864000</v>
+      </c>
+      <c r="D67">
+        <v>14900</v>
+      </c>
+      <c r="E67">
+        <v>33699813000</v>
+      </c>
+      <c r="F67">
+        <v>65351397000</v>
+      </c>
+      <c r="G67">
+        <v>289965000</v>
+      </c>
+      <c r="H67">
+        <v>6315600</v>
+      </c>
+      <c r="I67">
+        <v>99341175000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-01-03T11:12:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>3809239348000</v>
+      </c>
+      <c r="L67">
+        <v>242816800</v>
+      </c>
+      <c r="M67">
+        <v>1427300</v>
+      </c>
+      <c r="N67">
+        <v>31651584000</v>
+      </c>
+      <c r="O67">
+        <v>48703000</v>
+      </c>
+      <c r="P67">
+        <v>891272345000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1672744440000</v>
+      </c>
+      <c r="B68">
+        <v>1623800</v>
+      </c>
+      <c r="C68">
+        <v>1474700</v>
+      </c>
+      <c r="D68">
+        <v>27800</v>
+      </c>
+      <c r="E68">
+        <v>32157565000</v>
+      </c>
+      <c r="F68">
+        <v>24235598000</v>
+      </c>
+      <c r="G68">
+        <v>635313000</v>
+      </c>
+      <c r="H68">
+        <v>3126300</v>
+      </c>
+      <c r="I68">
+        <v>57028476000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-01-03T11:14:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>3866267824000</v>
+      </c>
+      <c r="L68">
+        <v>245943100</v>
+      </c>
+      <c r="M68">
+        <v>-149100</v>
+      </c>
+      <c r="N68">
+        <v>-7921967000</v>
+      </c>
+      <c r="O68">
+        <v>48553900</v>
+      </c>
+      <c r="P68">
+        <v>883350378000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1672744560000</v>
+      </c>
+      <c r="B69">
+        <v>1088100</v>
+      </c>
+      <c r="C69">
+        <v>734500</v>
+      </c>
+      <c r="D69">
+        <v>3800</v>
+      </c>
+      <c r="E69">
+        <v>19032726000</v>
+      </c>
+      <c r="F69">
+        <v>12345324000</v>
+      </c>
+      <c r="G69">
+        <v>72525000</v>
+      </c>
+      <c r="H69">
+        <v>1826400</v>
+      </c>
+      <c r="I69">
+        <v>31450575000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-01-03T11:16:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>3897718399000</v>
+      </c>
+      <c r="L69">
+        <v>247769500</v>
+      </c>
+      <c r="M69">
+        <v>-353600</v>
+      </c>
+      <c r="N69">
+        <v>-6687402000</v>
+      </c>
+      <c r="O69">
+        <v>48200300</v>
+      </c>
+      <c r="P69">
+        <v>876662976000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1672744680000</v>
+      </c>
+      <c r="B70">
+        <v>1004900</v>
+      </c>
+      <c r="C70">
+        <v>726700</v>
+      </c>
+      <c r="D70">
+        <v>37300</v>
+      </c>
+      <c r="E70">
+        <v>19785968000</v>
+      </c>
+      <c r="F70">
+        <v>13388463000</v>
+      </c>
+      <c r="G70">
+        <v>503635000</v>
+      </c>
+      <c r="H70">
+        <v>1768900</v>
+      </c>
+      <c r="I70">
+        <v>33678066000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-01-03T11:18:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>3931396465000</v>
+      </c>
+      <c r="L70">
+        <v>249538400</v>
+      </c>
+      <c r="M70">
+        <v>-278200</v>
+      </c>
+      <c r="N70">
+        <v>-6397505000</v>
+      </c>
+      <c r="O70">
+        <v>47922100</v>
+      </c>
+      <c r="P70">
+        <v>870265471000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1672744800000</v>
+      </c>
+      <c r="B71">
+        <v>1229700</v>
+      </c>
+      <c r="C71">
+        <v>931200</v>
+      </c>
+      <c r="D71">
+        <v>21500</v>
+      </c>
+      <c r="E71">
+        <v>24219564000</v>
+      </c>
+      <c r="F71">
+        <v>17627787000</v>
+      </c>
+      <c r="G71">
+        <v>459155000</v>
+      </c>
+      <c r="H71">
+        <v>2182400</v>
+      </c>
+      <c r="I71">
+        <v>42306506000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-01-03T11:20:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>3973702971000</v>
+      </c>
+      <c r="L71">
+        <v>251720800</v>
+      </c>
+      <c r="M71">
+        <v>-298500</v>
+      </c>
+      <c r="N71">
+        <v>-6591777000</v>
+      </c>
+      <c r="O71">
+        <v>47623600</v>
+      </c>
+      <c r="P71">
+        <v>863673694000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1672744920000</v>
+      </c>
+      <c r="B72">
+        <v>757300</v>
+      </c>
+      <c r="C72">
+        <v>904800</v>
+      </c>
+      <c r="D72">
+        <v>2100</v>
+      </c>
+      <c r="E72">
+        <v>16083817000</v>
+      </c>
+      <c r="F72">
+        <v>19674416000</v>
+      </c>
+      <c r="G72">
+        <v>139000000</v>
+      </c>
+      <c r="H72">
+        <v>1664200</v>
+      </c>
+      <c r="I72">
+        <v>35897233000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-01-03T11:22:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>4009600204000</v>
+      </c>
+      <c r="L72">
+        <v>253385000</v>
+      </c>
+      <c r="M72">
+        <v>147500</v>
+      </c>
+      <c r="N72">
+        <v>3590599000</v>
+      </c>
+      <c r="O72">
+        <v>47771100</v>
+      </c>
+      <c r="P72">
+        <v>867264293000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1672745040000</v>
+      </c>
+      <c r="B73">
+        <v>1160100</v>
+      </c>
+      <c r="C73">
+        <v>1184700</v>
+      </c>
+      <c r="D73">
+        <v>70000</v>
+      </c>
+      <c r="E73">
+        <v>22879070000</v>
+      </c>
+      <c r="F73">
+        <v>18100845000</v>
+      </c>
+      <c r="G73">
+        <v>1320585000</v>
+      </c>
+      <c r="H73">
+        <v>2414800</v>
+      </c>
+      <c r="I73">
+        <v>42300500000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-01-03T11:24:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>4051900704000</v>
+      </c>
+      <c r="L73">
+        <v>255799800</v>
+      </c>
+      <c r="M73">
+        <v>24600</v>
+      </c>
+      <c r="N73">
+        <v>-4778225000</v>
+      </c>
+      <c r="O73">
+        <v>47795700</v>
+      </c>
+      <c r="P73">
+        <v>862486068000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1672745160000</v>
+      </c>
+      <c r="B74">
+        <v>1440000</v>
+      </c>
+      <c r="C74">
+        <v>727700</v>
+      </c>
+      <c r="D74">
+        <v>12100</v>
+      </c>
+      <c r="E74">
+        <v>22436484000</v>
+      </c>
+      <c r="F74">
+        <v>13996275000</v>
+      </c>
+      <c r="G74">
+        <v>220294000</v>
+      </c>
+      <c r="H74">
+        <v>2179800</v>
+      </c>
+      <c r="I74">
+        <v>36653053000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-01-03T11:26:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>4088553757000</v>
+      </c>
+      <c r="L74">
+        <v>257979600</v>
+      </c>
+      <c r="M74">
+        <v>-712300</v>
+      </c>
+      <c r="N74">
+        <v>-8440209000</v>
+      </c>
+      <c r="O74">
+        <v>47083400</v>
+      </c>
+      <c r="P74">
+        <v>854045859000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1672745280000</v>
+      </c>
+      <c r="B75">
+        <v>1281300</v>
+      </c>
+      <c r="C75">
+        <v>937700</v>
+      </c>
+      <c r="D75">
+        <v>200</v>
+      </c>
+      <c r="E75">
+        <v>21716654000</v>
+      </c>
+      <c r="F75">
+        <v>17102550000</v>
+      </c>
+      <c r="G75">
+        <v>5400000</v>
+      </c>
+      <c r="H75">
+        <v>2219200</v>
+      </c>
+      <c r="I75">
+        <v>38824604000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-01-03T11:28:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>4127378361000</v>
+      </c>
+      <c r="L75">
+        <v>260198800</v>
+      </c>
+      <c r="M75">
+        <v>-343600</v>
+      </c>
+      <c r="N75">
+        <v>-4614104000</v>
+      </c>
+      <c r="O75">
+        <v>46739800</v>
+      </c>
+      <c r="P75">
+        <v>849431755000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1672750800000</v>
+      </c>
+      <c r="B76">
+        <v>4215400</v>
+      </c>
+      <c r="C76">
+        <v>2891200</v>
+      </c>
+      <c r="D76">
+        <v>108100</v>
+      </c>
+      <c r="E76">
+        <v>50205469000</v>
+      </c>
+      <c r="F76">
+        <v>43863292000</v>
+      </c>
+      <c r="G76">
+        <v>1729606000</v>
+      </c>
+      <c r="H76">
+        <v>7214700</v>
+      </c>
+      <c r="I76">
+        <v>95798367000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-01-03T13:00:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>4223176728000</v>
+      </c>
+      <c r="L76">
+        <v>267413500</v>
+      </c>
+      <c r="M76">
+        <v>-1324200</v>
+      </c>
+      <c r="N76">
+        <v>-6342177000</v>
+      </c>
+      <c r="O76">
+        <v>45415600</v>
+      </c>
+      <c r="P76">
+        <v>843089578000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1672750920000</v>
+      </c>
+      <c r="B77">
+        <v>1047600</v>
+      </c>
+      <c r="C77">
+        <v>1460800</v>
+      </c>
+      <c r="D77">
+        <v>16600</v>
+      </c>
+      <c r="E77">
+        <v>18187607000</v>
+      </c>
+      <c r="F77">
+        <v>22439570000</v>
+      </c>
+      <c r="G77">
+        <v>162756000</v>
+      </c>
+      <c r="H77">
+        <v>2525000</v>
+      </c>
+      <c r="I77">
+        <v>40789933000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-01-03T13:02:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>4263966661000</v>
+      </c>
+      <c r="L77">
+        <v>269938500</v>
+      </c>
+      <c r="M77">
+        <v>413200</v>
+      </c>
+      <c r="N77">
+        <v>4251963000</v>
+      </c>
+      <c r="O77">
+        <v>45828800</v>
+      </c>
+      <c r="P77">
+        <v>847341541000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1672751040000</v>
+      </c>
+      <c r="B78">
+        <v>1896900</v>
+      </c>
+      <c r="C78">
+        <v>1886800</v>
+      </c>
+      <c r="D78">
+        <v>18400</v>
+      </c>
+      <c r="E78">
+        <v>29868288000</v>
+      </c>
+      <c r="F78">
+        <v>31212691000</v>
+      </c>
+      <c r="G78">
+        <v>628268000</v>
+      </c>
+      <c r="H78">
+        <v>3802100</v>
+      </c>
+      <c r="I78">
+        <v>61709247000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-01-03T13:04:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>4325675908000</v>
+      </c>
+      <c r="L78">
+        <v>273740600</v>
+      </c>
+      <c r="M78">
+        <v>-10100</v>
+      </c>
+      <c r="N78">
+        <v>1344403000</v>
+      </c>
+      <c r="O78">
+        <v>45818700</v>
+      </c>
+      <c r="P78">
+        <v>848685944000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1672751160000</v>
+      </c>
+      <c r="B79">
+        <v>1140400</v>
+      </c>
+      <c r="C79">
+        <v>2699500</v>
+      </c>
+      <c r="D79">
+        <v>28000</v>
+      </c>
+      <c r="E79">
+        <v>23333124000</v>
+      </c>
+      <c r="F79">
+        <v>52224366000</v>
+      </c>
+      <c r="G79">
+        <v>591804000</v>
+      </c>
+      <c r="H79">
+        <v>3867900</v>
+      </c>
+      <c r="I79">
+        <v>76149294000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-01-03T13:06:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>4401825202000</v>
+      </c>
+      <c r="L79">
+        <v>277608500</v>
+      </c>
+      <c r="M79">
+        <v>1559100</v>
+      </c>
+      <c r="N79">
+        <v>28891242000</v>
+      </c>
+      <c r="O79">
+        <v>47377800</v>
+      </c>
+      <c r="P79">
+        <v>877577186000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1672751280000</v>
+      </c>
+      <c r="B80">
+        <v>901400</v>
+      </c>
+      <c r="C80">
+        <v>2000100</v>
+      </c>
+      <c r="D80">
+        <v>10000</v>
+      </c>
+      <c r="E80">
+        <v>16283539000</v>
+      </c>
+      <c r="F80">
+        <v>36268590000</v>
+      </c>
+      <c r="G80">
+        <v>545503000</v>
+      </c>
+      <c r="H80">
+        <v>2911500</v>
+      </c>
+      <c r="I80">
+        <v>53097632000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-01-03T13:08:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>4454922834000</v>
+      </c>
+      <c r="L80">
+        <v>280520000</v>
+      </c>
+      <c r="M80">
+        <v>1098700</v>
+      </c>
+      <c r="N80">
+        <v>19985051000</v>
+      </c>
+      <c r="O80">
+        <v>48476500</v>
+      </c>
+      <c r="P80">
+        <v>897562237000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1672751400000</v>
+      </c>
+      <c r="B81">
+        <v>900800</v>
+      </c>
+      <c r="C81">
+        <v>3650000</v>
+      </c>
+      <c r="D81">
+        <v>23400</v>
+      </c>
+      <c r="E81">
+        <v>15100740000</v>
+      </c>
+      <c r="F81">
+        <v>56941699000</v>
+      </c>
+      <c r="G81">
+        <v>230262000</v>
+      </c>
+      <c r="H81">
+        <v>4574200</v>
+      </c>
+      <c r="I81">
+        <v>72272701000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-01-03T13:10:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>4527195535000</v>
+      </c>
+      <c r="L81">
+        <v>285094200</v>
+      </c>
+      <c r="M81">
+        <v>2749200</v>
+      </c>
+      <c r="N81">
+        <v>41840959000</v>
+      </c>
+      <c r="O81">
+        <v>51225700</v>
+      </c>
+      <c r="P81">
+        <v>939403196000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1672751520000</v>
+      </c>
+      <c r="B82">
+        <v>1454300</v>
+      </c>
+      <c r="C82">
+        <v>3191700</v>
+      </c>
+      <c r="D82">
+        <v>42200</v>
+      </c>
+      <c r="E82">
+        <v>22947731000</v>
+      </c>
+      <c r="F82">
+        <v>53951607000</v>
+      </c>
+      <c r="G82">
+        <v>555366000</v>
+      </c>
+      <c r="H82">
+        <v>4688200</v>
+      </c>
+      <c r="I82">
+        <v>77454704000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-01-03T13:12:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>4604650239000</v>
+      </c>
+      <c r="L82">
+        <v>289782400</v>
+      </c>
+      <c r="M82">
+        <v>1737400</v>
+      </c>
+      <c r="N82">
+        <v>31003876000</v>
+      </c>
+      <c r="O82">
+        <v>52963100</v>
+      </c>
+      <c r="P82">
+        <v>970407072000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1672751640000</v>
+      </c>
+      <c r="B83">
+        <v>1940400</v>
+      </c>
+      <c r="C83">
+        <v>3170600</v>
+      </c>
+      <c r="D83">
+        <v>43800</v>
+      </c>
+      <c r="E83">
+        <v>33900711000</v>
+      </c>
+      <c r="F83">
+        <v>52490080000</v>
+      </c>
+      <c r="G83">
+        <v>726316000</v>
+      </c>
+      <c r="H83">
+        <v>5154800</v>
+      </c>
+      <c r="I83">
+        <v>87117107000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-01-03T13:14:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>4691767346000</v>
+      </c>
+      <c r="L83">
+        <v>294937200</v>
+      </c>
+      <c r="M83">
+        <v>1230200</v>
+      </c>
+      <c r="N83">
+        <v>18589369000</v>
+      </c>
+      <c r="O83">
+        <v>54193300</v>
+      </c>
+      <c r="P83">
+        <v>988996441000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1672751760000</v>
+      </c>
+      <c r="B84">
+        <v>2033100</v>
+      </c>
+      <c r="C84">
+        <v>3378700</v>
+      </c>
+      <c r="D84">
+        <v>12300</v>
+      </c>
+      <c r="E84">
+        <v>32400757000</v>
+      </c>
+      <c r="F84">
+        <v>54909349000</v>
+      </c>
+      <c r="G84">
+        <v>751569000</v>
+      </c>
+      <c r="H84">
+        <v>5424100</v>
+      </c>
+      <c r="I84">
+        <v>88061675000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-01-03T13:16:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>4779829021000</v>
+      </c>
+      <c r="L84">
+        <v>300361300</v>
+      </c>
+      <c r="M84">
+        <v>1345600</v>
+      </c>
+      <c r="N84">
+        <v>22508592000</v>
+      </c>
+      <c r="O84">
+        <v>55538900</v>
+      </c>
+      <c r="P84">
+        <v>1011505033000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1672751880000</v>
+      </c>
+      <c r="B85">
+        <v>1544100</v>
+      </c>
+      <c r="C85">
+        <v>2558600</v>
+      </c>
+      <c r="D85">
+        <v>23100</v>
+      </c>
+      <c r="E85">
+        <v>26040157000</v>
+      </c>
+      <c r="F85">
+        <v>50512803000</v>
+      </c>
+      <c r="G85">
+        <v>353769000</v>
+      </c>
+      <c r="H85">
+        <v>4125800</v>
+      </c>
+      <c r="I85">
+        <v>76906729000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-01-03T13:18:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>4856735750000</v>
+      </c>
+      <c r="L85">
+        <v>304487100</v>
+      </c>
+      <c r="M85">
+        <v>1014500</v>
+      </c>
+      <c r="N85">
+        <v>24472646000</v>
+      </c>
+      <c r="O85">
+        <v>56553400</v>
+      </c>
+      <c r="P85">
+        <v>1035977679000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1672752000000</v>
+      </c>
+      <c r="B86">
+        <v>1006600</v>
+      </c>
+      <c r="C86">
+        <v>3650800</v>
+      </c>
+      <c r="D86">
+        <v>47200</v>
+      </c>
+      <c r="E86">
+        <v>19931136000</v>
+      </c>
+      <c r="F86">
+        <v>64317036000</v>
+      </c>
+      <c r="G86">
+        <v>1342439000</v>
+      </c>
+      <c r="H86">
+        <v>4704600</v>
+      </c>
+      <c r="I86">
+        <v>85590611000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-01-03T13:20:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>4942326361000</v>
+      </c>
+      <c r="L86">
+        <v>309191700</v>
+      </c>
+      <c r="M86">
+        <v>2644200</v>
+      </c>
+      <c r="N86">
+        <v>44385900000</v>
+      </c>
+      <c r="O86">
+        <v>59197600</v>
+      </c>
+      <c r="P86">
+        <v>1080363579000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1672752120000</v>
+      </c>
+      <c r="B87">
+        <v>1421900</v>
+      </c>
+      <c r="C87">
+        <v>5173500</v>
+      </c>
+      <c r="D87">
+        <v>9000</v>
+      </c>
+      <c r="E87">
+        <v>22506510000</v>
+      </c>
+      <c r="F87">
+        <v>78813489000</v>
+      </c>
+      <c r="G87">
+        <v>230908000</v>
+      </c>
+      <c r="H87">
+        <v>6604400</v>
+      </c>
+      <c r="I87">
+        <v>101550907000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-01-03T13:22:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>5043877268000</v>
+      </c>
+      <c r="L87">
+        <v>315796100</v>
+      </c>
+      <c r="M87">
+        <v>3751600</v>
+      </c>
+      <c r="N87">
+        <v>56306979000</v>
+      </c>
+      <c r="O87">
+        <v>62949200</v>
+      </c>
+      <c r="P87">
+        <v>1136670558000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1672752240000</v>
+      </c>
+      <c r="B88">
+        <v>1094100</v>
+      </c>
+      <c r="C88">
+        <v>2258100</v>
+      </c>
+      <c r="D88">
+        <v>21200</v>
+      </c>
+      <c r="E88">
+        <v>18392079000</v>
+      </c>
+      <c r="F88">
+        <v>39318025000</v>
+      </c>
+      <c r="G88">
+        <v>311412000</v>
+      </c>
+      <c r="H88">
+        <v>3373400</v>
+      </c>
+      <c r="I88">
+        <v>58021516000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-01-03T13:24:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>5101898784000</v>
+      </c>
+      <c r="L88">
+        <v>319169500</v>
+      </c>
+      <c r="M88">
+        <v>1164000</v>
+      </c>
+      <c r="N88">
+        <v>20925946000</v>
+      </c>
+      <c r="O88">
+        <v>64113200</v>
+      </c>
+      <c r="P88">
+        <v>1157596504000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1672752360000</v>
+      </c>
+      <c r="B89">
+        <v>1809400</v>
+      </c>
+      <c r="C89">
+        <v>3162100</v>
+      </c>
+      <c r="D89">
+        <v>43500</v>
+      </c>
+      <c r="E89">
+        <v>31881575000</v>
+      </c>
+      <c r="F89">
+        <v>53062587000</v>
+      </c>
+      <c r="G89">
+        <v>447514000</v>
+      </c>
+      <c r="H89">
+        <v>5015000</v>
+      </c>
+      <c r="I89">
+        <v>85391676000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-01-03T13:26:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>5187290460000</v>
+      </c>
+      <c r="L89">
+        <v>324184500</v>
+      </c>
+      <c r="M89">
+        <v>1352700</v>
+      </c>
+      <c r="N89">
+        <v>21181012000</v>
+      </c>
+      <c r="O89">
+        <v>65465900</v>
+      </c>
+      <c r="P89">
+        <v>1178777516000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1672752480000</v>
+      </c>
+      <c r="B90">
+        <v>2216900</v>
+      </c>
+      <c r="C90">
+        <v>1040200</v>
+      </c>
+      <c r="D90">
+        <v>8800</v>
+      </c>
+      <c r="E90">
+        <v>30972749000</v>
+      </c>
+      <c r="F90">
+        <v>23467962000</v>
+      </c>
+      <c r="G90">
+        <v>230047000</v>
+      </c>
+      <c r="H90">
+        <v>3265900</v>
+      </c>
+      <c r="I90">
+        <v>54670758000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-01-03T13:28:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>5241961218000</v>
+      </c>
+      <c r="L90">
+        <v>327450400</v>
+      </c>
+      <c r="M90">
+        <v>-1176700</v>
+      </c>
+      <c r="N90">
+        <v>-7504787000</v>
+      </c>
+      <c r="O90">
+        <v>64289200</v>
+      </c>
+      <c r="P90">
+        <v>1171272729000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1672752600000</v>
+      </c>
+      <c r="B91">
+        <v>1217500</v>
+      </c>
+      <c r="C91">
+        <v>1180500</v>
+      </c>
+      <c r="D91">
+        <v>3200</v>
+      </c>
+      <c r="E91">
+        <v>23153434000</v>
+      </c>
+      <c r="F91">
+        <v>26630626000</v>
+      </c>
+      <c r="G91">
+        <v>55632000</v>
+      </c>
+      <c r="H91">
+        <v>2401200</v>
+      </c>
+      <c r="I91">
+        <v>49839692000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-01-03T13:30:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>5291800910000</v>
+      </c>
+      <c r="L91">
+        <v>329851600</v>
+      </c>
+      <c r="M91">
+        <v>-37000</v>
+      </c>
+      <c r="N91">
+        <v>3477192000</v>
+      </c>
+      <c r="O91">
+        <v>64252200</v>
+      </c>
+      <c r="P91">
+        <v>1174749921000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1672752720000</v>
+      </c>
+      <c r="B92">
+        <v>1924600</v>
+      </c>
+      <c r="C92">
+        <v>1571000</v>
+      </c>
+      <c r="D92">
+        <v>20300</v>
+      </c>
+      <c r="E92">
+        <v>28895161000</v>
+      </c>
+      <c r="F92">
+        <v>33055065000</v>
+      </c>
+      <c r="G92">
+        <v>253882000</v>
+      </c>
+      <c r="H92">
+        <v>3515900</v>
+      </c>
+      <c r="I92">
+        <v>62204108000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-01-03T13:32:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>5354005018000</v>
+      </c>
+      <c r="L92">
+        <v>333367500</v>
+      </c>
+      <c r="M92">
+        <v>-353600</v>
+      </c>
+      <c r="N92">
+        <v>4159904000</v>
+      </c>
+      <c r="O92">
+        <v>63898600</v>
+      </c>
+      <c r="P92">
+        <v>1178909825000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1672752840000</v>
+      </c>
+      <c r="B93">
+        <v>1235900</v>
+      </c>
+      <c r="C93">
+        <v>1811200</v>
+      </c>
+      <c r="D93">
+        <v>11200</v>
+      </c>
+      <c r="E93">
+        <v>22557926000</v>
+      </c>
+      <c r="F93">
+        <v>36342855000</v>
+      </c>
+      <c r="G93">
+        <v>232411000</v>
+      </c>
+      <c r="H93">
+        <v>3058300</v>
+      </c>
+      <c r="I93">
+        <v>59133192000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-01-03T13:34:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>5413138210000</v>
+      </c>
+      <c r="L93">
+        <v>336425800</v>
+      </c>
+      <c r="M93">
+        <v>575300</v>
+      </c>
+      <c r="N93">
+        <v>13784929000</v>
+      </c>
+      <c r="O93">
+        <v>64473900</v>
+      </c>
+      <c r="P93">
+        <v>1192694754000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1672752960000</v>
+      </c>
+      <c r="B94">
+        <v>977000</v>
+      </c>
+      <c r="C94">
+        <v>2021400</v>
+      </c>
+      <c r="D94">
+        <v>17600</v>
+      </c>
+      <c r="E94">
+        <v>19486288000</v>
+      </c>
+      <c r="F94">
+        <v>37894434000</v>
+      </c>
+      <c r="G94">
+        <v>731456000</v>
+      </c>
+      <c r="H94">
+        <v>3016000</v>
+      </c>
+      <c r="I94">
+        <v>58112178000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-01-03T13:36:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>5471250388000</v>
+      </c>
+      <c r="L94">
+        <v>339441800</v>
+      </c>
+      <c r="M94">
+        <v>1044400</v>
+      </c>
+      <c r="N94">
+        <v>18408146000</v>
+      </c>
+      <c r="O94">
+        <v>65518300</v>
+      </c>
+      <c r="P94">
+        <v>1211102900000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1672753080000</v>
+      </c>
+      <c r="B95">
+        <v>1273700</v>
+      </c>
+      <c r="C95">
+        <v>5936500</v>
+      </c>
+      <c r="D95">
+        <v>36600</v>
+      </c>
+      <c r="E95">
+        <v>23315365000</v>
+      </c>
+      <c r="F95">
+        <v>104307877000</v>
+      </c>
+      <c r="G95">
+        <v>777787000</v>
+      </c>
+      <c r="H95">
+        <v>7246800</v>
+      </c>
+      <c r="I95">
+        <v>128401029000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-01-03T13:38:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>5599651417000</v>
+      </c>
+      <c r="L95">
+        <v>346688600</v>
+      </c>
+      <c r="M95">
+        <v>4662800</v>
+      </c>
+      <c r="N95">
+        <v>80992512000</v>
+      </c>
+      <c r="O95">
+        <v>70181100</v>
+      </c>
+      <c r="P95">
+        <v>1292095412000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1672753200000</v>
+      </c>
+      <c r="B96">
+        <v>1019700</v>
+      </c>
+      <c r="C96">
+        <v>3296600</v>
+      </c>
+      <c r="D96">
+        <v>12800</v>
+      </c>
+      <c r="E96">
+        <v>17990719000</v>
+      </c>
+      <c r="F96">
+        <v>74797101000</v>
+      </c>
+      <c r="G96">
+        <v>446450000</v>
+      </c>
+      <c r="H96">
+        <v>4329100</v>
+      </c>
+      <c r="I96">
+        <v>93234270000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-01-03T13:40:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>5692885687000</v>
+      </c>
+      <c r="L96">
+        <v>351017700</v>
+      </c>
+      <c r="M96">
+        <v>2276900</v>
+      </c>
+      <c r="N96">
+        <v>56806382000</v>
+      </c>
+      <c r="O96">
+        <v>72458000</v>
+      </c>
+      <c r="P96">
+        <v>1348901794000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1672753320000</v>
+      </c>
+      <c r="B97">
+        <v>1159700</v>
+      </c>
+      <c r="C97">
+        <v>6028900</v>
+      </c>
+      <c r="D97">
+        <v>26900</v>
+      </c>
+      <c r="E97">
+        <v>22551241000</v>
+      </c>
+      <c r="F97">
+        <v>117133111000</v>
+      </c>
+      <c r="G97">
+        <v>426943000</v>
+      </c>
+      <c r="H97">
+        <v>7215500</v>
+      </c>
+      <c r="I97">
+        <v>140111295000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-01-03T13:42:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>5832996982000</v>
+      </c>
+      <c r="L97">
+        <v>358233200</v>
+      </c>
+      <c r="M97">
+        <v>4869200</v>
+      </c>
+      <c r="N97">
+        <v>94581870000</v>
+      </c>
+      <c r="O97">
+        <v>77327200</v>
+      </c>
+      <c r="P97">
+        <v>1443483664000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1672753440000</v>
+      </c>
+      <c r="B98">
+        <v>1352200</v>
+      </c>
+      <c r="C98">
+        <v>7185600</v>
+      </c>
+      <c r="D98">
+        <v>12200</v>
+      </c>
+      <c r="E98">
+        <v>23050701000</v>
+      </c>
+      <c r="F98">
+        <v>134571437000</v>
+      </c>
+      <c r="G98">
+        <v>361222000</v>
+      </c>
+      <c r="H98">
+        <v>8550000</v>
+      </c>
+      <c r="I98">
+        <v>157983360000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-01-03T13:44:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>5990980342000</v>
+      </c>
+      <c r="L98">
+        <v>366783200</v>
+      </c>
+      <c r="M98">
+        <v>5833400</v>
+      </c>
+      <c r="N98">
+        <v>111520736000</v>
+      </c>
+      <c r="O98">
+        <v>83160600</v>
+      </c>
+      <c r="P98">
+        <v>1555004400000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1672753560000</v>
+      </c>
+      <c r="B99">
+        <v>1567700</v>
+      </c>
+      <c r="C99">
+        <v>3372400</v>
+      </c>
+      <c r="D99">
+        <v>32900</v>
+      </c>
+      <c r="E99">
+        <v>25661892000</v>
+      </c>
+      <c r="F99">
+        <v>71532331000</v>
+      </c>
+      <c r="G99">
+        <v>284499000</v>
+      </c>
+      <c r="H99">
+        <v>4973000</v>
+      </c>
+      <c r="I99">
+        <v>97478722000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-01-03T13:46:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>6088459064000</v>
+      </c>
+      <c r="L99">
+        <v>371756200</v>
+      </c>
+      <c r="M99">
+        <v>1804700</v>
+      </c>
+      <c r="N99">
+        <v>45870439000</v>
+      </c>
+      <c r="O99">
+        <v>84965300</v>
+      </c>
+      <c r="P99">
+        <v>1600874839000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1672753680000</v>
+      </c>
+      <c r="B100">
+        <v>1665800</v>
+      </c>
+      <c r="C100">
+        <v>3114000</v>
+      </c>
+      <c r="D100">
+        <v>29500</v>
+      </c>
+      <c r="E100">
+        <v>31059497000</v>
+      </c>
+      <c r="F100">
+        <v>55151319000</v>
+      </c>
+      <c r="G100">
+        <v>463235000</v>
+      </c>
+      <c r="H100">
+        <v>4809300</v>
+      </c>
+      <c r="I100">
+        <v>86674051000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-01-03T13:48:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>6175133115000</v>
+      </c>
+      <c r="L100">
+        <v>376565500</v>
+      </c>
+      <c r="M100">
+        <v>1448200</v>
+      </c>
+      <c r="N100">
+        <v>24091822000</v>
+      </c>
+      <c r="O100">
+        <v>86413500</v>
+      </c>
+      <c r="P100">
+        <v>1624966661000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1672753800000</v>
+      </c>
+      <c r="B101">
+        <v>1726500</v>
+      </c>
+      <c r="C101">
+        <v>3013300</v>
+      </c>
+      <c r="D101">
+        <v>14700</v>
+      </c>
+      <c r="E101">
+        <v>34676936000</v>
+      </c>
+      <c r="F101">
+        <v>48044656000</v>
+      </c>
+      <c r="G101">
+        <v>316744000</v>
+      </c>
+      <c r="H101">
+        <v>4754500</v>
+      </c>
+      <c r="I101">
+        <v>83038336000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-01-03T13:50:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>6258171451000</v>
+      </c>
+      <c r="L101">
+        <v>381320000</v>
+      </c>
+      <c r="M101">
+        <v>1286800</v>
+      </c>
+      <c r="N101">
+        <v>13367720000</v>
+      </c>
+      <c r="O101">
+        <v>87700300</v>
+      </c>
+      <c r="P101">
+        <v>1638334381000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1672753920000</v>
+      </c>
+      <c r="B102">
+        <v>2497700</v>
+      </c>
+      <c r="C102">
+        <v>2182900</v>
+      </c>
+      <c r="D102">
+        <v>7700</v>
+      </c>
+      <c r="E102">
+        <v>44052785000</v>
+      </c>
+      <c r="F102">
+        <v>44117750000</v>
+      </c>
+      <c r="G102">
+        <v>135393000</v>
+      </c>
+      <c r="H102">
+        <v>4688300</v>
+      </c>
+      <c r="I102">
+        <v>88305928000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-01-03T13:52:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>6346477379000</v>
+      </c>
+      <c r="L102">
+        <v>386008300</v>
+      </c>
+      <c r="M102">
+        <v>-314800</v>
+      </c>
+      <c r="N102">
+        <v>64965000</v>
+      </c>
+      <c r="O102">
+        <v>87385500</v>
+      </c>
+      <c r="P102">
+        <v>1638399346000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1672754040000</v>
+      </c>
+      <c r="B103">
+        <v>1573300</v>
+      </c>
+      <c r="C103">
+        <v>2447400</v>
+      </c>
+      <c r="D103">
+        <v>4400</v>
+      </c>
+      <c r="E103">
+        <v>30055884000</v>
+      </c>
+      <c r="F103">
+        <v>48883216000</v>
+      </c>
+      <c r="G103">
+        <v>107729000</v>
+      </c>
+      <c r="H103">
+        <v>4025100</v>
+      </c>
+      <c r="I103">
+        <v>79046829000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-01-03T13:54:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>6425524208000</v>
+      </c>
+      <c r="L103">
+        <v>390033400</v>
+      </c>
+      <c r="M103">
+        <v>874100</v>
+      </c>
+      <c r="N103">
+        <v>18827332000</v>
+      </c>
+      <c r="O103">
+        <v>88259600</v>
+      </c>
+      <c r="P103">
+        <v>1657226678000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1672754160000</v>
+      </c>
+      <c r="B104">
+        <v>1918400</v>
+      </c>
+      <c r="C104">
+        <v>1877600</v>
+      </c>
+      <c r="D104">
+        <v>18400</v>
+      </c>
+      <c r="E104">
+        <v>32304350000</v>
+      </c>
+      <c r="F104">
+        <v>33240949000</v>
+      </c>
+      <c r="G104">
+        <v>383150000</v>
+      </c>
+      <c r="H104">
+        <v>3814400</v>
+      </c>
+      <c r="I104">
+        <v>65928449000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-01-03T13:56:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>6491452657000</v>
+      </c>
+      <c r="L104">
+        <v>393847800</v>
+      </c>
+      <c r="M104">
+        <v>-40800</v>
+      </c>
+      <c r="N104">
+        <v>936599000</v>
+      </c>
+      <c r="O104">
+        <v>88218800</v>
+      </c>
+      <c r="P104">
+        <v>1658163277000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1672754280000</v>
+      </c>
+      <c r="B105">
+        <v>2610500</v>
+      </c>
+      <c r="C105">
+        <v>1398500</v>
+      </c>
+      <c r="D105">
+        <v>13400</v>
+      </c>
+      <c r="E105">
+        <v>49340323000</v>
+      </c>
+      <c r="F105">
+        <v>28569289000</v>
+      </c>
+      <c r="G105">
+        <v>177630000</v>
+      </c>
+      <c r="H105">
+        <v>4022400</v>
+      </c>
+      <c r="I105">
+        <v>78087242000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-01-03T13:58:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>6569539899000</v>
+      </c>
+      <c r="L105">
+        <v>397870200</v>
+      </c>
+      <c r="M105">
+        <v>-1212000</v>
+      </c>
+      <c r="N105">
+        <v>-20771034000</v>
+      </c>
+      <c r="O105">
+        <v>87006800</v>
+      </c>
+      <c r="P105">
+        <v>1637392243000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1672754400000</v>
+      </c>
+      <c r="B106">
+        <v>1677700</v>
+      </c>
+      <c r="C106">
+        <v>1583400</v>
+      </c>
+      <c r="D106">
+        <v>29300</v>
+      </c>
+      <c r="E106">
+        <v>32294610000</v>
+      </c>
+      <c r="F106">
+        <v>37493460000</v>
+      </c>
+      <c r="G106">
+        <v>318946000</v>
+      </c>
+      <c r="H106">
+        <v>3290400</v>
+      </c>
+      <c r="I106">
+        <v>70107016000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-01-03T14:00:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>6639646915000</v>
+      </c>
+      <c r="L106">
+        <v>401160600</v>
+      </c>
+      <c r="M106">
+        <v>-94300</v>
+      </c>
+      <c r="N106">
+        <v>5198850000</v>
+      </c>
+      <c r="O106">
+        <v>86912500</v>
+      </c>
+      <c r="P106">
+        <v>1642591093000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1672754520000</v>
+      </c>
+      <c r="B107">
+        <v>1444800</v>
+      </c>
+      <c r="C107">
+        <v>1779300</v>
+      </c>
+      <c r="D107">
+        <v>7000</v>
+      </c>
+      <c r="E107">
+        <v>25928802000</v>
+      </c>
+      <c r="F107">
+        <v>37282711000</v>
+      </c>
+      <c r="G107">
+        <v>103936000</v>
+      </c>
+      <c r="H107">
+        <v>3231100</v>
+      </c>
+      <c r="I107">
+        <v>63315449000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-01-03T14:02:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>6702962364000</v>
+      </c>
+      <c r="L107">
+        <v>404391700</v>
+      </c>
+      <c r="M107">
+        <v>334500</v>
+      </c>
+      <c r="N107">
+        <v>11353909000</v>
+      </c>
+      <c r="O107">
+        <v>87247000</v>
+      </c>
+      <c r="P107">
+        <v>1653945002000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1672754640000</v>
+      </c>
+      <c r="B108">
+        <v>1236900</v>
+      </c>
+      <c r="C108">
+        <v>1772000</v>
+      </c>
+      <c r="D108">
+        <v>21200</v>
+      </c>
+      <c r="E108">
+        <v>22599017000</v>
+      </c>
+      <c r="F108">
+        <v>39519818000</v>
+      </c>
+      <c r="G108">
+        <v>438623000</v>
+      </c>
+      <c r="H108">
+        <v>3030100</v>
+      </c>
+      <c r="I108">
+        <v>62557458000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-01-03T14:04:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>6765519822000</v>
+      </c>
+      <c r="L108">
+        <v>407421800</v>
+      </c>
+      <c r="M108">
+        <v>535100</v>
+      </c>
+      <c r="N108">
+        <v>16920801000</v>
+      </c>
+      <c r="O108">
+        <v>87782100</v>
+      </c>
+      <c r="P108">
+        <v>1670865803000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1672754760000</v>
+      </c>
+      <c r="B109">
+        <v>1602200</v>
+      </c>
+      <c r="C109">
+        <v>2304400</v>
+      </c>
+      <c r="D109">
+        <v>9300</v>
+      </c>
+      <c r="E109">
+        <v>28690476000</v>
+      </c>
+      <c r="F109">
+        <v>44189567000</v>
+      </c>
+      <c r="G109">
+        <v>422715000</v>
+      </c>
+      <c r="H109">
+        <v>3915900</v>
+      </c>
+      <c r="I109">
+        <v>73302758000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-01-03T14:06:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>6838822580000</v>
+      </c>
+      <c r="L109">
+        <v>411337700</v>
+      </c>
+      <c r="M109">
+        <v>702200</v>
+      </c>
+      <c r="N109">
+        <v>15499091000</v>
+      </c>
+      <c r="O109">
+        <v>88484300</v>
+      </c>
+      <c r="P109">
+        <v>1686364894000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1672754880000</v>
+      </c>
+      <c r="B110">
+        <v>1694300</v>
+      </c>
+      <c r="C110">
+        <v>3257500</v>
+      </c>
+      <c r="D110">
+        <v>22800</v>
+      </c>
+      <c r="E110">
+        <v>32539265000</v>
+      </c>
+      <c r="F110">
+        <v>47643080000</v>
+      </c>
+      <c r="G110">
+        <v>261841000</v>
+      </c>
+      <c r="H110">
+        <v>4974600</v>
+      </c>
+      <c r="I110">
+        <v>80444186000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-01-03T14:08:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>6919266766000</v>
+      </c>
+      <c r="L110">
+        <v>416312300</v>
+      </c>
+      <c r="M110">
+        <v>1563200</v>
+      </c>
+      <c r="N110">
+        <v>15103815000</v>
+      </c>
+      <c r="O110">
+        <v>90047500</v>
+      </c>
+      <c r="P110">
+        <v>1701468709000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1672755000000</v>
+      </c>
+      <c r="B111">
+        <v>1459400</v>
+      </c>
+      <c r="C111">
+        <v>2976500</v>
+      </c>
+      <c r="D111">
+        <v>24300</v>
+      </c>
+      <c r="E111">
+        <v>30077146000</v>
+      </c>
+      <c r="F111">
+        <v>49340743000</v>
+      </c>
+      <c r="G111">
+        <v>272376000</v>
+      </c>
+      <c r="H111">
+        <v>4460200</v>
+      </c>
+      <c r="I111">
+        <v>79690265000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-01-03T14:10:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>6998957031000</v>
+      </c>
+      <c r="L111">
+        <v>420772500</v>
+      </c>
+      <c r="M111">
+        <v>1517100</v>
+      </c>
+      <c r="N111">
+        <v>19263597000</v>
+      </c>
+      <c r="O111">
+        <v>91564600</v>
+      </c>
+      <c r="P111">
+        <v>1720732306000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1672755120000</v>
+      </c>
+      <c r="B112">
+        <v>1816500</v>
+      </c>
+      <c r="C112">
+        <v>3666100</v>
+      </c>
+      <c r="D112">
+        <v>14100</v>
+      </c>
+      <c r="E112">
+        <v>31826063000</v>
+      </c>
+      <c r="F112">
+        <v>65736938000</v>
+      </c>
+      <c r="G112">
+        <v>366825000</v>
+      </c>
+      <c r="H112">
+        <v>5496700</v>
+      </c>
+      <c r="I112">
+        <v>97929826000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-01-03T14:12:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>7096886857000</v>
+      </c>
+      <c r="L112">
+        <v>426269200</v>
+      </c>
+      <c r="M112">
+        <v>1849600</v>
+      </c>
+      <c r="N112">
+        <v>33910875000</v>
+      </c>
+      <c r="O112">
+        <v>93414200</v>
+      </c>
+      <c r="P112">
+        <v>1754643181000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1672755240000</v>
+      </c>
+      <c r="B113">
+        <v>2821900</v>
+      </c>
+      <c r="C113">
+        <v>4071500</v>
+      </c>
+      <c r="D113">
+        <v>17400</v>
+      </c>
+      <c r="E113">
+        <v>50354728000</v>
+      </c>
+      <c r="F113">
+        <v>49225045000</v>
+      </c>
+      <c r="G113">
+        <v>252338000</v>
+      </c>
+      <c r="H113">
+        <v>6910800</v>
+      </c>
+      <c r="I113">
+        <v>99832111000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-01-03T14:14:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>7196718968000</v>
+      </c>
+      <c r="L113">
+        <v>433180000</v>
+      </c>
+      <c r="M113">
+        <v>1249600</v>
+      </c>
+      <c r="N113">
+        <v>-1129683000</v>
+      </c>
+      <c r="O113">
+        <v>94663800</v>
+      </c>
+      <c r="P113">
+        <v>1753513498000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1672755360000</v>
+      </c>
+      <c r="B114">
+        <v>2842000</v>
+      </c>
+      <c r="C114">
+        <v>2559300</v>
+      </c>
+      <c r="D114">
+        <v>12300</v>
+      </c>
+      <c r="E114">
+        <v>55020408000</v>
+      </c>
+      <c r="F114">
+        <v>49392560000</v>
+      </c>
+      <c r="G114">
+        <v>290795000</v>
+      </c>
+      <c r="H114">
+        <v>5413600</v>
+      </c>
+      <c r="I114">
+        <v>104703763000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-01-03T14:16:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>7301422731000</v>
+      </c>
+      <c r="L114">
+        <v>438593600</v>
+      </c>
+      <c r="M114">
+        <v>-282700</v>
+      </c>
+      <c r="N114">
+        <v>-5627848000</v>
+      </c>
+      <c r="O114">
+        <v>94381100</v>
+      </c>
+      <c r="P114">
+        <v>1747885650000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1672755480000</v>
+      </c>
+      <c r="B115">
+        <v>1722700</v>
+      </c>
+      <c r="C115">
+        <v>2014300</v>
+      </c>
+      <c r="D115">
+        <v>9700</v>
+      </c>
+      <c r="E115">
+        <v>29527930000</v>
+      </c>
+      <c r="F115">
+        <v>35494332000</v>
+      </c>
+      <c r="G115">
+        <v>156665000</v>
+      </c>
+      <c r="H115">
+        <v>3746700</v>
+      </c>
+      <c r="I115">
+        <v>65178927000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-01-03T14:18:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>7366601658000</v>
+      </c>
+      <c r="L115">
+        <v>442340300</v>
+      </c>
+      <c r="M115">
+        <v>291600</v>
+      </c>
+      <c r="N115">
+        <v>5966402000</v>
+      </c>
+      <c r="O115">
+        <v>94672700</v>
+      </c>
+      <c r="P115">
+        <v>1753852052000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1672755600000</v>
+      </c>
+      <c r="B116">
+        <v>1417200</v>
+      </c>
+      <c r="C116">
+        <v>2269400</v>
+      </c>
+      <c r="D116">
+        <v>12100</v>
+      </c>
+      <c r="E116">
+        <v>24216734000</v>
+      </c>
+      <c r="F116">
+        <v>36910016000</v>
+      </c>
+      <c r="G116">
+        <v>187568000</v>
+      </c>
+      <c r="H116">
+        <v>3698700</v>
+      </c>
+      <c r="I116">
+        <v>61314318000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-01-03T14:20:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>7427915976000</v>
+      </c>
+      <c r="L116">
+        <v>446039000</v>
+      </c>
+      <c r="M116">
+        <v>852200</v>
+      </c>
+      <c r="N116">
+        <v>12693282000</v>
+      </c>
+      <c r="O116">
+        <v>95524900</v>
+      </c>
+      <c r="P116">
+        <v>1766545334000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1672755720000</v>
+      </c>
+      <c r="B117">
+        <v>3190600</v>
+      </c>
+      <c r="C117">
+        <v>1723500</v>
+      </c>
+      <c r="D117">
+        <v>10000</v>
+      </c>
+      <c r="E117">
+        <v>41052249000</v>
+      </c>
+      <c r="F117">
+        <v>34644398000</v>
+      </c>
+      <c r="G117">
+        <v>141098000</v>
+      </c>
+      <c r="H117">
+        <v>4924100</v>
+      </c>
+      <c r="I117">
+        <v>75837745000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2023-01-03T14:22:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>7503753721000</v>
+      </c>
+      <c r="L117">
+        <v>450963100</v>
+      </c>
+      <c r="M117">
+        <v>-1467100</v>
+      </c>
+      <c r="N117">
+        <v>-6407851000</v>
+      </c>
+      <c r="O117">
+        <v>94057800</v>
+      </c>
+      <c r="P117">
+        <v>1760137483000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1672755840000</v>
+      </c>
+      <c r="B118">
+        <v>1561700</v>
+      </c>
+      <c r="C118">
+        <v>2199600</v>
+      </c>
+      <c r="D118">
+        <v>21500</v>
+      </c>
+      <c r="E118">
+        <v>23865427000</v>
+      </c>
+      <c r="F118">
+        <v>37723153000</v>
+      </c>
+      <c r="G118">
+        <v>850137000</v>
+      </c>
+      <c r="H118">
+        <v>3782800</v>
+      </c>
+      <c r="I118">
+        <v>62438717000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2023-01-03T14:24:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>7566192438000</v>
+      </c>
+      <c r="L118">
+        <v>454745900</v>
+      </c>
+      <c r="M118">
+        <v>637900</v>
+      </c>
+      <c r="N118">
+        <v>13857726000</v>
+      </c>
+      <c r="O118">
+        <v>94695700</v>
+      </c>
+      <c r="P118">
+        <v>1773995209000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1672755960000</v>
+      </c>
+      <c r="B119">
+        <v>2268600</v>
+      </c>
+      <c r="C119">
+        <v>4191200</v>
+      </c>
+      <c r="D119">
+        <v>31200</v>
+      </c>
+      <c r="E119">
+        <v>31548083000</v>
+      </c>
+      <c r="F119">
+        <v>84862132000</v>
+      </c>
+      <c r="G119">
+        <v>806770000</v>
+      </c>
+      <c r="H119">
+        <v>6491000</v>
+      </c>
+      <c r="I119">
+        <v>117216985000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2023-01-03T14:26:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>7683409423000</v>
+      </c>
+      <c r="L119">
+        <v>461236900</v>
+      </c>
+      <c r="M119">
+        <v>1922600</v>
+      </c>
+      <c r="N119">
+        <v>53314049000</v>
+      </c>
+      <c r="O119">
+        <v>96618300</v>
+      </c>
+      <c r="P119">
+        <v>1827309258000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1672756080000</v>
+      </c>
+      <c r="B120">
+        <v>2118200</v>
+      </c>
+      <c r="C120">
+        <v>5275900</v>
+      </c>
+      <c r="D120">
+        <v>12500</v>
+      </c>
+      <c r="E120">
+        <v>28963772000</v>
+      </c>
+      <c r="F120">
+        <v>105377816000</v>
+      </c>
+      <c r="G120">
+        <v>261733000</v>
+      </c>
+      <c r="H120">
+        <v>7406600</v>
+      </c>
+      <c r="I120">
+        <v>134603321000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2023-01-03T14:28:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>7818012744000</v>
+      </c>
+      <c r="L120">
+        <v>468643500</v>
+      </c>
+      <c r="M120">
+        <v>3157700</v>
+      </c>
+      <c r="N120">
+        <v>76414044000</v>
+      </c>
+      <c r="O120">
+        <v>99776000</v>
+      </c>
+      <c r="P120">
+        <v>1903723302000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1672756200000</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>500</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>6500000</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>500</v>
+      </c>
+      <c r="I121">
+        <v>6500000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2023-01-03T14:30:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>7818019244000</v>
+      </c>
+      <c r="L121">
+        <v>468644000</v>
+      </c>
+      <c r="M121">
+        <v>500</v>
+      </c>
+      <c r="N121">
+        <v>6500000</v>
+      </c>
+      <c r="O121">
+        <v>99776500</v>
+      </c>
+      <c r="P121">
+        <v>1903729802000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1672756800000</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
         <v>100</v>
       </c>
-      <c r="C54">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1300000</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
+      <c r="I122">
+        <v>1300000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2023-01-03T14:40:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>7818020544000</v>
+      </c>
+      <c r="L122">
+        <v>468644100</v>
+      </c>
+      <c r="M122">
+        <v>100</v>
+      </c>
+      <c r="N122">
+        <v>1300000</v>
+      </c>
+      <c r="O122">
+        <v>99776600</v>
+      </c>
+      <c r="P122">
+        <v>1903731102000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1672757040000</v>
+      </c>
+      <c r="B123">
+        <v>2178700</v>
+      </c>
+      <c r="C123">
+        <v>7449400</v>
+      </c>
+      <c r="D123">
+        <v>15972400</v>
+      </c>
+      <c r="E123">
+        <v>37354459000</v>
+      </c>
+      <c r="F123">
+        <v>145408105000</v>
+      </c>
+      <c r="G123">
+        <v>334559934000</v>
+      </c>
+      <c r="H123">
+        <v>25600500</v>
+      </c>
+      <c r="I123">
+        <v>517322498000</v>
+      </c>
+      <c r="J123" t="str">
+        <v>2023-01-03T14:44:00.000Z</v>
+      </c>
+      <c r="K123">
+        <v>8335343042000</v>
+      </c>
+      <c r="L123">
+        <v>494244600</v>
+      </c>
+      <c r="M123">
+        <v>5270700</v>
+      </c>
+      <c r="N123">
+        <v>108053646000</v>
+      </c>
+      <c r="O123">
+        <v>105047300</v>
+      </c>
+      <c r="P123">
+        <v>2011784748000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>1672757400000</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>300</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>3930000</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>300</v>
+      </c>
+      <c r="I124">
+        <v>3930000</v>
+      </c>
+      <c r="J124" t="str">
+        <v>2023-01-03T14:50:00.000Z</v>
+      </c>
+      <c r="K124">
+        <v>8335346972000</v>
+      </c>
+      <c r="L124">
+        <v>494244900</v>
+      </c>
+      <c r="M124">
+        <v>300</v>
+      </c>
+      <c r="N124">
+        <v>3930000</v>
+      </c>
+      <c r="O124">
+        <v>105047600</v>
+      </c>
+      <c r="P124">
+        <v>2011788678000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>1672757520000</v>
+      </c>
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>1500</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>19650000</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1500</v>
+      </c>
+      <c r="I125">
+        <v>19650000</v>
+      </c>
+      <c r="J125" t="str">
+        <v>2023-01-03T14:52:00.000Z</v>
+      </c>
+      <c r="K125">
+        <v>8335366622000</v>
+      </c>
+      <c r="L125">
+        <v>494246400</v>
+      </c>
+      <c r="M125">
+        <v>1500</v>
+      </c>
+      <c r="N125">
+        <v>19650000</v>
+      </c>
+      <c r="O125">
+        <v>105049100</v>
+      </c>
+      <c r="P125">
+        <v>2011808328000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>1672757880000</v>
+      </c>
+      <c r="B126">
+        <v>100</v>
+      </c>
+      <c r="C126">
         <v>2300</v>
       </c>
-      <c r="D54">
+      <c r="D126">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E126">
         <v>1300000</v>
       </c>
-      <c r="F54">
+      <c r="F126">
         <v>30100000</v>
       </c>
-      <c r="G54">
+      <c r="G126">
         <v>0</v>
       </c>
-      <c r="H54">
+      <c r="H126">
         <v>2400</v>
       </c>
-      <c r="I54">
+      <c r="I126">
         <v>31400000</v>
       </c>
-      <c r="J54" t="str">
-        <v>2023-01-03T14:55:00.000Z</v>
-      </c>
-      <c r="K54">
+      <c r="J126" t="str">
+        <v>2023-01-03T14:58:00.000Z</v>
+      </c>
+      <c r="K126">
         <v>8335398022000</v>
       </c>
-      <c r="L54">
+      <c r="L126">
         <v>494248800</v>
       </c>
-      <c r="M54">
+      <c r="M126">
         <v>2200</v>
       </c>
-      <c r="N54">
+      <c r="N126">
         <v>28800000</v>
       </c>
-      <c r="O54">
+      <c r="O126">
         <v>105051300</v>
       </c>
-      <c r="P54">
+      <c r="P126">
         <v>2011837128000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P126"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230103/VNINDEX_HOSE_5p_20230103.xlsx
+++ b/name/vnindex/20230103/VNINDEX_HOSE_5p_20230103.xlsx
@@ -766,25 +766,25 @@
         <v>1337900</v>
       </c>
       <c r="E8">
-        <v>42679316000</v>
+        <v>40942454600</v>
       </c>
       <c r="F8">
-        <v>31364786000</v>
+        <v>27615738800</v>
       </c>
       <c r="G8">
-        <v>17884352000</v>
+        <v>17502534200</v>
       </c>
       <c r="H8">
         <v>8708100</v>
       </c>
       <c r="I8">
-        <v>91928454000</v>
+        <v>86060727600</v>
       </c>
       <c r="J8" t="str">
         <v>2023-01-03T09:14:00.000Z</v>
       </c>
       <c r="K8">
-        <v>92103314000</v>
+        <v>86235587600</v>
       </c>
       <c r="L8">
         <v>8722000</v>
@@ -793,13 +793,13 @@
         <v>-4191400</v>
       </c>
       <c r="N8">
-        <v>-11314530000</v>
+        <v>-13326715800</v>
       </c>
       <c r="O8">
         <v>-4193400</v>
       </c>
       <c r="P8">
-        <v>-11337530000</v>
+        <v>-13349715800</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>27900</v>
       </c>
       <c r="E9">
-        <v>12788205000</v>
+        <v>11162432400</v>
       </c>
       <c r="F9">
-        <v>25076995000</v>
+        <v>22501473100</v>
       </c>
       <c r="G9">
         <v>440617000</v>
@@ -828,13 +828,13 @@
         <v>2773500</v>
       </c>
       <c r="I9">
-        <v>38305817000</v>
+        <v>34104522500</v>
       </c>
       <c r="J9" t="str">
         <v>2023-01-03T09:16:00.000Z</v>
       </c>
       <c r="K9">
-        <v>130409131000</v>
+        <v>120340110100</v>
       </c>
       <c r="L9">
         <v>11495500</v>
@@ -843,13 +843,13 @@
         <v>678600</v>
       </c>
       <c r="N9">
-        <v>12288790000</v>
+        <v>11339040700</v>
       </c>
       <c r="O9">
         <v>-3514800</v>
       </c>
       <c r="P9">
-        <v>951260000</v>
+        <v>-2010675100</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>12100</v>
       </c>
       <c r="E10">
-        <v>14851516000</v>
+        <v>14051816500</v>
       </c>
       <c r="F10">
-        <v>26687182000</v>
+        <v>24863008000</v>
       </c>
       <c r="G10">
-        <v>186889000</v>
+        <v>168507400</v>
       </c>
       <c r="H10">
         <v>2874700</v>
       </c>
       <c r="I10">
-        <v>41725587000</v>
+        <v>39083331900</v>
       </c>
       <c r="J10" t="str">
         <v>2023-01-03T09:18:00.000Z</v>
       </c>
       <c r="K10">
-        <v>172134718000</v>
+        <v>159423442000</v>
       </c>
       <c r="L10">
         <v>14370200</v>
@@ -893,13 +893,13 @@
         <v>717600</v>
       </c>
       <c r="N10">
-        <v>11835666000</v>
+        <v>10811191500</v>
       </c>
       <c r="O10">
         <v>-2797200</v>
       </c>
       <c r="P10">
-        <v>12786926000</v>
+        <v>8800516400</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>14300</v>
       </c>
       <c r="E11">
-        <v>14864597000</v>
+        <v>13399064000</v>
       </c>
       <c r="F11">
-        <v>22411724000</v>
+        <v>21796140200</v>
       </c>
       <c r="G11">
         <v>258515000</v>
@@ -928,13 +928,13 @@
         <v>2690600</v>
       </c>
       <c r="I11">
-        <v>37534836000</v>
+        <v>35453719200</v>
       </c>
       <c r="J11" t="str">
         <v>2023-01-03T09:20:00.000Z</v>
       </c>
       <c r="K11">
-        <v>209669554000</v>
+        <v>194877161200</v>
       </c>
       <c r="L11">
         <v>17060800</v>
@@ -943,13 +943,13 @@
         <v>495300</v>
       </c>
       <c r="N11">
-        <v>7547127000</v>
+        <v>8397076200</v>
       </c>
       <c r="O11">
         <v>-2301900</v>
       </c>
       <c r="P11">
-        <v>20334053000</v>
+        <v>17197592600</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>66500</v>
       </c>
       <c r="E12">
-        <v>20593324000</v>
+        <v>19748869300</v>
       </c>
       <c r="F12">
-        <v>27132775000</v>
+        <v>23970940000</v>
       </c>
       <c r="G12">
-        <v>1012442000</v>
+        <v>774280400</v>
       </c>
       <c r="H12">
         <v>3408500</v>
       </c>
       <c r="I12">
-        <v>48738541000</v>
+        <v>44494089700</v>
       </c>
       <c r="J12" t="str">
         <v>2023-01-03T09:22:00.000Z</v>
       </c>
       <c r="K12">
-        <v>258408095000</v>
+        <v>239371250900</v>
       </c>
       <c r="L12">
         <v>20469300</v>
@@ -993,13 +993,13 @@
         <v>335400</v>
       </c>
       <c r="N12">
-        <v>6539451000</v>
+        <v>4222070700</v>
       </c>
       <c r="O12">
         <v>-1966500</v>
       </c>
       <c r="P12">
-        <v>26873504000</v>
+        <v>21419663300</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>74100</v>
       </c>
       <c r="E13">
-        <v>22814944000</v>
+        <v>20780080900</v>
       </c>
       <c r="F13">
-        <v>33459697000</v>
+        <v>25402462300</v>
       </c>
       <c r="G13">
         <v>814189000</v>
@@ -1028,13 +1028,13 @@
         <v>3631900</v>
       </c>
       <c r="I13">
-        <v>57088830000</v>
+        <v>46996732200</v>
       </c>
       <c r="J13" t="str">
         <v>2023-01-03T09:24:00.000Z</v>
       </c>
       <c r="K13">
-        <v>315496925000</v>
+        <v>286367983100</v>
       </c>
       <c r="L13">
         <v>24101200</v>
@@ -1043,13 +1043,13 @@
         <v>543200</v>
       </c>
       <c r="N13">
-        <v>10644753000</v>
+        <v>4622381400</v>
       </c>
       <c r="O13">
         <v>-1423300</v>
       </c>
       <c r="P13">
-        <v>37518257000</v>
+        <v>26042044700</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>38300</v>
       </c>
       <c r="E14">
-        <v>20615698000</v>
+        <v>19303111900</v>
       </c>
       <c r="F14">
-        <v>18985453000</v>
+        <v>16923217300</v>
       </c>
       <c r="G14">
         <v>374475000</v>
@@ -1078,13 +1078,13 @@
         <v>2478700</v>
       </c>
       <c r="I14">
-        <v>39975626000</v>
+        <v>36600804200</v>
       </c>
       <c r="J14" t="str">
         <v>2023-01-03T09:26:00.000Z</v>
       </c>
       <c r="K14">
-        <v>355472551000</v>
+        <v>322968787300</v>
       </c>
       <c r="L14">
         <v>26579900</v>
@@ -1093,13 +1093,13 @@
         <v>-179200</v>
       </c>
       <c r="N14">
-        <v>-1630245000</v>
+        <v>-2379894600</v>
       </c>
       <c r="O14">
         <v>-1602500</v>
       </c>
       <c r="P14">
-        <v>35888012000</v>
+        <v>23662150100</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>86600</v>
       </c>
       <c r="E15">
-        <v>17233679000</v>
+        <v>13296620000</v>
       </c>
       <c r="F15">
-        <v>25798035000</v>
+        <v>24578256000</v>
       </c>
       <c r="G15">
-        <v>825532000</v>
+        <v>614343400</v>
       </c>
       <c r="H15">
         <v>3120100</v>
       </c>
       <c r="I15">
-        <v>43857246000</v>
+        <v>38489219400</v>
       </c>
       <c r="J15" t="str">
         <v>2023-01-03T09:28:00.000Z</v>
       </c>
       <c r="K15">
-        <v>399329797000</v>
+        <v>361458006700</v>
       </c>
       <c r="L15">
         <v>29700000</v>
@@ -1143,13 +1143,13 @@
         <v>606900</v>
       </c>
       <c r="N15">
-        <v>8564356000</v>
+        <v>11281636000</v>
       </c>
       <c r="O15">
         <v>-995600</v>
       </c>
       <c r="P15">
-        <v>44452368000</v>
+        <v>34943786100</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>30100</v>
       </c>
       <c r="E16">
-        <v>19767875000</v>
+        <v>19052191400</v>
       </c>
       <c r="F16">
-        <v>33847481000</v>
+        <v>30124307900</v>
       </c>
       <c r="G16">
         <v>262320000</v>
@@ -1178,13 +1178,13 @@
         <v>3858600</v>
       </c>
       <c r="I16">
-        <v>53877676000</v>
+        <v>49438819300</v>
       </c>
       <c r="J16" t="str">
         <v>2023-01-03T09:30:00.000Z</v>
       </c>
       <c r="K16">
-        <v>453207473000</v>
+        <v>410896826000</v>
       </c>
       <c r="L16">
         <v>33558600</v>
@@ -1193,13 +1193,13 @@
         <v>1140700</v>
       </c>
       <c r="N16">
-        <v>14079606000</v>
+        <v>11072116500</v>
       </c>
       <c r="O16">
         <v>145100</v>
       </c>
       <c r="P16">
-        <v>58531974000</v>
+        <v>46015902600</v>
       </c>
     </row>
     <row r="17">
@@ -1216,25 +1216,25 @@
         <v>26700</v>
       </c>
       <c r="E17">
-        <v>25632249000</v>
+        <v>24647934300</v>
       </c>
       <c r="F17">
-        <v>49817257000</v>
+        <v>45449728900</v>
       </c>
       <c r="G17">
-        <v>523259000</v>
+        <v>370811600</v>
       </c>
       <c r="H17">
         <v>5706200</v>
       </c>
       <c r="I17">
-        <v>75972765000</v>
+        <v>70468474800</v>
       </c>
       <c r="J17" t="str">
         <v>2023-01-03T09:32:00.000Z</v>
       </c>
       <c r="K17">
-        <v>529180238000</v>
+        <v>481365300800</v>
       </c>
       <c r="L17">
         <v>39264800</v>
@@ -1243,13 +1243,13 @@
         <v>1700900</v>
       </c>
       <c r="N17">
-        <v>24185008000</v>
+        <v>20801794600</v>
       </c>
       <c r="O17">
         <v>1846000</v>
       </c>
       <c r="P17">
-        <v>82716982000</v>
+        <v>66817697200</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>27500</v>
       </c>
       <c r="E18">
-        <v>21474342000</v>
+        <v>20917399500</v>
       </c>
       <c r="F18">
-        <v>64708694000</v>
+        <v>56471139800</v>
       </c>
       <c r="G18">
-        <v>281943000</v>
+        <v>278946000</v>
       </c>
       <c r="H18">
         <v>5946300</v>
       </c>
       <c r="I18">
-        <v>86464979000</v>
+        <v>77667485300</v>
       </c>
       <c r="J18" t="str">
         <v>2023-01-03T09:34:00.000Z</v>
       </c>
       <c r="K18">
-        <v>615645217000</v>
+        <v>559032786100</v>
       </c>
       <c r="L18">
         <v>45211100</v>
@@ -1293,13 +1293,13 @@
         <v>2807000</v>
       </c>
       <c r="N18">
-        <v>43234352000</v>
+        <v>35553740300</v>
       </c>
       <c r="O18">
         <v>4653000</v>
       </c>
       <c r="P18">
-        <v>125951334000</v>
+        <v>102371437500</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>29700</v>
       </c>
       <c r="E19">
-        <v>19128600000</v>
+        <v>18026403300</v>
       </c>
       <c r="F19">
-        <v>90908779000</v>
+        <v>80905891900</v>
       </c>
       <c r="G19">
-        <v>340365000</v>
+        <v>334670700</v>
       </c>
       <c r="H19">
         <v>7677900</v>
       </c>
       <c r="I19">
-        <v>110377744000</v>
+        <v>99266965900</v>
       </c>
       <c r="J19" t="str">
         <v>2023-01-03T09:36:00.000Z</v>
       </c>
       <c r="K19">
-        <v>726022961000</v>
+        <v>658299752000</v>
       </c>
       <c r="L19">
         <v>52889000</v>
@@ -1343,13 +1343,13 @@
         <v>4527800</v>
       </c>
       <c r="N19">
-        <v>71780179000</v>
+        <v>62879488600</v>
       </c>
       <c r="O19">
         <v>9180800</v>
       </c>
       <c r="P19">
-        <v>197731513000</v>
+        <v>165250926100</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>23400</v>
       </c>
       <c r="E20">
-        <v>25598087000</v>
+        <v>24909875900</v>
       </c>
       <c r="F20">
-        <v>80866350000</v>
+        <v>70558468200</v>
       </c>
       <c r="G20">
-        <v>369533000</v>
+        <v>318584000</v>
       </c>
       <c r="H20">
         <v>7296800</v>
       </c>
       <c r="I20">
-        <v>106833970000</v>
+        <v>95786928100</v>
       </c>
       <c r="J20" t="str">
         <v>2023-01-03T09:38:00.000Z</v>
       </c>
       <c r="K20">
-        <v>832856931000</v>
+        <v>754086680100</v>
       </c>
       <c r="L20">
         <v>60185800</v>
@@ -1393,13 +1393,13 @@
         <v>3584800</v>
       </c>
       <c r="N20">
-        <v>55268263000</v>
+        <v>45648592300</v>
       </c>
       <c r="O20">
         <v>12765600</v>
       </c>
       <c r="P20">
-        <v>252999776000</v>
+        <v>210899518400</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>46900</v>
       </c>
       <c r="E21">
-        <v>31535405000</v>
+        <v>28702440800</v>
       </c>
       <c r="F21">
-        <v>62115437000</v>
+        <v>52829032700</v>
       </c>
       <c r="G21">
         <v>974619000</v>
@@ -1428,13 +1428,13 @@
         <v>6387500</v>
       </c>
       <c r="I21">
-        <v>94625461000</v>
+        <v>82506092500</v>
       </c>
       <c r="J21" t="str">
         <v>2023-01-03T09:40:00.000Z</v>
       </c>
       <c r="K21">
-        <v>927482392000</v>
+        <v>836592772600</v>
       </c>
       <c r="L21">
         <v>66573300</v>
@@ -1443,13 +1443,13 @@
         <v>1852400</v>
       </c>
       <c r="N21">
-        <v>30580032000</v>
+        <v>24126591900</v>
       </c>
       <c r="O21">
         <v>14618000</v>
       </c>
       <c r="P21">
-        <v>283579808000</v>
+        <v>235026110300</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>38200</v>
       </c>
       <c r="E22">
-        <v>21183626000</v>
+        <v>19303408100</v>
       </c>
       <c r="F22">
-        <v>58277353000</v>
+        <v>52764371500</v>
       </c>
       <c r="G22">
         <v>587045000</v>
@@ -1478,13 +1478,13 @@
         <v>5169600</v>
       </c>
       <c r="I22">
-        <v>80048024000</v>
+        <v>72654824600</v>
       </c>
       <c r="J22" t="str">
         <v>2023-01-03T09:42:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1007530416000</v>
+        <v>909247597200</v>
       </c>
       <c r="L22">
         <v>71742900</v>
@@ -1493,13 +1493,13 @@
         <v>2403400</v>
       </c>
       <c r="N22">
-        <v>37093727000</v>
+        <v>33460963400</v>
       </c>
       <c r="O22">
         <v>17021400</v>
       </c>
       <c r="P22">
-        <v>320673535000</v>
+        <v>268487073700</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>46500</v>
       </c>
       <c r="E23">
-        <v>30969791000</v>
+        <v>27907656200</v>
       </c>
       <c r="F23">
-        <v>47577437000</v>
+        <v>45221894900</v>
       </c>
       <c r="G23">
-        <v>1324505000</v>
+        <v>340190300</v>
       </c>
       <c r="H23">
         <v>5294600</v>
       </c>
       <c r="I23">
-        <v>79871733000</v>
+        <v>73469741400</v>
       </c>
       <c r="J23" t="str">
         <v>2023-01-03T09:44:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1087402149000</v>
+        <v>982717338600</v>
       </c>
       <c r="L23">
         <v>77037500</v>
@@ -1543,13 +1543,13 @@
         <v>1284900</v>
       </c>
       <c r="N23">
-        <v>16607646000</v>
+        <v>17314238700</v>
       </c>
       <c r="O23">
         <v>18306300</v>
       </c>
       <c r="P23">
-        <v>337281181000</v>
+        <v>285801312400</v>
       </c>
     </row>
     <row r="24">
@@ -1566,25 +1566,25 @@
         <v>24300</v>
       </c>
       <c r="E24">
-        <v>21534049000</v>
+        <v>18135550900</v>
       </c>
       <c r="F24">
-        <v>48588379000</v>
+        <v>41067007900</v>
       </c>
       <c r="G24">
-        <v>327014000</v>
+        <v>271169900</v>
       </c>
       <c r="H24">
         <v>4955500</v>
       </c>
       <c r="I24">
-        <v>70449442000</v>
+        <v>59473728700</v>
       </c>
       <c r="J24" t="str">
         <v>2023-01-03T09:46:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1157851591000</v>
+        <v>1042191067300</v>
       </c>
       <c r="L24">
         <v>81993000</v>
@@ -1593,13 +1593,13 @@
         <v>1980200</v>
       </c>
       <c r="N24">
-        <v>27054330000</v>
+        <v>22931457000</v>
       </c>
       <c r="O24">
         <v>20286500</v>
       </c>
       <c r="P24">
-        <v>364335511000</v>
+        <v>308732769400</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>29100</v>
       </c>
       <c r="E25">
-        <v>21676889000</v>
+        <v>20117050400</v>
       </c>
       <c r="F25">
-        <v>59457853000</v>
+        <v>51515902900</v>
       </c>
       <c r="G25">
         <v>692549000</v>
@@ -1628,13 +1628,13 @@
         <v>5415700</v>
       </c>
       <c r="I25">
-        <v>81827291000</v>
+        <v>72325502300</v>
       </c>
       <c r="J25" t="str">
         <v>2023-01-03T09:48:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1239678882000</v>
+        <v>1114516569600</v>
       </c>
       <c r="L25">
         <v>87408700</v>
@@ -1643,13 +1643,13 @@
         <v>2397800</v>
       </c>
       <c r="N25">
-        <v>37780964000</v>
+        <v>31398852500</v>
       </c>
       <c r="O25">
         <v>22684300</v>
       </c>
       <c r="P25">
-        <v>402116475000</v>
+        <v>340131621900</v>
       </c>
     </row>
     <row r="26">
@@ -1666,25 +1666,25 @@
         <v>24500</v>
       </c>
       <c r="E26">
-        <v>30911744000</v>
+        <v>28224633800</v>
       </c>
       <c r="F26">
-        <v>86616049000</v>
+        <v>80474596600</v>
       </c>
       <c r="G26">
-        <v>687442000</v>
+        <v>225404500</v>
       </c>
       <c r="H26">
         <v>7555600</v>
       </c>
       <c r="I26">
-        <v>118215235000</v>
+        <v>108924634900</v>
       </c>
       <c r="J26" t="str">
         <v>2023-01-03T09:50:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1357894117000</v>
+        <v>1223441204500</v>
       </c>
       <c r="L26">
         <v>94964300</v>
@@ -1693,13 +1693,13 @@
         <v>3674300</v>
       </c>
       <c r="N26">
-        <v>55704305000</v>
+        <v>52249962800</v>
       </c>
       <c r="O26">
         <v>26358600</v>
       </c>
       <c r="P26">
-        <v>457820780000</v>
+        <v>392381584700</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>4800</v>
       </c>
       <c r="E27">
-        <v>25352595000</v>
+        <v>24513235200</v>
       </c>
       <c r="F27">
-        <v>82217995000</v>
+        <v>76403215600</v>
       </c>
       <c r="G27">
         <v>94727000</v>
@@ -1728,13 +1728,13 @@
         <v>7020400</v>
       </c>
       <c r="I27">
-        <v>107665317000</v>
+        <v>101011177800</v>
       </c>
       <c r="J27" t="str">
         <v>2023-01-03T09:52:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1465559434000</v>
+        <v>1324452382300</v>
       </c>
       <c r="L27">
         <v>101984700</v>
@@ -1743,13 +1743,13 @@
         <v>3631600</v>
       </c>
       <c r="N27">
-        <v>56865400000</v>
+        <v>51889980400</v>
       </c>
       <c r="O27">
         <v>29990200</v>
       </c>
       <c r="P27">
-        <v>514686180000</v>
+        <v>444271565100</v>
       </c>
     </row>
     <row r="28">
@@ -1766,25 +1766,25 @@
         <v>146000</v>
       </c>
       <c r="E28">
-        <v>39769985000</v>
+        <v>38036720000</v>
       </c>
       <c r="F28">
-        <v>57923628000</v>
+        <v>53541814200</v>
       </c>
       <c r="G28">
-        <v>2037486000</v>
+        <v>2019304200</v>
       </c>
       <c r="H28">
         <v>6544300</v>
       </c>
       <c r="I28">
-        <v>99731099000</v>
+        <v>93597838400</v>
       </c>
       <c r="J28" t="str">
         <v>2023-01-03T09:54:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1565290533000</v>
+        <v>1418050220700</v>
       </c>
       <c r="L28">
         <v>108529000</v>
@@ -1793,13 +1793,13 @@
         <v>1203100</v>
       </c>
       <c r="N28">
-        <v>18153643000</v>
+        <v>15505094200</v>
       </c>
       <c r="O28">
         <v>31193300</v>
       </c>
       <c r="P28">
-        <v>532839823000</v>
+        <v>459776659300</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>24500</v>
       </c>
       <c r="E29">
-        <v>31754992000</v>
+        <v>30273674800</v>
       </c>
       <c r="F29">
-        <v>71100304000</v>
+        <v>67772035600</v>
       </c>
       <c r="G29">
-        <v>354358000</v>
+        <v>342370000</v>
       </c>
       <c r="H29">
         <v>6678400</v>
       </c>
       <c r="I29">
-        <v>103209654000</v>
+        <v>98388080400</v>
       </c>
       <c r="J29" t="str">
         <v>2023-01-03T09:56:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1668500187000</v>
+        <v>1516438301100</v>
       </c>
       <c r="L29">
         <v>115207400</v>
@@ -1843,13 +1843,13 @@
         <v>2604100</v>
       </c>
       <c r="N29">
-        <v>39345312000</v>
+        <v>37498360800</v>
       </c>
       <c r="O29">
         <v>33797400</v>
       </c>
       <c r="P29">
-        <v>572185135000</v>
+        <v>497275020100</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>21400</v>
       </c>
       <c r="E30">
-        <v>28949359000</v>
+        <v>27860948500</v>
       </c>
       <c r="F30">
-        <v>66120855000</v>
+        <v>64074803100</v>
       </c>
       <c r="G30">
         <v>222861000</v>
@@ -1878,13 +1878,13 @@
         <v>6231200</v>
       </c>
       <c r="I30">
-        <v>95293075000</v>
+        <v>92158612600</v>
       </c>
       <c r="J30" t="str">
         <v>2023-01-03T09:58:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1763793262000</v>
+        <v>1608596913700</v>
       </c>
       <c r="L30">
         <v>121438600</v>
@@ -1893,13 +1893,13 @@
         <v>2469800</v>
       </c>
       <c r="N30">
-        <v>37171496000</v>
+        <v>36213854600</v>
       </c>
       <c r="O30">
         <v>36267200</v>
       </c>
       <c r="P30">
-        <v>609356631000</v>
+        <v>533488874700</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>4400</v>
       </c>
       <c r="E31">
-        <v>32493086000</v>
+        <v>28842140600</v>
       </c>
       <c r="F31">
-        <v>44042925000</v>
+        <v>42368501100</v>
       </c>
       <c r="G31">
         <v>141059000</v>
@@ -1928,13 +1928,13 @@
         <v>4861200</v>
       </c>
       <c r="I31">
-        <v>76677070000</v>
+        <v>71351700700</v>
       </c>
       <c r="J31" t="str">
         <v>2023-01-03T10:00:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1840470332000</v>
+        <v>1679948614400</v>
       </c>
       <c r="L31">
         <v>126299800</v>
@@ -1943,13 +1943,13 @@
         <v>788000</v>
       </c>
       <c r="N31">
-        <v>11549839000</v>
+        <v>13526360500</v>
       </c>
       <c r="O31">
         <v>37055200</v>
       </c>
       <c r="P31">
-        <v>620906470000</v>
+        <v>547015235200</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>17600</v>
       </c>
       <c r="E32">
-        <v>29768911000</v>
+        <v>26590192900</v>
       </c>
       <c r="F32">
-        <v>41429192000</v>
+        <v>36552973100</v>
       </c>
       <c r="G32">
         <v>461660000</v>
@@ -1978,13 +1978,13 @@
         <v>4740400</v>
       </c>
       <c r="I32">
-        <v>71659763000</v>
+        <v>63604826000</v>
       </c>
       <c r="J32" t="str">
         <v>2023-01-03T10:02:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1912130095000</v>
+        <v>1743553440400</v>
       </c>
       <c r="L32">
         <v>131040200</v>
@@ -1993,13 +1993,13 @@
         <v>543600</v>
       </c>
       <c r="N32">
-        <v>11660281000</v>
+        <v>9962780200</v>
       </c>
       <c r="O32">
         <v>37598800</v>
       </c>
       <c r="P32">
-        <v>632566751000</v>
+        <v>556978015400</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>21000</v>
       </c>
       <c r="E33">
-        <v>39915394000</v>
+        <v>37310002000</v>
       </c>
       <c r="F33">
-        <v>32202756000</v>
+        <v>27463000500</v>
       </c>
       <c r="G33">
         <v>246150000</v>
@@ -2028,13 +2028,13 @@
         <v>4279000</v>
       </c>
       <c r="I33">
-        <v>72364300000</v>
+        <v>65019152500</v>
       </c>
       <c r="J33" t="str">
         <v>2023-01-03T10:04:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1984494395000</v>
+        <v>1808572592900</v>
       </c>
       <c r="L33">
         <v>135319200</v>
@@ -2043,13 +2043,13 @@
         <v>-755600</v>
       </c>
       <c r="N33">
-        <v>-7712638000</v>
+        <v>-9847001500</v>
       </c>
       <c r="O33">
         <v>36843200</v>
       </c>
       <c r="P33">
-        <v>624854113000</v>
+        <v>547131013900</v>
       </c>
     </row>
     <row r="34">
@@ -2066,25 +2066,25 @@
         <v>43300</v>
       </c>
       <c r="E34">
-        <v>35023649000</v>
+        <v>33697176800</v>
       </c>
       <c r="F34">
-        <v>31009515000</v>
+        <v>28335991200</v>
       </c>
       <c r="G34">
-        <v>961373000</v>
+        <v>956378000</v>
       </c>
       <c r="H34">
         <v>4411800</v>
       </c>
       <c r="I34">
-        <v>66994537000</v>
+        <v>62989546000</v>
       </c>
       <c r="J34" t="str">
         <v>2023-01-03T10:06:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2051488932000</v>
+        <v>1871562138900</v>
       </c>
       <c r="L34">
         <v>139731000</v>
@@ -2093,13 +2093,13 @@
         <v>-407300</v>
       </c>
       <c r="N34">
-        <v>-4014134000</v>
+        <v>-5361185600</v>
       </c>
       <c r="O34">
         <v>36435900</v>
       </c>
       <c r="P34">
-        <v>620839979000</v>
+        <v>541769828300</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>17700</v>
       </c>
       <c r="E35">
-        <v>67598020000</v>
+        <v>61479644500</v>
       </c>
       <c r="F35">
-        <v>23093786000</v>
+        <v>20126656100</v>
       </c>
       <c r="G35">
-        <v>227643000</v>
+        <v>175695000</v>
       </c>
       <c r="H35">
         <v>5804300</v>
       </c>
       <c r="I35">
-        <v>90919449000</v>
+        <v>81781995600</v>
       </c>
       <c r="J35" t="str">
         <v>2023-01-03T10:08:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2142408381000</v>
+        <v>1953344134500</v>
       </c>
       <c r="L35">
         <v>145535300</v>
@@ -2143,13 +2143,13 @@
         <v>-3226000</v>
       </c>
       <c r="N35">
-        <v>-44504234000</v>
+        <v>-41352988400</v>
       </c>
       <c r="O35">
         <v>33209900</v>
       </c>
       <c r="P35">
-        <v>576335745000</v>
+        <v>500416839900</v>
       </c>
     </row>
     <row r="36">
@@ -2166,25 +2166,25 @@
         <v>26200</v>
       </c>
       <c r="E36">
-        <v>63114203000</v>
+        <v>59105415800</v>
       </c>
       <c r="F36">
-        <v>22376220000</v>
+        <v>20548849200</v>
       </c>
       <c r="G36">
-        <v>439597000</v>
+        <v>202933900</v>
       </c>
       <c r="H36">
         <v>5483600</v>
       </c>
       <c r="I36">
-        <v>85930020000</v>
+        <v>79857198900</v>
       </c>
       <c r="J36" t="str">
         <v>2023-01-03T10:10:00.000Z</v>
       </c>
       <c r="K36">
-        <v>2228338401000</v>
+        <v>2033201333400</v>
       </c>
       <c r="L36">
         <v>151018900</v>
@@ -2193,13 +2193,13 @@
         <v>-3196800</v>
       </c>
       <c r="N36">
-        <v>-40737983000</v>
+        <v>-38556566600</v>
       </c>
       <c r="O36">
         <v>30013100</v>
       </c>
       <c r="P36">
-        <v>535597762000</v>
+        <v>461860273300</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>25600</v>
       </c>
       <c r="E37">
-        <v>39027109000</v>
+        <v>36266472400</v>
       </c>
       <c r="F37">
-        <v>19058905000</v>
+        <v>17656508800</v>
       </c>
       <c r="G37">
         <v>327746000</v>
@@ -2228,13 +2228,13 @@
         <v>3427500</v>
       </c>
       <c r="I37">
-        <v>58413760000</v>
+        <v>54250727200</v>
       </c>
       <c r="J37" t="str">
         <v>2023-01-03T10:12:00.000Z</v>
       </c>
       <c r="K37">
-        <v>2286752161000</v>
+        <v>2087452060600</v>
       </c>
       <c r="L37">
         <v>154446400</v>
@@ -2243,13 +2243,13 @@
         <v>-1397300</v>
       </c>
       <c r="N37">
-        <v>-19968204000</v>
+        <v>-18609963600</v>
       </c>
       <c r="O37">
         <v>28615800</v>
       </c>
       <c r="P37">
-        <v>515629558000</v>
+        <v>443250309700</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>17000</v>
       </c>
       <c r="E38">
-        <v>21309138000</v>
+        <v>20258789400</v>
       </c>
       <c r="F38">
-        <v>25332033000</v>
+        <v>24379186800</v>
       </c>
       <c r="G38">
         <v>290346000</v>
@@ -2278,13 +2278,13 @@
         <v>2728400</v>
       </c>
       <c r="I38">
-        <v>46931517000</v>
+        <v>44928322200</v>
       </c>
       <c r="J38" t="str">
         <v>2023-01-03T10:14:00.000Z</v>
       </c>
       <c r="K38">
-        <v>2333683678000</v>
+        <v>2132380382800</v>
       </c>
       <c r="L38">
         <v>157174800</v>
@@ -2293,13 +2293,13 @@
         <v>138400</v>
       </c>
       <c r="N38">
-        <v>4022895000</v>
+        <v>4120397400</v>
       </c>
       <c r="O38">
         <v>28754200</v>
       </c>
       <c r="P38">
-        <v>519652453000</v>
+        <v>447370707100</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>8500</v>
       </c>
       <c r="E39">
-        <v>18796196000</v>
+        <v>17129164700</v>
       </c>
       <c r="F39">
-        <v>54110831000</v>
+        <v>47013535400</v>
       </c>
       <c r="G39">
         <v>168043000</v>
@@ -2328,13 +2328,13 @@
         <v>4248900</v>
       </c>
       <c r="I39">
-        <v>73075070000</v>
+        <v>64310743100</v>
       </c>
       <c r="J39" t="str">
         <v>2023-01-03T10:16:00.000Z</v>
       </c>
       <c r="K39">
-        <v>2406758748000</v>
+        <v>2196691125900</v>
       </c>
       <c r="L39">
         <v>161423700</v>
@@ -2343,13 +2343,13 @@
         <v>2155400</v>
       </c>
       <c r="N39">
-        <v>35314635000</v>
+        <v>29884370700</v>
       </c>
       <c r="O39">
         <v>30909600</v>
       </c>
       <c r="P39">
-        <v>554967088000</v>
+        <v>477255077800</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>102900</v>
       </c>
       <c r="E40">
-        <v>31484398000</v>
+        <v>30356527000</v>
       </c>
       <c r="F40">
-        <v>34818809000</v>
+        <v>29073060500</v>
       </c>
       <c r="G40">
-        <v>1760735000</v>
+        <v>1753542200</v>
       </c>
       <c r="H40">
         <v>3849500</v>
       </c>
       <c r="I40">
-        <v>68063942000</v>
+        <v>61183129700</v>
       </c>
       <c r="J40" t="str">
         <v>2023-01-03T10:18:00.000Z</v>
       </c>
       <c r="K40">
-        <v>2474822690000</v>
+        <v>2257874255600</v>
       </c>
       <c r="L40">
         <v>165273200</v>
@@ -2393,13 +2393,13 @@
         <v>443000</v>
       </c>
       <c r="N40">
-        <v>3334411000</v>
+        <v>-1283466500</v>
       </c>
       <c r="O40">
         <v>31352600</v>
       </c>
       <c r="P40">
-        <v>558301499000</v>
+        <v>475971611300</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>8900</v>
       </c>
       <c r="E41">
-        <v>18029423000</v>
+        <v>17303050100</v>
       </c>
       <c r="F41">
-        <v>20816051000</v>
+        <v>18551417900</v>
       </c>
       <c r="G41">
-        <v>290915000</v>
+        <v>171434600</v>
       </c>
       <c r="H41">
         <v>2200800</v>
       </c>
       <c r="I41">
-        <v>39136389000</v>
+        <v>36025902600</v>
       </c>
       <c r="J41" t="str">
         <v>2023-01-03T10:20:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2513959079000</v>
+        <v>2293900158200</v>
       </c>
       <c r="L41">
         <v>167474000</v>
@@ -2443,13 +2443,13 @@
         <v>-15700</v>
       </c>
       <c r="N41">
-        <v>2786628000</v>
+        <v>1248367800</v>
       </c>
       <c r="O41">
         <v>31336900</v>
       </c>
       <c r="P41">
-        <v>561088127000</v>
+        <v>477219979100</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>18800</v>
       </c>
       <c r="E42">
-        <v>15023291000</v>
+        <v>13605610100</v>
       </c>
       <c r="F42">
-        <v>16295921000</v>
+        <v>14893824500</v>
       </c>
       <c r="G42">
         <v>185328000</v>
@@ -2478,13 +2478,13 @@
         <v>1755900</v>
       </c>
       <c r="I42">
-        <v>31504540000</v>
+        <v>28684762600</v>
       </c>
       <c r="J42" t="str">
         <v>2023-01-03T10:22:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2545463619000</v>
+        <v>2322584920800</v>
       </c>
       <c r="L42">
         <v>169229900</v>
@@ -2493,13 +2493,13 @@
         <v>-23500</v>
       </c>
       <c r="N42">
-        <v>1272630000</v>
+        <v>1288214400</v>
       </c>
       <c r="O42">
         <v>31313400</v>
       </c>
       <c r="P42">
-        <v>562360757000</v>
+        <v>478508193500</v>
       </c>
     </row>
     <row r="43">
@@ -2516,25 +2516,25 @@
         <v>13200</v>
       </c>
       <c r="E43">
-        <v>17774821000</v>
+        <v>16443653500</v>
       </c>
       <c r="F43">
-        <v>26075967000</v>
+        <v>25329813900</v>
       </c>
       <c r="G43">
-        <v>162335000</v>
+        <v>158339000</v>
       </c>
       <c r="H43">
         <v>2506100</v>
       </c>
       <c r="I43">
-        <v>44013123000</v>
+        <v>41931806400</v>
       </c>
       <c r="J43" t="str">
         <v>2023-01-03T10:24:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2589476742000</v>
+        <v>2364516727200</v>
       </c>
       <c r="L43">
         <v>171736000</v>
@@ -2543,13 +2543,13 @@
         <v>434300</v>
       </c>
       <c r="N43">
-        <v>8301146000</v>
+        <v>8886160400</v>
       </c>
       <c r="O43">
         <v>31747700</v>
       </c>
       <c r="P43">
-        <v>570661903000</v>
+        <v>487394353900</v>
       </c>
     </row>
     <row r="44">
@@ -2566,25 +2566,25 @@
         <v>6800</v>
       </c>
       <c r="E44">
-        <v>13469459000</v>
+        <v>12970158800</v>
       </c>
       <c r="F44">
-        <v>25532147000</v>
+        <v>24274805600</v>
       </c>
       <c r="G44">
-        <v>154340000</v>
+        <v>81612800</v>
       </c>
       <c r="H44">
         <v>2410900</v>
       </c>
       <c r="I44">
-        <v>39155946000</v>
+        <v>37326577200</v>
       </c>
       <c r="J44" t="str">
         <v>2023-01-03T10:26:00.000Z</v>
       </c>
       <c r="K44">
-        <v>2628632688000</v>
+        <v>2401843304400</v>
       </c>
       <c r="L44">
         <v>174146900</v>
@@ -2593,13 +2593,13 @@
         <v>737100</v>
       </c>
       <c r="N44">
-        <v>12062688000</v>
+        <v>11304646800</v>
       </c>
       <c r="O44">
         <v>32484800</v>
       </c>
       <c r="P44">
-        <v>582724591000</v>
+        <v>498699000700</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>14400</v>
       </c>
       <c r="E45">
-        <v>17106433000</v>
+        <v>16426114000</v>
       </c>
       <c r="F45">
-        <v>26217255000</v>
+        <v>23554820100</v>
       </c>
       <c r="G45">
         <v>176515000</v>
@@ -2628,13 +2628,13 @@
         <v>2612500</v>
       </c>
       <c r="I45">
-        <v>43500203000</v>
+        <v>40157449100</v>
       </c>
       <c r="J45" t="str">
         <v>2023-01-03T10:28:00.000Z</v>
       </c>
       <c r="K45">
-        <v>2672132891000</v>
+        <v>2442000753500</v>
       </c>
       <c r="L45">
         <v>176759400</v>
@@ -2643,13 +2643,13 @@
         <v>444500</v>
       </c>
       <c r="N45">
-        <v>9110822000</v>
+        <v>7128706100</v>
       </c>
       <c r="O45">
         <v>32929300</v>
       </c>
       <c r="P45">
-        <v>591835413000</v>
+        <v>505827706800</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>4300</v>
       </c>
       <c r="E46">
-        <v>26561108000</v>
+        <v>25486583600</v>
       </c>
       <c r="F46">
-        <v>16312925000</v>
+        <v>15634304300</v>
       </c>
       <c r="G46">
-        <v>61425000</v>
+        <v>18567900</v>
       </c>
       <c r="H46">
         <v>2417200</v>
       </c>
       <c r="I46">
-        <v>42935458000</v>
+        <v>41139455800</v>
       </c>
       <c r="J46" t="str">
         <v>2023-01-03T10:30:00.000Z</v>
       </c>
       <c r="K46">
-        <v>2715068349000</v>
+        <v>2483140209300</v>
       </c>
       <c r="L46">
         <v>179176600</v>
@@ -2693,13 +2693,13 @@
         <v>-615700</v>
       </c>
       <c r="N46">
-        <v>-10248183000</v>
+        <v>-9852279300</v>
       </c>
       <c r="O46">
         <v>32313600</v>
       </c>
       <c r="P46">
-        <v>581587230000</v>
+        <v>495975427500</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>13800</v>
       </c>
       <c r="E47">
-        <v>42870791000</v>
+        <v>41109354200</v>
       </c>
       <c r="F47">
-        <v>11232834000</v>
+        <v>10725541800</v>
       </c>
       <c r="G47">
         <v>473902000</v>
@@ -2728,13 +2728,13 @@
         <v>3434200</v>
       </c>
       <c r="I47">
-        <v>54577527000</v>
+        <v>52308798000</v>
       </c>
       <c r="J47" t="str">
         <v>2023-01-03T10:32:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2769645876000</v>
+        <v>2535449007300</v>
       </c>
       <c r="L47">
         <v>182610800</v>
@@ -2743,13 +2743,13 @@
         <v>-2111800</v>
       </c>
       <c r="N47">
-        <v>-31637957000</v>
+        <v>-30383812400</v>
       </c>
       <c r="O47">
         <v>30201800</v>
       </c>
       <c r="P47">
-        <v>549949273000</v>
+        <v>465591615100</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>2600</v>
       </c>
       <c r="E48">
-        <v>13054786000</v>
+        <v>11144997700</v>
       </c>
       <c r="F48">
-        <v>17691821000</v>
+        <v>16811901800</v>
       </c>
       <c r="G48">
         <v>48620000</v>
@@ -2778,13 +2778,13 @@
         <v>1735900</v>
       </c>
       <c r="I48">
-        <v>30795227000</v>
+        <v>28005519500</v>
       </c>
       <c r="J48" t="str">
         <v>2023-01-03T10:34:00.000Z</v>
       </c>
       <c r="K48">
-        <v>2800441103000</v>
+        <v>2563454526800</v>
       </c>
       <c r="L48">
         <v>184346700</v>
@@ -2793,13 +2793,13 @@
         <v>43700</v>
       </c>
       <c r="N48">
-        <v>4637035000</v>
+        <v>5666904100</v>
       </c>
       <c r="O48">
         <v>30245500</v>
       </c>
       <c r="P48">
-        <v>554586308000</v>
+        <v>471258519200</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>27500</v>
       </c>
       <c r="E49">
-        <v>13718811000</v>
+        <v>12723707100</v>
       </c>
       <c r="F49">
-        <v>11594322000</v>
+        <v>11330685900</v>
       </c>
       <c r="G49">
         <v>319331000</v>
@@ -2828,13 +2828,13 @@
         <v>1490500</v>
       </c>
       <c r="I49">
-        <v>25632464000</v>
+        <v>24373724000</v>
       </c>
       <c r="J49" t="str">
         <v>2023-01-03T10:36:00.000Z</v>
       </c>
       <c r="K49">
-        <v>2826073567000</v>
+        <v>2587828250800</v>
       </c>
       <c r="L49">
         <v>185837200</v>
@@ -2843,13 +2843,13 @@
         <v>-76000</v>
       </c>
       <c r="N49">
-        <v>-2124489000</v>
+        <v>-1393021200</v>
       </c>
       <c r="O49">
         <v>30169500</v>
       </c>
       <c r="P49">
-        <v>552461819000</v>
+        <v>469865498000</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>1300</v>
       </c>
       <c r="E50">
-        <v>21685448000</v>
+        <v>20813420900</v>
       </c>
       <c r="F50">
-        <v>13116187000</v>
+        <v>12981421900</v>
       </c>
       <c r="G50">
         <v>25649000</v>
@@ -2878,13 +2878,13 @@
         <v>1887600</v>
       </c>
       <c r="I50">
-        <v>34827284000</v>
+        <v>33820491800</v>
       </c>
       <c r="J50" t="str">
         <v>2023-01-03T10:38:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2860900851000</v>
+        <v>2621648742600</v>
       </c>
       <c r="L50">
         <v>187724800</v>
@@ -2893,13 +2893,13 @@
         <v>-680500</v>
       </c>
       <c r="N50">
-        <v>-8569261000</v>
+        <v>-7831999000</v>
       </c>
       <c r="O50">
         <v>29489000</v>
       </c>
       <c r="P50">
-        <v>543892558000</v>
+        <v>462033499000</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>13594174000</v>
+        <v>13232136400</v>
       </c>
       <c r="F51">
-        <v>10925938000</v>
+        <v>10733530600</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>1408100</v>
       </c>
       <c r="I51">
-        <v>24520112000</v>
+        <v>23965667000</v>
       </c>
       <c r="J51" t="str">
         <v>2023-01-03T10:40:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2885420963000</v>
+        <v>2645614409600</v>
       </c>
       <c r="L51">
         <v>189132900</v>
@@ -2943,13 +2943,13 @@
         <v>-180500</v>
       </c>
       <c r="N51">
-        <v>-2668236000</v>
+        <v>-2498605800</v>
       </c>
       <c r="O51">
         <v>29308500</v>
       </c>
       <c r="P51">
-        <v>541224322000</v>
+        <v>459534893200</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>2100</v>
       </c>
       <c r="E52">
-        <v>24038422000</v>
+        <v>23175286000</v>
       </c>
       <c r="F52">
-        <v>18735757000</v>
+        <v>17539254700</v>
       </c>
       <c r="G52">
         <v>39860000</v>
@@ -2978,13 +2978,13 @@
         <v>2633100</v>
       </c>
       <c r="I52">
-        <v>42814039000</v>
+        <v>40754400700</v>
       </c>
       <c r="J52" t="str">
         <v>2023-01-03T10:42:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2928235002000</v>
+        <v>2686368810300</v>
       </c>
       <c r="L52">
         <v>191766000</v>
@@ -2993,13 +2993,13 @@
         <v>-793600</v>
       </c>
       <c r="N52">
-        <v>-5302665000</v>
+        <v>-5636031300</v>
       </c>
       <c r="O52">
         <v>28514900</v>
       </c>
       <c r="P52">
-        <v>535921657000</v>
+        <v>453898861900</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>800</v>
       </c>
       <c r="E53">
-        <v>10614327000</v>
+        <v>8694448800</v>
       </c>
       <c r="F53">
-        <v>22188975000</v>
+        <v>21166998000</v>
       </c>
       <c r="G53">
         <v>25255000</v>
@@ -3028,13 +3028,13 @@
         <v>1857300</v>
       </c>
       <c r="I53">
-        <v>32828557000</v>
+        <v>29886701800</v>
       </c>
       <c r="J53" t="str">
         <v>2023-01-03T10:44:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2961063559000</v>
+        <v>2716255512100</v>
       </c>
       <c r="L53">
         <v>193623300</v>
@@ -3043,13 +3043,13 @@
         <v>200500</v>
       </c>
       <c r="N53">
-        <v>11574648000</v>
+        <v>12472549200</v>
       </c>
       <c r="O53">
         <v>28715400</v>
       </c>
       <c r="P53">
-        <v>547496305000</v>
+        <v>466371411100</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>56400</v>
       </c>
       <c r="E54">
-        <v>18542563000</v>
+        <v>18069936100</v>
       </c>
       <c r="F54">
-        <v>33457822000</v>
+        <v>25363424500</v>
       </c>
       <c r="G54">
         <v>521085000</v>
@@ -3078,13 +3078,13 @@
         <v>2947100</v>
       </c>
       <c r="I54">
-        <v>52521470000</v>
+        <v>43954445600</v>
       </c>
       <c r="J54" t="str">
         <v>2023-01-03T10:46:00.000Z</v>
       </c>
       <c r="K54">
-        <v>3013585029000</v>
+        <v>2760209957700</v>
       </c>
       <c r="L54">
         <v>196570400</v>
@@ -3093,13 +3093,13 @@
         <v>750900</v>
       </c>
       <c r="N54">
-        <v>14915259000</v>
+        <v>7293488400</v>
       </c>
       <c r="O54">
         <v>29466300</v>
       </c>
       <c r="P54">
-        <v>562411564000</v>
+        <v>473664899500</v>
       </c>
     </row>
     <row r="55">
@@ -3116,25 +3116,25 @@
         <v>23400</v>
       </c>
       <c r="E55">
-        <v>15125957000</v>
+        <v>13296887900</v>
       </c>
       <c r="F55">
-        <v>17518156000</v>
+        <v>16466308900</v>
       </c>
       <c r="G55">
-        <v>446973000</v>
+        <v>243476700</v>
       </c>
       <c r="H55">
         <v>1895300</v>
       </c>
       <c r="I55">
-        <v>33091086000</v>
+        <v>30006673500</v>
       </c>
       <c r="J55" t="str">
         <v>2023-01-03T10:48:00.000Z</v>
       </c>
       <c r="K55">
-        <v>3046676115000</v>
+        <v>2790216631200</v>
       </c>
       <c r="L55">
         <v>198465700</v>
@@ -3143,13 +3143,13 @@
         <v>131300</v>
       </c>
       <c r="N55">
-        <v>2392199000</v>
+        <v>3169421000</v>
       </c>
       <c r="O55">
         <v>29597600</v>
       </c>
       <c r="P55">
-        <v>564803763000</v>
+        <v>476834320500</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>10300</v>
       </c>
       <c r="E56">
-        <v>22610371000</v>
+        <v>22362319300</v>
       </c>
       <c r="F56">
-        <v>11292566000</v>
+        <v>10272487100</v>
       </c>
       <c r="G56">
         <v>226250000</v>
@@ -3178,13 +3178,13 @@
         <v>1779200</v>
       </c>
       <c r="I56">
-        <v>34129187000</v>
+        <v>32861056400</v>
       </c>
       <c r="J56" t="str">
         <v>2023-01-03T10:50:00.000Z</v>
       </c>
       <c r="K56">
-        <v>3080805302000</v>
+        <v>2823077687600</v>
       </c>
       <c r="L56">
         <v>200244900</v>
@@ -3193,13 +3193,13 @@
         <v>-563300</v>
       </c>
       <c r="N56">
-        <v>-11317805000</v>
+        <v>-12089832200</v>
       </c>
       <c r="O56">
         <v>29034300</v>
       </c>
       <c r="P56">
-        <v>553485958000</v>
+        <v>464744488300</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>56900</v>
       </c>
       <c r="E57">
-        <v>11640677000</v>
+        <v>10584234500</v>
       </c>
       <c r="F57">
-        <v>33052089000</v>
+        <v>30402041700</v>
       </c>
       <c r="G57">
         <v>847624000</v>
@@ -3228,13 +3228,13 @@
         <v>2675900</v>
       </c>
       <c r="I57">
-        <v>45540390000</v>
+        <v>41833900200</v>
       </c>
       <c r="J57" t="str">
         <v>2023-01-03T10:52:00.000Z</v>
       </c>
       <c r="K57">
-        <v>3126345692000</v>
+        <v>2864911587800</v>
       </c>
       <c r="L57">
         <v>202920800</v>
@@ -3243,13 +3243,13 @@
         <v>1323200</v>
       </c>
       <c r="N57">
-        <v>21411412000</v>
+        <v>19817807200</v>
       </c>
       <c r="O57">
         <v>30357500</v>
       </c>
       <c r="P57">
-        <v>574897370000</v>
+        <v>484562295500</v>
       </c>
     </row>
     <row r="58">
@@ -3266,25 +3266,25 @@
         <v>6900</v>
       </c>
       <c r="E58">
-        <v>20192361000</v>
+        <v>18525129900</v>
       </c>
       <c r="F58">
-        <v>28866832000</v>
+        <v>24076926700</v>
       </c>
       <c r="G58">
-        <v>107185000</v>
+        <v>104088100</v>
       </c>
       <c r="H58">
         <v>2599300</v>
       </c>
       <c r="I58">
-        <v>49166378000</v>
+        <v>42706144700</v>
       </c>
       <c r="J58" t="str">
         <v>2023-01-03T10:54:00.000Z</v>
       </c>
       <c r="K58">
-        <v>3175512070000</v>
+        <v>2907617732500</v>
       </c>
       <c r="L58">
         <v>205520100</v>
@@ -3293,13 +3293,13 @@
         <v>470800</v>
       </c>
       <c r="N58">
-        <v>8674471000</v>
+        <v>5551796800</v>
       </c>
       <c r="O58">
         <v>30828300</v>
       </c>
       <c r="P58">
-        <v>583571841000</v>
+        <v>490114092300</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>800</v>
       </c>
       <c r="E59">
-        <v>16447753000</v>
+        <v>15238063900</v>
       </c>
       <c r="F59">
-        <v>12046853000</v>
+        <v>11599900400</v>
       </c>
       <c r="G59">
         <v>3279999.9999999995</v>
@@ -3328,13 +3328,13 @@
         <v>1637900</v>
       </c>
       <c r="I59">
-        <v>28497886000</v>
+        <v>26841244300</v>
       </c>
       <c r="J59" t="str">
         <v>2023-01-03T10:56:00.000Z</v>
       </c>
       <c r="K59">
-        <v>3204009956000</v>
+        <v>2934458976800</v>
       </c>
       <c r="L59">
         <v>207158000</v>
@@ -3343,13 +3343,13 @@
         <v>-266900</v>
       </c>
       <c r="N59">
-        <v>-4400900000</v>
+        <v>-3638163500</v>
       </c>
       <c r="O59">
         <v>30561400</v>
       </c>
       <c r="P59">
-        <v>579170941000</v>
+        <v>486475928800</v>
       </c>
     </row>
     <row r="60">
@@ -3366,25 +3366,25 @@
         <v>30600</v>
       </c>
       <c r="E60">
-        <v>14763541000</v>
+        <v>13719586000</v>
       </c>
       <c r="F60">
-        <v>29575371000</v>
+        <v>28154593200</v>
       </c>
       <c r="G60">
-        <v>994850000</v>
+        <v>939105800</v>
       </c>
       <c r="H60">
         <v>2502700</v>
       </c>
       <c r="I60">
-        <v>45333762000</v>
+        <v>42813285000</v>
       </c>
       <c r="J60" t="str">
         <v>2023-01-03T10:58:00.000Z</v>
       </c>
       <c r="K60">
-        <v>3249343718000</v>
+        <v>2977272261800</v>
       </c>
       <c r="L60">
         <v>209660700</v>
@@ -3393,13 +3393,13 @@
         <v>763100</v>
       </c>
       <c r="N60">
-        <v>14811830000</v>
+        <v>14435007200</v>
       </c>
       <c r="O60">
         <v>31324500</v>
       </c>
       <c r="P60">
-        <v>593982771000</v>
+        <v>500910936000</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>9655134000</v>
+        <v>8970619200</v>
       </c>
       <c r="F61">
-        <v>28589962000</v>
+        <v>25762891900</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3428,13 +3428,13 @@
         <v>2012800</v>
       </c>
       <c r="I61">
-        <v>38245096000</v>
+        <v>34733511100</v>
       </c>
       <c r="J61" t="str">
         <v>2023-01-03T11:00:00.000Z</v>
       </c>
       <c r="K61">
-        <v>3287588814000</v>
+        <v>3012005772900</v>
       </c>
       <c r="L61">
         <v>211673500</v>
@@ -3443,13 +3443,13 @@
         <v>776400</v>
       </c>
       <c r="N61">
-        <v>18934828000</v>
+        <v>16792272700</v>
       </c>
       <c r="O61">
         <v>32100900</v>
       </c>
       <c r="P61">
-        <v>612917599000</v>
+        <v>517703208700</v>
       </c>
     </row>
     <row r="62">
@@ -3466,25 +3466,25 @@
         <v>30100</v>
       </c>
       <c r="E62">
-        <v>14891727000</v>
+        <v>12002918700</v>
       </c>
       <c r="F62">
-        <v>42977137000</v>
+        <v>40657658800</v>
       </c>
       <c r="G62">
-        <v>538406000</v>
+        <v>420524000</v>
       </c>
       <c r="H62">
         <v>3284000</v>
       </c>
       <c r="I62">
-        <v>58407270000</v>
+        <v>53081101500</v>
       </c>
       <c r="J62" t="str">
         <v>2023-01-03T11:02:00.000Z</v>
       </c>
       <c r="K62">
-        <v>3345996084000</v>
+        <v>3065086874400</v>
       </c>
       <c r="L62">
         <v>214957500</v>
@@ -3493,13 +3493,13 @@
         <v>1750300</v>
       </c>
       <c r="N62">
-        <v>28085410000</v>
+        <v>28654740100</v>
       </c>
       <c r="O62">
         <v>33851200</v>
       </c>
       <c r="P62">
-        <v>641003009000</v>
+        <v>546357948800</v>
       </c>
     </row>
     <row r="63">
@@ -3516,25 +3516,25 @@
         <v>34100</v>
       </c>
       <c r="E63">
-        <v>17769588000</v>
+        <v>16468690200</v>
       </c>
       <c r="F63">
-        <v>63013832000</v>
+        <v>61654492700</v>
       </c>
       <c r="G63">
-        <v>510190000</v>
+        <v>502497700</v>
       </c>
       <c r="H63">
         <v>4611100</v>
       </c>
       <c r="I63">
-        <v>81293610000</v>
+        <v>78625680600</v>
       </c>
       <c r="J63" t="str">
         <v>2023-01-03T11:04:00.000Z</v>
       </c>
       <c r="K63">
-        <v>3427289694000</v>
+        <v>3143712555000</v>
       </c>
       <c r="L63">
         <v>219568600</v>
@@ -3543,13 +3543,13 @@
         <v>2603800</v>
       </c>
       <c r="N63">
-        <v>45244244000</v>
+        <v>45185802500</v>
       </c>
       <c r="O63">
         <v>36455000</v>
       </c>
       <c r="P63">
-        <v>686247253000</v>
+        <v>591543751300</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>38400</v>
       </c>
       <c r="E64">
-        <v>20659468000</v>
+        <v>20527100500</v>
       </c>
       <c r="F64">
-        <v>104812777000</v>
+        <v>102058434100</v>
       </c>
       <c r="G64">
         <v>994159000</v>
@@ -3578,13 +3578,13 @@
         <v>7472600</v>
       </c>
       <c r="I64">
-        <v>126466404000</v>
+        <v>123579693600</v>
       </c>
       <c r="J64" t="str">
         <v>2023-01-03T11:06:00.000Z</v>
       </c>
       <c r="K64">
-        <v>3553756098000</v>
+        <v>3267292248600</v>
       </c>
       <c r="L64">
         <v>227041200</v>
@@ -3593,13 +3593,13 @@
         <v>5003600</v>
       </c>
       <c r="N64">
-        <v>84153309000</v>
+        <v>81531333600</v>
       </c>
       <c r="O64">
         <v>41458600</v>
       </c>
       <c r="P64">
-        <v>770400562000</v>
+        <v>673075084900</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>7500</v>
       </c>
       <c r="E65">
-        <v>13683762000</v>
+        <v>13098947400</v>
       </c>
       <c r="F65">
-        <v>58600537000</v>
+        <v>56371668100</v>
       </c>
       <c r="G65">
         <v>65543000</v>
@@ -3628,13 +3628,13 @@
         <v>4392500</v>
       </c>
       <c r="I65">
-        <v>72349842000</v>
+        <v>69536158500</v>
       </c>
       <c r="J65" t="str">
         <v>2023-01-03T11:08:00.000Z</v>
       </c>
       <c r="K65">
-        <v>3626105940000</v>
+        <v>3336828407100</v>
       </c>
       <c r="L65">
         <v>231433700</v>
@@ -3643,13 +3643,13 @@
         <v>2942200</v>
       </c>
       <c r="N65">
-        <v>44916775000</v>
+        <v>43272720700</v>
       </c>
       <c r="O65">
         <v>44400800</v>
       </c>
       <c r="P65">
-        <v>815317337000</v>
+        <v>716347805600</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>5800</v>
       </c>
       <c r="E66">
-        <v>19683472000</v>
+        <v>19046809300</v>
       </c>
       <c r="F66">
-        <v>63986896000</v>
+        <v>61848236800</v>
       </c>
       <c r="G66">
         <v>121865000</v>
@@ -3678,13 +3678,13 @@
         <v>5067500</v>
       </c>
       <c r="I66">
-        <v>83792233000</v>
+        <v>81016911100</v>
       </c>
       <c r="J66" t="str">
         <v>2023-01-03T11:10:00.000Z</v>
       </c>
       <c r="K66">
-        <v>3709898173000</v>
+        <v>3417845318200</v>
       </c>
       <c r="L66">
         <v>236501200</v>
@@ -3693,13 +3693,13 @@
         <v>2874900</v>
       </c>
       <c r="N66">
-        <v>44303424000</v>
+        <v>42801427500</v>
       </c>
       <c r="O66">
         <v>47275700</v>
       </c>
       <c r="P66">
-        <v>859620761000</v>
+        <v>759149233100</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>14900</v>
       </c>
       <c r="E67">
-        <v>33699813000</v>
+        <v>31662252600</v>
       </c>
       <c r="F67">
-        <v>65351397000</v>
+        <v>63142208400</v>
       </c>
       <c r="G67">
         <v>289965000</v>
@@ -3728,13 +3728,13 @@
         <v>6315600</v>
       </c>
       <c r="I67">
-        <v>99341175000</v>
+        <v>95094426000</v>
       </c>
       <c r="J67" t="str">
         <v>2023-01-03T11:12:00.000Z</v>
       </c>
       <c r="K67">
-        <v>3809239348000</v>
+        <v>3512939744200</v>
       </c>
       <c r="L67">
         <v>242816800</v>
@@ -3743,13 +3743,13 @@
         <v>1427300</v>
       </c>
       <c r="N67">
-        <v>31651584000</v>
+        <v>31479955800</v>
       </c>
       <c r="O67">
         <v>48703000</v>
       </c>
       <c r="P67">
-        <v>891272345000</v>
+        <v>790629188900</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>27800</v>
       </c>
       <c r="E68">
-        <v>32157565000</v>
+        <v>30575248900</v>
       </c>
       <c r="F68">
-        <v>24235598000</v>
+        <v>23545588700</v>
       </c>
       <c r="G68">
         <v>635313000</v>
@@ -3778,13 +3778,13 @@
         <v>3126300</v>
       </c>
       <c r="I68">
-        <v>57028476000</v>
+        <v>54756150600</v>
       </c>
       <c r="J68" t="str">
         <v>2023-01-03T11:14:00.000Z</v>
       </c>
       <c r="K68">
-        <v>3866267824000</v>
+        <v>3567695894800</v>
       </c>
       <c r="L68">
         <v>245943100</v>
@@ -3793,13 +3793,13 @@
         <v>-149100</v>
       </c>
       <c r="N68">
-        <v>-7921967000</v>
+        <v>-7029660200</v>
       </c>
       <c r="O68">
         <v>48553900</v>
       </c>
       <c r="P68">
-        <v>883350378000</v>
+        <v>783599528700</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>3800</v>
       </c>
       <c r="E69">
-        <v>19032726000</v>
+        <v>18213146400</v>
       </c>
       <c r="F69">
-        <v>12345324000</v>
+        <v>12234035400</v>
       </c>
       <c r="G69">
         <v>72525000</v>
@@ -3828,13 +3828,13 @@
         <v>1826400</v>
       </c>
       <c r="I69">
-        <v>31450575000</v>
+        <v>30519706800</v>
       </c>
       <c r="J69" t="str">
         <v>2023-01-03T11:16:00.000Z</v>
       </c>
       <c r="K69">
-        <v>3897718399000</v>
+        <v>3598215601600</v>
       </c>
       <c r="L69">
         <v>247769500</v>
@@ -3843,13 +3843,13 @@
         <v>-353600</v>
       </c>
       <c r="N69">
-        <v>-6687402000</v>
+        <v>-5979111000</v>
       </c>
       <c r="O69">
         <v>48200300</v>
       </c>
       <c r="P69">
-        <v>876662976000</v>
+        <v>777620417700</v>
       </c>
     </row>
     <row r="70">
@@ -3866,25 +3866,25 @@
         <v>37300</v>
       </c>
       <c r="E70">
-        <v>19785968000</v>
+        <v>18535020200</v>
       </c>
       <c r="F70">
-        <v>13388463000</v>
+        <v>13025726100</v>
       </c>
       <c r="G70">
-        <v>503635000</v>
+        <v>502536100</v>
       </c>
       <c r="H70">
         <v>1768900</v>
       </c>
       <c r="I70">
-        <v>33678066000</v>
+        <v>32063282400</v>
       </c>
       <c r="J70" t="str">
         <v>2023-01-03T11:18:00.000Z</v>
       </c>
       <c r="K70">
-        <v>3931396465000</v>
+        <v>3630278884000</v>
       </c>
       <c r="L70">
         <v>249538400</v>
@@ -3893,13 +3893,13 @@
         <v>-278200</v>
       </c>
       <c r="N70">
-        <v>-6397505000</v>
+        <v>-5509294100</v>
       </c>
       <c r="O70">
         <v>47922100</v>
       </c>
       <c r="P70">
-        <v>870265471000</v>
+        <v>772111123600</v>
       </c>
     </row>
     <row r="71">
@@ -3916,10 +3916,10 @@
         <v>21500</v>
       </c>
       <c r="E71">
-        <v>24219564000</v>
+        <v>23017467300</v>
       </c>
       <c r="F71">
-        <v>17627787000</v>
+        <v>16854760800</v>
       </c>
       <c r="G71">
         <v>459155000</v>
@@ -3928,13 +3928,13 @@
         <v>2182400</v>
       </c>
       <c r="I71">
-        <v>42306506000</v>
+        <v>40331383100</v>
       </c>
       <c r="J71" t="str">
         <v>2023-01-03T11:20:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3973702971000</v>
+        <v>3670610267100</v>
       </c>
       <c r="L71">
         <v>251720800</v>
@@ -3943,13 +3943,13 @@
         <v>-298500</v>
       </c>
       <c r="N71">
-        <v>-6591777000</v>
+        <v>-6162706500</v>
       </c>
       <c r="O71">
         <v>47623600</v>
       </c>
       <c r="P71">
-        <v>863673694000</v>
+        <v>765948417100</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>2100</v>
       </c>
       <c r="E72">
-        <v>16083817000</v>
+        <v>14919482500</v>
       </c>
       <c r="F72">
-        <v>19674416000</v>
+        <v>18595396100</v>
       </c>
       <c r="G72">
-        <v>139000000</v>
+        <v>129709300</v>
       </c>
       <c r="H72">
         <v>1664200</v>
       </c>
       <c r="I72">
-        <v>35897233000</v>
+        <v>33644587900</v>
       </c>
       <c r="J72" t="str">
         <v>2023-01-03T11:22:00.000Z</v>
       </c>
       <c r="K72">
-        <v>4009600204000</v>
+        <v>3704254855000</v>
       </c>
       <c r="L72">
         <v>253385000</v>
@@ -3993,13 +3993,13 @@
         <v>147500</v>
       </c>
       <c r="N72">
-        <v>3590599000</v>
+        <v>3675913600</v>
       </c>
       <c r="O72">
         <v>47771100</v>
       </c>
       <c r="P72">
-        <v>867264293000</v>
+        <v>769624330700</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>70000</v>
       </c>
       <c r="E73">
-        <v>22879070000</v>
+        <v>21865884200</v>
       </c>
       <c r="F73">
-        <v>18100845000</v>
+        <v>17576370000</v>
       </c>
       <c r="G73">
         <v>1320585000</v>
@@ -4028,13 +4028,13 @@
         <v>2414800</v>
       </c>
       <c r="I73">
-        <v>42300500000</v>
+        <v>40762839200</v>
       </c>
       <c r="J73" t="str">
         <v>2023-01-03T11:24:00.000Z</v>
       </c>
       <c r="K73">
-        <v>4051900704000</v>
+        <v>3745017694200</v>
       </c>
       <c r="L73">
         <v>255799800</v>
@@ -4043,13 +4043,13 @@
         <v>24600</v>
       </c>
       <c r="N73">
-        <v>-4778225000</v>
+        <v>-4289514200</v>
       </c>
       <c r="O73">
         <v>47795700</v>
       </c>
       <c r="P73">
-        <v>862486068000</v>
+        <v>765334816500</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>12100</v>
       </c>
       <c r="E74">
-        <v>22436484000</v>
+        <v>21944276700</v>
       </c>
       <c r="F74">
-        <v>13996275000</v>
+        <v>9680195400</v>
       </c>
       <c r="G74">
-        <v>220294000</v>
+        <v>179834500</v>
       </c>
       <c r="H74">
         <v>2179800</v>
       </c>
       <c r="I74">
-        <v>36653053000</v>
+        <v>31804306600</v>
       </c>
       <c r="J74" t="str">
         <v>2023-01-03T11:26:00.000Z</v>
       </c>
       <c r="K74">
-        <v>4088553757000</v>
+        <v>3776822000800</v>
       </c>
       <c r="L74">
         <v>257979600</v>
@@ -4093,13 +4093,13 @@
         <v>-712300</v>
       </c>
       <c r="N74">
-        <v>-8440209000</v>
+        <v>-12264081300</v>
       </c>
       <c r="O74">
         <v>47083400</v>
       </c>
       <c r="P74">
-        <v>854045859000</v>
+        <v>753070735200</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>200</v>
       </c>
       <c r="E75">
-        <v>21716654000</v>
+        <v>18009065300</v>
       </c>
       <c r="F75">
-        <v>17102550000</v>
+        <v>14419036200</v>
       </c>
       <c r="G75">
-        <v>5400000</v>
+        <v>5400</v>
       </c>
       <c r="H75">
         <v>2219200</v>
       </c>
       <c r="I75">
-        <v>38824604000</v>
+        <v>32428106900</v>
       </c>
       <c r="J75" t="str">
         <v>2023-01-03T11:28:00.000Z</v>
       </c>
       <c r="K75">
-        <v>4127378361000</v>
+        <v>3809250107700</v>
       </c>
       <c r="L75">
         <v>260198800</v>
@@ -4143,13 +4143,13 @@
         <v>-343600</v>
       </c>
       <c r="N75">
-        <v>-4614104000</v>
+        <v>-3590029100</v>
       </c>
       <c r="O75">
         <v>46739800</v>
       </c>
       <c r="P75">
-        <v>849431755000</v>
+        <v>749480706100</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>108100</v>
       </c>
       <c r="E76">
-        <v>50205469000</v>
+        <v>48481195000</v>
       </c>
       <c r="F76">
-        <v>43863292000</v>
+        <v>42282973900</v>
       </c>
       <c r="G76">
-        <v>1729606000</v>
+        <v>1685150500</v>
       </c>
       <c r="H76">
         <v>7214700</v>
       </c>
       <c r="I76">
-        <v>95798367000</v>
+        <v>92449319400</v>
       </c>
       <c r="J76" t="str">
         <v>2023-01-03T13:00:00.000Z</v>
       </c>
       <c r="K76">
-        <v>4223176728000</v>
+        <v>3901699427100</v>
       </c>
       <c r="L76">
         <v>267413500</v>
@@ -4193,13 +4193,13 @@
         <v>-1324200</v>
       </c>
       <c r="N76">
-        <v>-6342177000</v>
+        <v>-6198221100</v>
       </c>
       <c r="O76">
         <v>45415600</v>
       </c>
       <c r="P76">
-        <v>843089578000</v>
+        <v>743282485000</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>16600</v>
       </c>
       <c r="E77">
-        <v>18187607000</v>
+        <v>17602892300</v>
       </c>
       <c r="F77">
-        <v>22439570000</v>
+        <v>19883628500</v>
       </c>
       <c r="G77">
         <v>162756000</v>
@@ -4228,13 +4228,13 @@
         <v>2525000</v>
       </c>
       <c r="I77">
-        <v>40789933000</v>
+        <v>37649276800</v>
       </c>
       <c r="J77" t="str">
         <v>2023-01-03T13:02:00.000Z</v>
       </c>
       <c r="K77">
-        <v>4263966661000</v>
+        <v>3939348703900</v>
       </c>
       <c r="L77">
         <v>269938500</v>
@@ -4243,13 +4243,13 @@
         <v>413200</v>
       </c>
       <c r="N77">
-        <v>4251963000</v>
+        <v>2280736200</v>
       </c>
       <c r="O77">
         <v>45828800</v>
       </c>
       <c r="P77">
-        <v>847341541000</v>
+        <v>745563221200</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>18400</v>
       </c>
       <c r="E78">
-        <v>29868288000</v>
+        <v>23906855400</v>
       </c>
       <c r="F78">
-        <v>31212691000</v>
+        <v>25775333800</v>
       </c>
       <c r="G78">
-        <v>628268000</v>
+        <v>588008300</v>
       </c>
       <c r="H78">
         <v>3802100</v>
       </c>
       <c r="I78">
-        <v>61709247000</v>
+        <v>50270197500</v>
       </c>
       <c r="J78" t="str">
         <v>2023-01-03T13:04:00.000Z</v>
       </c>
       <c r="K78">
-        <v>4325675908000</v>
+        <v>3989618901400</v>
       </c>
       <c r="L78">
         <v>273740600</v>
@@ -4293,13 +4293,13 @@
         <v>-10100</v>
       </c>
       <c r="N78">
-        <v>1344403000</v>
+        <v>1868478400</v>
       </c>
       <c r="O78">
         <v>45818700</v>
       </c>
       <c r="P78">
-        <v>848685944000</v>
+        <v>747431699600</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>28000</v>
       </c>
       <c r="E79">
-        <v>23333124000</v>
+        <v>19039022400</v>
       </c>
       <c r="F79">
-        <v>52224366000</v>
+        <v>32456453700</v>
       </c>
       <c r="G79">
-        <v>591804000</v>
+        <v>330265800</v>
       </c>
       <c r="H79">
         <v>3867900</v>
       </c>
       <c r="I79">
-        <v>76149294000</v>
+        <v>51825741900</v>
       </c>
       <c r="J79" t="str">
         <v>2023-01-03T13:06:00.000Z</v>
       </c>
       <c r="K79">
-        <v>4401825202000</v>
+        <v>4041444643300</v>
       </c>
       <c r="L79">
         <v>277608500</v>
@@ -4343,13 +4343,13 @@
         <v>1559100</v>
       </c>
       <c r="N79">
-        <v>28891242000</v>
+        <v>13417431300</v>
       </c>
       <c r="O79">
         <v>47377800</v>
       </c>
       <c r="P79">
-        <v>877577186000</v>
+        <v>760849130900</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>10000</v>
       </c>
       <c r="E80">
-        <v>16283539000</v>
+        <v>14937286600</v>
       </c>
       <c r="F80">
-        <v>36268590000</v>
+        <v>32035627200</v>
       </c>
       <c r="G80">
         <v>545503000</v>
@@ -4378,13 +4378,13 @@
         <v>2911500</v>
       </c>
       <c r="I80">
-        <v>53097632000</v>
+        <v>47518416800</v>
       </c>
       <c r="J80" t="str">
         <v>2023-01-03T13:08:00.000Z</v>
       </c>
       <c r="K80">
-        <v>4454922834000</v>
+        <v>4088963060100</v>
       </c>
       <c r="L80">
         <v>280520000</v>
@@ -4393,13 +4393,13 @@
         <v>1098700</v>
       </c>
       <c r="N80">
-        <v>19985051000</v>
+        <v>17098340600</v>
       </c>
       <c r="O80">
         <v>48476500</v>
       </c>
       <c r="P80">
-        <v>897562237000</v>
+        <v>777947471500</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>23400</v>
       </c>
       <c r="E81">
-        <v>15100740000</v>
+        <v>13715726400</v>
       </c>
       <c r="F81">
-        <v>56941699000</v>
+        <v>52725019900</v>
       </c>
       <c r="G81">
         <v>230262000</v>
@@ -4428,13 +4428,13 @@
         <v>4574200</v>
       </c>
       <c r="I81">
-        <v>72272701000</v>
+        <v>66671008300</v>
       </c>
       <c r="J81" t="str">
         <v>2023-01-03T13:10:00.000Z</v>
       </c>
       <c r="K81">
-        <v>4527195535000</v>
+        <v>4155634068400</v>
       </c>
       <c r="L81">
         <v>285094200</v>
@@ -4443,13 +4443,13 @@
         <v>2749200</v>
       </c>
       <c r="N81">
-        <v>41840959000</v>
+        <v>39009293500</v>
       </c>
       <c r="O81">
         <v>51225700</v>
       </c>
       <c r="P81">
-        <v>939403196000</v>
+        <v>816956765000</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>42200</v>
       </c>
       <c r="E82">
-        <v>22947731000</v>
+        <v>21962916800</v>
       </c>
       <c r="F82">
-        <v>53951607000</v>
+        <v>46790275500</v>
       </c>
       <c r="G82">
-        <v>555366000</v>
+        <v>350571000</v>
       </c>
       <c r="H82">
         <v>4688200</v>
       </c>
       <c r="I82">
-        <v>77454704000</v>
+        <v>69103763300</v>
       </c>
       <c r="J82" t="str">
         <v>2023-01-03T13:12:00.000Z</v>
       </c>
       <c r="K82">
-        <v>4604650239000</v>
+        <v>4224737831700</v>
       </c>
       <c r="L82">
         <v>289782400</v>
@@ -4493,13 +4493,13 @@
         <v>1737400</v>
       </c>
       <c r="N82">
-        <v>31003876000</v>
+        <v>24827358700</v>
       </c>
       <c r="O82">
         <v>52963100</v>
       </c>
       <c r="P82">
-        <v>970407072000</v>
+        <v>841784123700</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>43800</v>
       </c>
       <c r="E83">
-        <v>33900711000</v>
+        <v>32853759000</v>
       </c>
       <c r="F83">
-        <v>52490080000</v>
+        <v>51013558000</v>
       </c>
       <c r="G83">
-        <v>726316000</v>
+        <v>666376000</v>
       </c>
       <c r="H83">
         <v>5154800</v>
       </c>
       <c r="I83">
-        <v>87117107000</v>
+        <v>84533693000</v>
       </c>
       <c r="J83" t="str">
         <v>2023-01-03T13:14:00.000Z</v>
       </c>
       <c r="K83">
-        <v>4691767346000</v>
+        <v>4309271524700</v>
       </c>
       <c r="L83">
         <v>294937200</v>
@@ -4543,13 +4543,13 @@
         <v>1230200</v>
       </c>
       <c r="N83">
-        <v>18589369000</v>
+        <v>18159799000</v>
       </c>
       <c r="O83">
         <v>54193300</v>
       </c>
       <c r="P83">
-        <v>988996441000</v>
+        <v>859943922700</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>12300</v>
       </c>
       <c r="E84">
-        <v>32400757000</v>
+        <v>27493569100</v>
       </c>
       <c r="F84">
-        <v>54909349000</v>
+        <v>52727233300</v>
       </c>
       <c r="G84">
-        <v>751569000</v>
+        <v>703017600</v>
       </c>
       <c r="H84">
         <v>5424100</v>
       </c>
       <c r="I84">
-        <v>88061675000</v>
+        <v>80923820000</v>
       </c>
       <c r="J84" t="str">
         <v>2023-01-03T13:16:00.000Z</v>
       </c>
       <c r="K84">
-        <v>4779829021000</v>
+        <v>4390195344700</v>
       </c>
       <c r="L84">
         <v>300361300</v>
@@ -4593,13 +4593,13 @@
         <v>1345600</v>
       </c>
       <c r="N84">
-        <v>22508592000</v>
+        <v>25233664200</v>
       </c>
       <c r="O84">
         <v>55538900</v>
       </c>
       <c r="P84">
-        <v>1011505033000</v>
+        <v>885177586900</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>23100</v>
       </c>
       <c r="E85">
-        <v>26040157000</v>
+        <v>25182615400</v>
       </c>
       <c r="F85">
-        <v>50512803000</v>
+        <v>44561460300</v>
       </c>
       <c r="G85">
         <v>353769000</v>
@@ -4628,13 +4628,13 @@
         <v>4125800</v>
       </c>
       <c r="I85">
-        <v>76906729000</v>
+        <v>70097844700</v>
       </c>
       <c r="J85" t="str">
         <v>2023-01-03T13:18:00.000Z</v>
       </c>
       <c r="K85">
-        <v>4856735750000</v>
+        <v>4460293189400</v>
       </c>
       <c r="L85">
         <v>304487100</v>
@@ -4643,13 +4643,13 @@
         <v>1014500</v>
       </c>
       <c r="N85">
-        <v>24472646000</v>
+        <v>19378844900</v>
       </c>
       <c r="O85">
         <v>56553400</v>
       </c>
       <c r="P85">
-        <v>1035977679000</v>
+        <v>904556431800</v>
       </c>
     </row>
     <row r="86">
@@ -4666,10 +4666,10 @@
         <v>47200</v>
       </c>
       <c r="E86">
-        <v>19931136000</v>
+        <v>18954413700</v>
       </c>
       <c r="F86">
-        <v>64317036000</v>
+        <v>62083971300</v>
       </c>
       <c r="G86">
         <v>1342439000</v>
@@ -4678,13 +4678,13 @@
         <v>4704600</v>
       </c>
       <c r="I86">
-        <v>85590611000</v>
+        <v>82380824000</v>
       </c>
       <c r="J86" t="str">
         <v>2023-01-03T13:20:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4942326361000</v>
+        <v>4542674013400</v>
       </c>
       <c r="L86">
         <v>309191700</v>
@@ -4693,13 +4693,13 @@
         <v>2644200</v>
       </c>
       <c r="N86">
-        <v>44385900000</v>
+        <v>43129557600</v>
       </c>
       <c r="O86">
         <v>59197600</v>
       </c>
       <c r="P86">
-        <v>1080363579000</v>
+        <v>947685989400</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>9000</v>
       </c>
       <c r="E87">
-        <v>22506510000</v>
+        <v>22191525300</v>
       </c>
       <c r="F87">
-        <v>78813489000</v>
+        <v>75758946600</v>
       </c>
       <c r="G87">
         <v>230908000</v>
@@ -4728,13 +4728,13 @@
         <v>6604400</v>
       </c>
       <c r="I87">
-        <v>101550907000</v>
+        <v>98181379900</v>
       </c>
       <c r="J87" t="str">
         <v>2023-01-03T13:22:00.000Z</v>
       </c>
       <c r="K87">
-        <v>5043877268000</v>
+        <v>4640855393300</v>
       </c>
       <c r="L87">
         <v>315796100</v>
@@ -4743,13 +4743,13 @@
         <v>3751600</v>
       </c>
       <c r="N87">
-        <v>56306979000</v>
+        <v>53567421300</v>
       </c>
       <c r="O87">
         <v>62949200</v>
       </c>
       <c r="P87">
-        <v>1136670558000</v>
+        <v>1001253410700</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>21200</v>
       </c>
       <c r="E88">
-        <v>18392079000</v>
+        <v>17291980200</v>
       </c>
       <c r="F88">
-        <v>39318025000</v>
+        <v>39128514700</v>
       </c>
       <c r="G88">
         <v>311412000</v>
@@ -4778,13 +4778,13 @@
         <v>3373400</v>
       </c>
       <c r="I88">
-        <v>58021516000</v>
+        <v>56731906900</v>
       </c>
       <c r="J88" t="str">
         <v>2023-01-03T13:24:00.000Z</v>
       </c>
       <c r="K88">
-        <v>5101898784000</v>
+        <v>4697587300200</v>
       </c>
       <c r="L88">
         <v>319169500</v>
@@ -4793,13 +4793,13 @@
         <v>1164000</v>
       </c>
       <c r="N88">
-        <v>20925946000</v>
+        <v>21836534500</v>
       </c>
       <c r="O88">
         <v>64113200</v>
       </c>
       <c r="P88">
-        <v>1157596504000</v>
+        <v>1023089945200</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>43500</v>
       </c>
       <c r="E89">
-        <v>31881575000</v>
+        <v>29827431200</v>
       </c>
       <c r="F89">
-        <v>53062587000</v>
+        <v>49223829600</v>
       </c>
       <c r="G89">
-        <v>447514000</v>
+        <v>392569000</v>
       </c>
       <c r="H89">
         <v>5015000</v>
       </c>
       <c r="I89">
-        <v>85391676000</v>
+        <v>79443829800</v>
       </c>
       <c r="J89" t="str">
         <v>2023-01-03T13:26:00.000Z</v>
       </c>
       <c r="K89">
-        <v>5187290460000</v>
+        <v>4777031130000</v>
       </c>
       <c r="L89">
         <v>324184500</v>
@@ -4843,13 +4843,13 @@
         <v>1352700</v>
       </c>
       <c r="N89">
-        <v>21181012000</v>
+        <v>19396398400</v>
       </c>
       <c r="O89">
         <v>65465900</v>
       </c>
       <c r="P89">
-        <v>1178777516000</v>
+        <v>1042486343600</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>8800</v>
       </c>
       <c r="E90">
-        <v>30972749000</v>
+        <v>30131491100</v>
       </c>
       <c r="F90">
-        <v>23467962000</v>
+        <v>22884346200</v>
       </c>
       <c r="G90">
         <v>230047000</v>
@@ -4878,13 +4878,13 @@
         <v>3265900</v>
       </c>
       <c r="I90">
-        <v>54670758000</v>
+        <v>53245884300</v>
       </c>
       <c r="J90" t="str">
         <v>2023-01-03T13:28:00.000Z</v>
       </c>
       <c r="K90">
-        <v>5241961218000</v>
+        <v>4830277014300</v>
       </c>
       <c r="L90">
         <v>327450400</v>
@@ -4893,13 +4893,13 @@
         <v>-1176700</v>
       </c>
       <c r="N90">
-        <v>-7504787000</v>
+        <v>-7247144900</v>
       </c>
       <c r="O90">
         <v>64289200</v>
       </c>
       <c r="P90">
-        <v>1171272729000</v>
+        <v>1035239198700</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>3200</v>
       </c>
       <c r="E91">
-        <v>23153434000</v>
+        <v>21328460800</v>
       </c>
       <c r="F91">
-        <v>26630626000</v>
+        <v>26031026200</v>
       </c>
       <c r="G91">
         <v>55632000</v>
@@ -4928,13 +4928,13 @@
         <v>2401200</v>
       </c>
       <c r="I91">
-        <v>49839692000</v>
+        <v>47415119000</v>
       </c>
       <c r="J91" t="str">
         <v>2023-01-03T13:30:00.000Z</v>
       </c>
       <c r="K91">
-        <v>5291800910000</v>
+        <v>4877692133300</v>
       </c>
       <c r="L91">
         <v>329851600</v>
@@ -4943,13 +4943,13 @@
         <v>-37000</v>
       </c>
       <c r="N91">
-        <v>3477192000</v>
+        <v>4702565400</v>
       </c>
       <c r="O91">
         <v>64252200</v>
       </c>
       <c r="P91">
-        <v>1174749921000</v>
+        <v>1039941764100</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>20300</v>
       </c>
       <c r="E92">
-        <v>28895161000</v>
+        <v>27355502200</v>
       </c>
       <c r="F92">
-        <v>33055065000</v>
+        <v>30449972700</v>
       </c>
       <c r="G92">
-        <v>253882000</v>
+        <v>249886000</v>
       </c>
       <c r="H92">
         <v>3515900</v>
       </c>
       <c r="I92">
-        <v>62204108000</v>
+        <v>58055360900</v>
       </c>
       <c r="J92" t="str">
         <v>2023-01-03T13:32:00.000Z</v>
       </c>
       <c r="K92">
-        <v>5354005018000</v>
+        <v>4935747494200</v>
       </c>
       <c r="L92">
         <v>333367500</v>
@@ -4993,13 +4993,13 @@
         <v>-353600</v>
       </c>
       <c r="N92">
-        <v>4159904000</v>
+        <v>3094470500</v>
       </c>
       <c r="O92">
         <v>63898600</v>
       </c>
       <c r="P92">
-        <v>1178909825000</v>
+        <v>1043036234600</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>11200</v>
       </c>
       <c r="E93">
-        <v>22557926000</v>
+        <v>21654730100</v>
       </c>
       <c r="F93">
-        <v>36342855000</v>
+        <v>29907496800</v>
       </c>
       <c r="G93">
         <v>232411000</v>
@@ -5028,13 +5028,13 @@
         <v>3058300</v>
       </c>
       <c r="I93">
-        <v>59133192000</v>
+        <v>51794637900</v>
       </c>
       <c r="J93" t="str">
         <v>2023-01-03T13:34:00.000Z</v>
       </c>
       <c r="K93">
-        <v>5413138210000</v>
+        <v>4987542132100</v>
       </c>
       <c r="L93">
         <v>336425800</v>
@@ -5043,13 +5043,13 @@
         <v>575300</v>
       </c>
       <c r="N93">
-        <v>13784929000</v>
+        <v>8252766700</v>
       </c>
       <c r="O93">
         <v>64473900</v>
       </c>
       <c r="P93">
-        <v>1192694754000</v>
+        <v>1051289001300</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>17600</v>
       </c>
       <c r="E94">
-        <v>19486288000</v>
+        <v>17913362500</v>
       </c>
       <c r="F94">
-        <v>37894434000</v>
+        <v>37051677600</v>
       </c>
       <c r="G94">
         <v>731456000</v>
@@ -5078,13 +5078,13 @@
         <v>3016000</v>
       </c>
       <c r="I94">
-        <v>58112178000</v>
+        <v>55696496100</v>
       </c>
       <c r="J94" t="str">
         <v>2023-01-03T13:36:00.000Z</v>
       </c>
       <c r="K94">
-        <v>5471250388000</v>
+        <v>5043238628200</v>
       </c>
       <c r="L94">
         <v>339441800</v>
@@ -5093,13 +5093,13 @@
         <v>1044400</v>
       </c>
       <c r="N94">
-        <v>18408146000</v>
+        <v>19138315100</v>
       </c>
       <c r="O94">
         <v>65518300</v>
       </c>
       <c r="P94">
-        <v>1211102900000</v>
+        <v>1070427316400</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>36600</v>
       </c>
       <c r="E95">
-        <v>23315365000</v>
+        <v>22375705600</v>
       </c>
       <c r="F95">
-        <v>104307877000</v>
+        <v>104101683400</v>
       </c>
       <c r="G95">
         <v>777787000</v>
@@ -5128,13 +5128,13 @@
         <v>7246800</v>
       </c>
       <c r="I95">
-        <v>128401029000</v>
+        <v>127255176000</v>
       </c>
       <c r="J95" t="str">
         <v>2023-01-03T13:38:00.000Z</v>
       </c>
       <c r="K95">
-        <v>5599651417000</v>
+        <v>5170493804200</v>
       </c>
       <c r="L95">
         <v>346688600</v>
@@ -5143,13 +5143,13 @@
         <v>4662800</v>
       </c>
       <c r="N95">
-        <v>80992512000</v>
+        <v>81725977800</v>
       </c>
       <c r="O95">
         <v>70181100</v>
       </c>
       <c r="P95">
-        <v>1292095412000</v>
+        <v>1152153294200</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>12800</v>
       </c>
       <c r="E96">
-        <v>17990719000</v>
+        <v>17392318000</v>
       </c>
       <c r="F96">
-        <v>74797101000</v>
+        <v>71274427200</v>
       </c>
       <c r="G96">
-        <v>446450000</v>
+        <v>432064400</v>
       </c>
       <c r="H96">
         <v>4329100</v>
       </c>
       <c r="I96">
-        <v>93234270000</v>
+        <v>89098809600</v>
       </c>
       <c r="J96" t="str">
         <v>2023-01-03T13:40:00.000Z</v>
       </c>
       <c r="K96">
-        <v>5692885687000</v>
+        <v>5259592613800</v>
       </c>
       <c r="L96">
         <v>351017700</v>
@@ -5193,13 +5193,13 @@
         <v>2276900</v>
       </c>
       <c r="N96">
-        <v>56806382000</v>
+        <v>53882109200</v>
       </c>
       <c r="O96">
         <v>72458000</v>
       </c>
       <c r="P96">
-        <v>1348901794000</v>
+        <v>1206035403400</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>26900</v>
       </c>
       <c r="E97">
-        <v>22551241000</v>
+        <v>21754838200</v>
       </c>
       <c r="F97">
-        <v>117133111000</v>
+        <v>114072075100</v>
       </c>
       <c r="G97">
         <v>426943000</v>
@@ -5228,13 +5228,13 @@
         <v>7215500</v>
       </c>
       <c r="I97">
-        <v>140111295000</v>
+        <v>136253856300</v>
       </c>
       <c r="J97" t="str">
         <v>2023-01-03T13:42:00.000Z</v>
       </c>
       <c r="K97">
-        <v>5832996982000</v>
+        <v>5395846470100</v>
       </c>
       <c r="L97">
         <v>358233200</v>
@@ -5243,13 +5243,13 @@
         <v>4869200</v>
       </c>
       <c r="N97">
-        <v>94581870000</v>
+        <v>92317236900</v>
       </c>
       <c r="O97">
         <v>77327200</v>
       </c>
       <c r="P97">
-        <v>1443483664000</v>
+        <v>1298352640300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>12200</v>
       </c>
       <c r="E98">
-        <v>23050701000</v>
+        <v>22801050900</v>
       </c>
       <c r="F98">
-        <v>134571437000</v>
+        <v>125295921800</v>
       </c>
       <c r="G98">
         <v>361222000</v>
@@ -5278,13 +5278,13 @@
         <v>8550000</v>
       </c>
       <c r="I98">
-        <v>157983360000</v>
+        <v>148458194700</v>
       </c>
       <c r="J98" t="str">
         <v>2023-01-03T13:44:00.000Z</v>
       </c>
       <c r="K98">
-        <v>5990980342000</v>
+        <v>5544304664800</v>
       </c>
       <c r="L98">
         <v>366783200</v>
@@ -5293,13 +5293,13 @@
         <v>5833400</v>
       </c>
       <c r="N98">
-        <v>111520736000</v>
+        <v>102494870900</v>
       </c>
       <c r="O98">
         <v>83160600</v>
       </c>
       <c r="P98">
-        <v>1555004400000</v>
+        <v>1400847511200</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>32900</v>
       </c>
       <c r="E99">
-        <v>25661892000</v>
+        <v>25445009100</v>
       </c>
       <c r="F99">
-        <v>71532331000</v>
+        <v>61151821900</v>
       </c>
       <c r="G99">
         <v>284499000</v>
@@ -5328,13 +5328,13 @@
         <v>4973000</v>
       </c>
       <c r="I99">
-        <v>97478722000</v>
+        <v>86881330000</v>
       </c>
       <c r="J99" t="str">
         <v>2023-01-03T13:46:00.000Z</v>
       </c>
       <c r="K99">
-        <v>6088459064000</v>
+        <v>5631185994800</v>
       </c>
       <c r="L99">
         <v>371756200</v>
@@ -5343,13 +5343,13 @@
         <v>1804700</v>
       </c>
       <c r="N99">
-        <v>45870439000</v>
+        <v>35706812800</v>
       </c>
       <c r="O99">
         <v>84965300</v>
       </c>
       <c r="P99">
-        <v>1600874839000</v>
+        <v>1436554324000</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>29500</v>
       </c>
       <c r="E100">
-        <v>31059497000</v>
+        <v>28273286000</v>
       </c>
       <c r="F100">
-        <v>55151319000</v>
+        <v>51700173600</v>
       </c>
       <c r="G100">
         <v>463235000</v>
@@ -5378,13 +5378,13 @@
         <v>4809300</v>
       </c>
       <c r="I100">
-        <v>86674051000</v>
+        <v>80436694600</v>
       </c>
       <c r="J100" t="str">
         <v>2023-01-03T13:48:00.000Z</v>
       </c>
       <c r="K100">
-        <v>6175133115000</v>
+        <v>5711622689400</v>
       </c>
       <c r="L100">
         <v>376565500</v>
@@ -5393,13 +5393,13 @@
         <v>1448200</v>
       </c>
       <c r="N100">
-        <v>24091822000</v>
+        <v>23426887600</v>
       </c>
       <c r="O100">
         <v>86413500</v>
       </c>
       <c r="P100">
-        <v>1624966661000</v>
+        <v>1459981211600</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>14700</v>
       </c>
       <c r="E101">
-        <v>34676936000</v>
+        <v>33096118400</v>
       </c>
       <c r="F101">
-        <v>48044656000</v>
+        <v>46429772500</v>
       </c>
       <c r="G101">
         <v>316744000</v>
@@ -5428,13 +5428,13 @@
         <v>4754500</v>
       </c>
       <c r="I101">
-        <v>83038336000</v>
+        <v>79842634900</v>
       </c>
       <c r="J101" t="str">
         <v>2023-01-03T13:50:00.000Z</v>
       </c>
       <c r="K101">
-        <v>6258171451000</v>
+        <v>5791465324300</v>
       </c>
       <c r="L101">
         <v>381320000</v>
@@ -5443,13 +5443,13 @@
         <v>1286800</v>
       </c>
       <c r="N101">
-        <v>13367720000</v>
+        <v>13333654100</v>
       </c>
       <c r="O101">
         <v>87700300</v>
       </c>
       <c r="P101">
-        <v>1638334381000</v>
+        <v>1473314865700</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>7700</v>
       </c>
       <c r="E102">
-        <v>44052785000</v>
+        <v>41617622600</v>
       </c>
       <c r="F102">
-        <v>44117750000</v>
+        <v>42625643600</v>
       </c>
       <c r="G102">
         <v>135393000</v>
@@ -5478,13 +5478,13 @@
         <v>4688300</v>
       </c>
       <c r="I102">
-        <v>88305928000</v>
+        <v>84378659200</v>
       </c>
       <c r="J102" t="str">
         <v>2023-01-03T13:52:00.000Z</v>
       </c>
       <c r="K102">
-        <v>6346477379000</v>
+        <v>5875843983500</v>
       </c>
       <c r="L102">
         <v>386008300</v>
@@ -5493,13 +5493,13 @@
         <v>-314800</v>
       </c>
       <c r="N102">
-        <v>64965000</v>
+        <v>1008021000</v>
       </c>
       <c r="O102">
         <v>87385500</v>
       </c>
       <c r="P102">
-        <v>1638399346000</v>
+        <v>1474322886700</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>4400</v>
       </c>
       <c r="E103">
-        <v>30055884000</v>
+        <v>29590150200</v>
       </c>
       <c r="F103">
-        <v>48883216000</v>
+        <v>47159141800</v>
       </c>
       <c r="G103">
         <v>107729000</v>
@@ -5528,13 +5528,13 @@
         <v>4025100</v>
       </c>
       <c r="I103">
-        <v>79046829000</v>
+        <v>76857021000</v>
       </c>
       <c r="J103" t="str">
         <v>2023-01-03T13:54:00.000Z</v>
       </c>
       <c r="K103">
-        <v>6425524208000</v>
+        <v>5952701004500</v>
       </c>
       <c r="L103">
         <v>390033400</v>
@@ -5543,13 +5543,13 @@
         <v>874100</v>
       </c>
       <c r="N103">
-        <v>18827332000</v>
+        <v>17568991600</v>
       </c>
       <c r="O103">
         <v>88259600</v>
       </c>
       <c r="P103">
-        <v>1657226678000</v>
+        <v>1491891878300</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>18400</v>
       </c>
       <c r="E104">
-        <v>32304350000</v>
+        <v>31286668700</v>
       </c>
       <c r="F104">
-        <v>33240949000</v>
+        <v>27551644000</v>
       </c>
       <c r="G104">
         <v>383150000</v>
@@ -5578,13 +5578,13 @@
         <v>3814400</v>
       </c>
       <c r="I104">
-        <v>65928449000</v>
+        <v>59221462700</v>
       </c>
       <c r="J104" t="str">
         <v>2023-01-03T13:56:00.000Z</v>
       </c>
       <c r="K104">
-        <v>6491452657000</v>
+        <v>6011922467200</v>
       </c>
       <c r="L104">
         <v>393847800</v>
@@ -5593,13 +5593,13 @@
         <v>-40800</v>
       </c>
       <c r="N104">
-        <v>936599000</v>
+        <v>-3735024700</v>
       </c>
       <c r="O104">
         <v>88218800</v>
       </c>
       <c r="P104">
-        <v>1658163277000</v>
+        <v>1488156853600</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>13400</v>
       </c>
       <c r="E105">
-        <v>49340323000</v>
+        <v>47631933100</v>
       </c>
       <c r="F105">
-        <v>28569289000</v>
+        <v>27828530500</v>
       </c>
       <c r="G105">
         <v>177630000</v>
@@ -5628,13 +5628,13 @@
         <v>4022400</v>
       </c>
       <c r="I105">
-        <v>78087242000</v>
+        <v>75638093600</v>
       </c>
       <c r="J105" t="str">
         <v>2023-01-03T13:58:00.000Z</v>
       </c>
       <c r="K105">
-        <v>6569539899000</v>
+        <v>6087560560800</v>
       </c>
       <c r="L105">
         <v>397870200</v>
@@ -5643,13 +5643,13 @@
         <v>-1212000</v>
       </c>
       <c r="N105">
-        <v>-20771034000</v>
+        <v>-19803402600</v>
       </c>
       <c r="O105">
         <v>87006800</v>
       </c>
       <c r="P105">
-        <v>1637392243000</v>
+        <v>1468353451000</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>29300</v>
       </c>
       <c r="E106">
-        <v>32294610000</v>
+        <v>31273931700</v>
       </c>
       <c r="F106">
-        <v>37493460000</v>
+        <v>34322334300</v>
       </c>
       <c r="G106">
         <v>318946000</v>
@@ -5678,13 +5678,13 @@
         <v>3290400</v>
       </c>
       <c r="I106">
-        <v>70107016000</v>
+        <v>65915212000</v>
       </c>
       <c r="J106" t="str">
         <v>2023-01-03T14:00:00.000Z</v>
       </c>
       <c r="K106">
-        <v>6639646915000</v>
+        <v>6153475772800</v>
       </c>
       <c r="L106">
         <v>401160600</v>
@@ -5693,13 +5693,13 @@
         <v>-94300</v>
       </c>
       <c r="N106">
-        <v>5198850000</v>
+        <v>3048402600</v>
       </c>
       <c r="O106">
         <v>86912500</v>
       </c>
       <c r="P106">
-        <v>1642591093000</v>
+        <v>1471401853600</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>7000</v>
       </c>
       <c r="E107">
-        <v>25928802000</v>
+        <v>25301430000</v>
       </c>
       <c r="F107">
-        <v>37282711000</v>
+        <v>33337060600</v>
       </c>
       <c r="G107">
         <v>103936000</v>
@@ -5728,13 +5728,13 @@
         <v>3231100</v>
       </c>
       <c r="I107">
-        <v>63315449000</v>
+        <v>58742426600</v>
       </c>
       <c r="J107" t="str">
         <v>2023-01-03T14:02:00.000Z</v>
       </c>
       <c r="K107">
-        <v>6702962364000</v>
+        <v>6212218199400</v>
       </c>
       <c r="L107">
         <v>404391700</v>
@@ -5743,13 +5743,13 @@
         <v>334500</v>
       </c>
       <c r="N107">
-        <v>11353909000</v>
+        <v>8035630600</v>
       </c>
       <c r="O107">
         <v>87247000</v>
       </c>
       <c r="P107">
-        <v>1653945002000</v>
+        <v>1479437484200</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>21200</v>
       </c>
       <c r="E108">
-        <v>22599017000</v>
+        <v>22513202900</v>
       </c>
       <c r="F108">
-        <v>39519818000</v>
+        <v>32895648800</v>
       </c>
       <c r="G108">
-        <v>438623000</v>
+        <v>381680000</v>
       </c>
       <c r="H108">
         <v>3030100</v>
       </c>
       <c r="I108">
-        <v>62557458000</v>
+        <v>55790531700</v>
       </c>
       <c r="J108" t="str">
         <v>2023-01-03T14:04:00.000Z</v>
       </c>
       <c r="K108">
-        <v>6765519822000</v>
+        <v>6268008731100</v>
       </c>
       <c r="L108">
         <v>407421800</v>
@@ -5793,13 +5793,13 @@
         <v>535100</v>
       </c>
       <c r="N108">
-        <v>16920801000</v>
+        <v>10382445900</v>
       </c>
       <c r="O108">
         <v>87782100</v>
       </c>
       <c r="P108">
-        <v>1670865803000</v>
+        <v>1489819930100</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>9300</v>
       </c>
       <c r="E109">
-        <v>28690476000</v>
+        <v>28099767300</v>
       </c>
       <c r="F109">
-        <v>44189567000</v>
+        <v>37733329700</v>
       </c>
       <c r="G109">
-        <v>422715000</v>
+        <v>187750200</v>
       </c>
       <c r="H109">
         <v>3915900</v>
       </c>
       <c r="I109">
-        <v>73302758000</v>
+        <v>66020847200</v>
       </c>
       <c r="J109" t="str">
         <v>2023-01-03T14:06:00.000Z</v>
       </c>
       <c r="K109">
-        <v>6838822580000</v>
+        <v>6334029578300</v>
       </c>
       <c r="L109">
         <v>411337700</v>
@@ -5843,13 +5843,13 @@
         <v>702200</v>
       </c>
       <c r="N109">
-        <v>15499091000</v>
+        <v>9633562400</v>
       </c>
       <c r="O109">
         <v>88484300</v>
       </c>
       <c r="P109">
-        <v>1686364894000</v>
+        <v>1499453492500</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>22800</v>
       </c>
       <c r="E110">
-        <v>32539265000</v>
+        <v>31762043000</v>
       </c>
       <c r="F110">
-        <v>47643080000</v>
+        <v>44310715700</v>
       </c>
       <c r="G110">
         <v>261841000</v>
@@ -5878,13 +5878,13 @@
         <v>4974600</v>
       </c>
       <c r="I110">
-        <v>80444186000</v>
+        <v>76334599700</v>
       </c>
       <c r="J110" t="str">
         <v>2023-01-03T14:08:00.000Z</v>
       </c>
       <c r="K110">
-        <v>6919266766000</v>
+        <v>6410364178000</v>
       </c>
       <c r="L110">
         <v>416312300</v>
@@ -5893,13 +5893,13 @@
         <v>1563200</v>
       </c>
       <c r="N110">
-        <v>15103815000</v>
+        <v>12548672700</v>
       </c>
       <c r="O110">
         <v>90047500</v>
       </c>
       <c r="P110">
-        <v>1701468709000</v>
+        <v>1512002165200</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>24300</v>
       </c>
       <c r="E111">
-        <v>30077146000</v>
+        <v>29190733300</v>
       </c>
       <c r="F111">
-        <v>49340743000</v>
+        <v>47363322400</v>
       </c>
       <c r="G111">
-        <v>272376000</v>
+        <v>240607800</v>
       </c>
       <c r="H111">
         <v>4460200</v>
       </c>
       <c r="I111">
-        <v>79690265000</v>
+        <v>76794663500</v>
       </c>
       <c r="J111" t="str">
         <v>2023-01-03T14:10:00.000Z</v>
       </c>
       <c r="K111">
-        <v>6998957031000</v>
+        <v>6487158841500</v>
       </c>
       <c r="L111">
         <v>420772500</v>
@@ -5943,13 +5943,13 @@
         <v>1517100</v>
       </c>
       <c r="N111">
-        <v>19263597000</v>
+        <v>18172589100</v>
       </c>
       <c r="O111">
         <v>91564600</v>
       </c>
       <c r="P111">
-        <v>1720732306000</v>
+        <v>1530174754300</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>14100</v>
       </c>
       <c r="E112">
-        <v>31826063000</v>
+        <v>29312179400</v>
       </c>
       <c r="F112">
-        <v>65736938000</v>
+        <v>58690691300</v>
       </c>
       <c r="G112">
         <v>366825000</v>
@@ -5978,13 +5978,13 @@
         <v>5496700</v>
       </c>
       <c r="I112">
-        <v>97929826000</v>
+        <v>88369695700</v>
       </c>
       <c r="J112" t="str">
         <v>2023-01-03T14:12:00.000Z</v>
       </c>
       <c r="K112">
-        <v>7096886857000</v>
+        <v>6575528537200</v>
       </c>
       <c r="L112">
         <v>426269200</v>
@@ -5993,13 +5993,13 @@
         <v>1849600</v>
       </c>
       <c r="N112">
-        <v>33910875000</v>
+        <v>29378511900</v>
       </c>
       <c r="O112">
         <v>93414200</v>
       </c>
       <c r="P112">
-        <v>1754643181000</v>
+        <v>1559553266200</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>17400</v>
       </c>
       <c r="E113">
-        <v>50354728000</v>
+        <v>46145141800</v>
       </c>
       <c r="F113">
-        <v>49225045000</v>
+        <v>46509463300</v>
       </c>
       <c r="G113">
-        <v>252338000</v>
+        <v>207283100</v>
       </c>
       <c r="H113">
         <v>6910800</v>
       </c>
       <c r="I113">
-        <v>99832111000</v>
+        <v>92861888200</v>
       </c>
       <c r="J113" t="str">
         <v>2023-01-03T14:14:00.000Z</v>
       </c>
       <c r="K113">
-        <v>7196718968000</v>
+        <v>6668390425400</v>
       </c>
       <c r="L113">
         <v>433180000</v>
@@ -6043,13 +6043,13 @@
         <v>1249600</v>
       </c>
       <c r="N113">
-        <v>-1129683000</v>
+        <v>364321500</v>
       </c>
       <c r="O113">
         <v>94663800</v>
       </c>
       <c r="P113">
-        <v>1753513498000</v>
+        <v>1559917587700</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>12300</v>
       </c>
       <c r="E114">
-        <v>55020408000</v>
+        <v>52583047800</v>
       </c>
       <c r="F114">
-        <v>49392560000</v>
+        <v>46730125100</v>
       </c>
       <c r="G114">
         <v>290795000</v>
@@ -6078,13 +6078,13 @@
         <v>5413600</v>
       </c>
       <c r="I114">
-        <v>104703763000</v>
+        <v>99603967900</v>
       </c>
       <c r="J114" t="str">
         <v>2023-01-03T14:16:00.000Z</v>
       </c>
       <c r="K114">
-        <v>7301422731000</v>
+        <v>6767994393300</v>
       </c>
       <c r="L114">
         <v>438593600</v>
@@ -6093,13 +6093,13 @@
         <v>-282700</v>
       </c>
       <c r="N114">
-        <v>-5627848000</v>
+        <v>-5852922700</v>
       </c>
       <c r="O114">
         <v>94381100</v>
       </c>
       <c r="P114">
-        <v>1747885650000</v>
+        <v>1554064665000</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>9700</v>
       </c>
       <c r="E115">
-        <v>29527930000</v>
+        <v>26863696900</v>
       </c>
       <c r="F115">
-        <v>35494332000</v>
+        <v>32473755600</v>
       </c>
       <c r="G115">
         <v>156665000</v>
@@ -6128,13 +6128,13 @@
         <v>3746700</v>
       </c>
       <c r="I115">
-        <v>65178927000</v>
+        <v>59494117500</v>
       </c>
       <c r="J115" t="str">
         <v>2023-01-03T14:18:00.000Z</v>
       </c>
       <c r="K115">
-        <v>7366601658000</v>
+        <v>6827488510800</v>
       </c>
       <c r="L115">
         <v>442340300</v>
@@ -6143,13 +6143,13 @@
         <v>291600</v>
       </c>
       <c r="N115">
-        <v>5966402000</v>
+        <v>5610058700</v>
       </c>
       <c r="O115">
         <v>94672700</v>
       </c>
       <c r="P115">
-        <v>1753852052000</v>
+        <v>1559674723700</v>
       </c>
     </row>
     <row r="116">
@@ -6166,10 +6166,10 @@
         <v>12100</v>
       </c>
       <c r="E116">
-        <v>24216734000</v>
+        <v>22952000000</v>
       </c>
       <c r="F116">
-        <v>36910016000</v>
+        <v>36033992900</v>
       </c>
       <c r="G116">
         <v>187568000</v>
@@ -6178,13 +6178,13 @@
         <v>3698700</v>
       </c>
       <c r="I116">
-        <v>61314318000</v>
+        <v>59173560900</v>
       </c>
       <c r="J116" t="str">
         <v>2023-01-03T14:20:00.000Z</v>
       </c>
       <c r="K116">
-        <v>7427915976000</v>
+        <v>6886662071700</v>
       </c>
       <c r="L116">
         <v>446039000</v>
@@ -6193,13 +6193,13 @@
         <v>852200</v>
       </c>
       <c r="N116">
-        <v>12693282000</v>
+        <v>13081992900</v>
       </c>
       <c r="O116">
         <v>95524900</v>
       </c>
       <c r="P116">
-        <v>1766545334000</v>
+        <v>1572756716600</v>
       </c>
     </row>
     <row r="117">
@@ -6216,10 +6216,10 @@
         <v>10000</v>
       </c>
       <c r="E117">
-        <v>41052249000</v>
+        <v>39537765000</v>
       </c>
       <c r="F117">
-        <v>34644398000</v>
+        <v>31660185200</v>
       </c>
       <c r="G117">
         <v>141098000</v>
@@ -6228,13 +6228,13 @@
         <v>4924100</v>
       </c>
       <c r="I117">
-        <v>75837745000</v>
+        <v>71339048200</v>
       </c>
       <c r="J117" t="str">
         <v>2023-01-03T14:22:00.000Z</v>
       </c>
       <c r="K117">
-        <v>7503753721000</v>
+        <v>6958001119900</v>
       </c>
       <c r="L117">
         <v>450963100</v>
@@ -6243,13 +6243,13 @@
         <v>-1467100</v>
       </c>
       <c r="N117">
-        <v>-6407851000</v>
+        <v>-7877579800</v>
       </c>
       <c r="O117">
         <v>94057800</v>
       </c>
       <c r="P117">
-        <v>1760137483000</v>
+        <v>1564879136800</v>
       </c>
     </row>
     <row r="118">
@@ -6266,10 +6266,10 @@
         <v>21500</v>
       </c>
       <c r="E118">
-        <v>23865427000</v>
+        <v>23132860300</v>
       </c>
       <c r="F118">
-        <v>37723153000</v>
+        <v>35618160100</v>
       </c>
       <c r="G118">
         <v>850137000</v>
@@ -6278,13 +6278,13 @@
         <v>3782800</v>
       </c>
       <c r="I118">
-        <v>62438717000</v>
+        <v>59601157400</v>
       </c>
       <c r="J118" t="str">
         <v>2023-01-03T14:24:00.000Z</v>
       </c>
       <c r="K118">
-        <v>7566192438000</v>
+        <v>7017602277300</v>
       </c>
       <c r="L118">
         <v>454745900</v>
@@ -6293,13 +6293,13 @@
         <v>637900</v>
       </c>
       <c r="N118">
-        <v>13857726000</v>
+        <v>12485299800</v>
       </c>
       <c r="O118">
         <v>94695700</v>
       </c>
       <c r="P118">
-        <v>1773995209000</v>
+        <v>1577364436600</v>
       </c>
     </row>
     <row r="119">
@@ -6316,25 +6316,25 @@
         <v>31200</v>
       </c>
       <c r="E119">
-        <v>31548083000</v>
+        <v>30648783200</v>
       </c>
       <c r="F119">
-        <v>84862132000</v>
+        <v>76162340500</v>
       </c>
       <c r="G119">
-        <v>806770000</v>
+        <v>666510400</v>
       </c>
       <c r="H119">
         <v>6491000</v>
       </c>
       <c r="I119">
-        <v>117216985000</v>
+        <v>107477634100</v>
       </c>
       <c r="J119" t="str">
         <v>2023-01-03T14:26:00.000Z</v>
       </c>
       <c r="K119">
-        <v>7683409423000</v>
+        <v>7125079911400</v>
       </c>
       <c r="L119">
         <v>461236900</v>
@@ -6343,13 +6343,13 @@
         <v>1922600</v>
       </c>
       <c r="N119">
-        <v>53314049000</v>
+        <v>45513557300</v>
       </c>
       <c r="O119">
         <v>96618300</v>
       </c>
       <c r="P119">
-        <v>1827309258000</v>
+        <v>1622877993900</v>
       </c>
     </row>
     <row r="120">
@@ -6366,25 +6366,25 @@
         <v>12500</v>
       </c>
       <c r="E120">
-        <v>28963772000</v>
+        <v>27753483500</v>
       </c>
       <c r="F120">
-        <v>105377816000</v>
+        <v>88890719600</v>
       </c>
       <c r="G120">
-        <v>261733000</v>
+        <v>259535200</v>
       </c>
       <c r="H120">
         <v>7406600</v>
       </c>
       <c r="I120">
-        <v>134603321000</v>
+        <v>116903738300</v>
       </c>
       <c r="J120" t="str">
         <v>2023-01-03T14:28:00.000Z</v>
       </c>
       <c r="K120">
-        <v>7818012744000</v>
+        <v>7241983649700</v>
       </c>
       <c r="L120">
         <v>468643500</v>
@@ -6393,13 +6393,13 @@
         <v>3157700</v>
       </c>
       <c r="N120">
-        <v>76414044000</v>
+        <v>61137236100</v>
       </c>
       <c r="O120">
         <v>99776000</v>
       </c>
       <c r="P120">
-        <v>1903723302000</v>
+        <v>1684015230000</v>
       </c>
     </row>
     <row r="121">
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>6500000</v>
+        <v>6500</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -6428,13 +6428,13 @@
         <v>500</v>
       </c>
       <c r="I121">
-        <v>6500000</v>
+        <v>6500</v>
       </c>
       <c r="J121" t="str">
         <v>2023-01-03T14:30:00.000Z</v>
       </c>
       <c r="K121">
-        <v>7818019244000</v>
+        <v>7241983656200</v>
       </c>
       <c r="L121">
         <v>468644000</v>
@@ -6443,13 +6443,13 @@
         <v>500</v>
       </c>
       <c r="N121">
-        <v>6500000</v>
+        <v>6500</v>
       </c>
       <c r="O121">
         <v>99776500</v>
       </c>
       <c r="P121">
-        <v>1903729802000</v>
+        <v>1684015236500</v>
       </c>
     </row>
     <row r="122">
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1300000</v>
+        <v>1300</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -6478,13 +6478,13 @@
         <v>100</v>
       </c>
       <c r="I122">
-        <v>1300000</v>
+        <v>1300</v>
       </c>
       <c r="J122" t="str">
         <v>2023-01-03T14:40:00.000Z</v>
       </c>
       <c r="K122">
-        <v>7818020544000</v>
+        <v>7241983657500</v>
       </c>
       <c r="L122">
         <v>468644100</v>
@@ -6493,13 +6493,13 @@
         <v>100</v>
       </c>
       <c r="N122">
-        <v>1300000</v>
+        <v>1300</v>
       </c>
       <c r="O122">
         <v>99776600</v>
       </c>
       <c r="P122">
-        <v>1903731102000</v>
+        <v>1684015237800</v>
       </c>
     </row>
     <row r="123">
@@ -6516,25 +6516,25 @@
         <v>15972400</v>
       </c>
       <c r="E123">
-        <v>37354459000</v>
+        <v>33209408200</v>
       </c>
       <c r="F123">
-        <v>145408105000</v>
+        <v>109965682900</v>
       </c>
       <c r="G123">
-        <v>334559934000</v>
+        <v>292673762100</v>
       </c>
       <c r="H123">
         <v>25600500</v>
       </c>
       <c r="I123">
-        <v>517322498000</v>
+        <v>435848853200</v>
       </c>
       <c r="J123" t="str">
         <v>2023-01-03T14:44:00.000Z</v>
       </c>
       <c r="K123">
-        <v>8335343042000</v>
+        <v>7677832510700</v>
       </c>
       <c r="L123">
         <v>494244600</v>
@@ -6543,13 +6543,13 @@
         <v>5270700</v>
       </c>
       <c r="N123">
-        <v>108053646000</v>
+        <v>76756274700</v>
       </c>
       <c r="O123">
         <v>105047300</v>
       </c>
       <c r="P123">
-        <v>2011784748000</v>
+        <v>1760771512500</v>
       </c>
     </row>
     <row r="124">
@@ -6584,7 +6584,7 @@
         <v>2023-01-03T14:50:00.000Z</v>
       </c>
       <c r="K124">
-        <v>8335346972000</v>
+        <v>7677836440700</v>
       </c>
       <c r="L124">
         <v>494244900</v>
@@ -6599,7 +6599,7 @@
         <v>105047600</v>
       </c>
       <c r="P124">
-        <v>2011788678000</v>
+        <v>1760775442500</v>
       </c>
     </row>
     <row r="125">
@@ -6634,7 +6634,7 @@
         <v>2023-01-03T14:52:00.000Z</v>
       </c>
       <c r="K125">
-        <v>8335366622000</v>
+        <v>7677856090700</v>
       </c>
       <c r="L125">
         <v>494246400</v>
@@ -6649,7 +6649,7 @@
         <v>105049100</v>
       </c>
       <c r="P125">
-        <v>2011808328000</v>
+        <v>1760795092500</v>
       </c>
     </row>
     <row r="126">
@@ -6666,10 +6666,10 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>1300000</v>
+        <v>1300</v>
       </c>
       <c r="F126">
-        <v>30100000</v>
+        <v>26203900</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -6678,13 +6678,13 @@
         <v>2400</v>
       </c>
       <c r="I126">
-        <v>31400000</v>
+        <v>26205200</v>
       </c>
       <c r="J126" t="str">
         <v>2023-01-03T14:58:00.000Z</v>
       </c>
       <c r="K126">
-        <v>8335398022000</v>
+        <v>7677882295900</v>
       </c>
       <c r="L126">
         <v>494248800</v>
@@ -6693,13 +6693,13 @@
         <v>2200</v>
       </c>
       <c r="N126">
-        <v>28800000</v>
+        <v>26202600</v>
       </c>
       <c r="O126">
         <v>105051300</v>
       </c>
       <c r="P126">
-        <v>2011837128000</v>
+        <v>1760821295100</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230103/VNINDEX_HOSE_5p_20230103.xlsx
+++ b/name/vnindex/20230103/VNINDEX_HOSE_5p_20230103.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P126"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>9110000</v>
       </c>
+      <c r="Q2">
+        <v>46610000</v>
+      </c>
+      <c r="R2">
+        <v>37500000</v>
+      </c>
+      <c r="S2">
+        <v>3600</v>
+      </c>
+      <c r="T2">
+        <v>3000</v>
+      </c>
+      <c r="U2">
+        <v>36339165152</v>
+      </c>
+      <c r="V2">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W2">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X2">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y2">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z2">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA2">
+        <v>840410.4</v>
+      </c>
+      <c r="AB2">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>7830000</v>
       </c>
+      <c r="Q3">
+        <v>46610000</v>
+      </c>
+      <c r="R3">
+        <v>38780000</v>
+      </c>
+      <c r="S3">
+        <v>3600</v>
+      </c>
+      <c r="T3">
+        <v>3100</v>
+      </c>
+      <c r="U3">
+        <v>36339165152</v>
+      </c>
+      <c r="V3">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W3">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X3">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y3">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z3">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA3">
+        <v>840410.4</v>
+      </c>
+      <c r="AB3">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>12950000</v>
       </c>
+      <c r="Q4">
+        <v>51730000</v>
+      </c>
+      <c r="R4">
+        <v>38780000</v>
+      </c>
+      <c r="S4">
+        <v>4000</v>
+      </c>
+      <c r="T4">
+        <v>3100</v>
+      </c>
+      <c r="U4">
+        <v>36339165152</v>
+      </c>
+      <c r="V4">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W4">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X4">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y4">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z4">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA4">
+        <v>840410.4</v>
+      </c>
+      <c r="AB4">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>12950000</v>
       </c>
+      <c r="Q5">
+        <v>51730000</v>
+      </c>
+      <c r="R5">
+        <v>38780000</v>
+      </c>
+      <c r="S5">
+        <v>4000</v>
+      </c>
+      <c r="T5">
+        <v>3100</v>
+      </c>
+      <c r="U5">
+        <v>36339165152</v>
+      </c>
+      <c r="V5">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W5">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X5">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y5">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z5">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA5">
+        <v>840410.4</v>
+      </c>
+      <c r="AB5">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-21770000</v>
       </c>
+      <c r="Q6">
+        <v>51730000</v>
+      </c>
+      <c r="R6">
+        <v>73500000</v>
+      </c>
+      <c r="S6">
+        <v>4000</v>
+      </c>
+      <c r="T6">
+        <v>5900</v>
+      </c>
+      <c r="U6">
+        <v>36339165152</v>
+      </c>
+      <c r="V6">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W6">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X6">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y6">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z6">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA6">
+        <v>840410.4</v>
+      </c>
+      <c r="AB6">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-23000000</v>
       </c>
+      <c r="Q7">
+        <v>51730000</v>
+      </c>
+      <c r="R7">
+        <v>74730000</v>
+      </c>
+      <c r="S7">
+        <v>4000</v>
+      </c>
+      <c r="T7">
+        <v>6000</v>
+      </c>
+      <c r="U7">
+        <v>36339165152</v>
+      </c>
+      <c r="V7">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W7">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X7">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y7">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z7">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA7">
+        <v>840410.4</v>
+      </c>
+      <c r="AB7">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-13349715800</v>
       </c>
+      <c r="Q8">
+        <v>27667468800</v>
+      </c>
+      <c r="R8">
+        <v>41017184600</v>
+      </c>
+      <c r="S8">
+        <v>1593400</v>
+      </c>
+      <c r="T8">
+        <v>5786800</v>
+      </c>
+      <c r="U8">
+        <v>36339165152</v>
+      </c>
+      <c r="V8">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W8">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X8">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y8">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z8">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA8">
+        <v>840410.4</v>
+      </c>
+      <c r="AB8">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-2010675100</v>
       </c>
+      <c r="Q9">
+        <v>50168941900</v>
+      </c>
+      <c r="R9">
+        <v>52179617000</v>
+      </c>
+      <c r="S9">
+        <v>3305500</v>
+      </c>
+      <c r="T9">
+        <v>6820300</v>
+      </c>
+      <c r="U9">
+        <v>36339165152</v>
+      </c>
+      <c r="V9">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W9">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X9">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y9">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z9">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA9">
+        <v>840410.4</v>
+      </c>
+      <c r="AB9">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC9">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>8800516400</v>
       </c>
+      <c r="Q10">
+        <v>75031949900</v>
+      </c>
+      <c r="R10">
+        <v>66231433500</v>
+      </c>
+      <c r="S10">
+        <v>5095600</v>
+      </c>
+      <c r="T10">
+        <v>7892800</v>
+      </c>
+      <c r="U10">
+        <v>36339165152</v>
+      </c>
+      <c r="V10">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W10">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X10">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y10">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z10">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA10">
+        <v>840410.4</v>
+      </c>
+      <c r="AB10">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC10">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>17197592600</v>
       </c>
+      <c r="Q11">
+        <v>96828090100</v>
+      </c>
+      <c r="R11">
+        <v>79630497500</v>
+      </c>
+      <c r="S11">
+        <v>6681400</v>
+      </c>
+      <c r="T11">
+        <v>8983300</v>
+      </c>
+      <c r="U11">
+        <v>36339165152</v>
+      </c>
+      <c r="V11">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W11">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X11">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y11">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z11">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA11">
+        <v>840410.4</v>
+      </c>
+      <c r="AB11">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC11">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>21419663300</v>
       </c>
+      <c r="Q12">
+        <v>120799030100</v>
+      </c>
+      <c r="R12">
+        <v>99379366800</v>
+      </c>
+      <c r="S12">
+        <v>8520100</v>
+      </c>
+      <c r="T12">
+        <v>10486600</v>
+      </c>
+      <c r="U12">
+        <v>36339165152</v>
+      </c>
+      <c r="V12">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W12">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X12">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y12">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z12">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA12">
+        <v>840410.4</v>
+      </c>
+      <c r="AB12">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC12">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>26042044700</v>
       </c>
+      <c r="Q13">
+        <v>146201492400</v>
+      </c>
+      <c r="R13">
+        <v>120159447700</v>
+      </c>
+      <c r="S13">
+        <v>10570600</v>
+      </c>
+      <c r="T13">
+        <v>11993900</v>
+      </c>
+      <c r="U13">
+        <v>36339165152</v>
+      </c>
+      <c r="V13">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W13">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X13">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y13">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z13">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA13">
+        <v>840410.4</v>
+      </c>
+      <c r="AB13">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC13">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>23662150100</v>
       </c>
+      <c r="Q14">
+        <v>163124709700</v>
+      </c>
+      <c r="R14">
+        <v>139462559600</v>
+      </c>
+      <c r="S14">
+        <v>11701200</v>
+      </c>
+      <c r="T14">
+        <v>13303700</v>
+      </c>
+      <c r="U14">
+        <v>36339165152</v>
+      </c>
+      <c r="V14">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W14">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X14">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y14">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z14">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA14">
+        <v>840410.4</v>
+      </c>
+      <c r="AB14">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC14">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>34943786100</v>
       </c>
+      <c r="Q15">
+        <v>187702965700</v>
+      </c>
+      <c r="R15">
+        <v>152759179600</v>
+      </c>
+      <c r="S15">
+        <v>13521400</v>
+      </c>
+      <c r="T15">
+        <v>14517000</v>
+      </c>
+      <c r="U15">
+        <v>36339165152</v>
+      </c>
+      <c r="V15">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W15">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X15">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y15">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z15">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA15">
+        <v>840410.4</v>
+      </c>
+      <c r="AB15">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC15">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>46015902600</v>
       </c>
+      <c r="Q16">
+        <v>217827273600</v>
+      </c>
+      <c r="R16">
+        <v>171811371000</v>
+      </c>
+      <c r="S16">
+        <v>16006000</v>
+      </c>
+      <c r="T16">
+        <v>15860900</v>
+      </c>
+      <c r="U16">
+        <v>36339165152</v>
+      </c>
+      <c r="V16">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W16">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X16">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y16">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z16">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA16">
+        <v>840410.4</v>
+      </c>
+      <c r="AB16">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC16">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>66817697200</v>
       </c>
+      <c r="Q17">
+        <v>263277002500</v>
+      </c>
+      <c r="R17">
+        <v>196459305300</v>
+      </c>
+      <c r="S17">
+        <v>19696200</v>
+      </c>
+      <c r="T17">
+        <v>17850200</v>
+      </c>
+      <c r="U17">
+        <v>36339165152</v>
+      </c>
+      <c r="V17">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W17">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X17">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y17">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z17">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA17">
+        <v>840410.4</v>
+      </c>
+      <c r="AB17">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC17">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>102371437500</v>
       </c>
+      <c r="Q18">
+        <v>319748142300</v>
+      </c>
+      <c r="R18">
+        <v>217376704800</v>
+      </c>
+      <c r="S18">
+        <v>24059100</v>
+      </c>
+      <c r="T18">
+        <v>19406100</v>
+      </c>
+      <c r="U18">
+        <v>36339165152</v>
+      </c>
+      <c r="V18">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W18">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X18">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y18">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z18">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA18">
+        <v>840410.4</v>
+      </c>
+      <c r="AB18">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC18">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>165250926100</v>
       </c>
+      <c r="Q19">
+        <v>400654034200</v>
+      </c>
+      <c r="R19">
+        <v>235403108100</v>
+      </c>
+      <c r="S19">
+        <v>30147100</v>
+      </c>
+      <c r="T19">
+        <v>20966300</v>
+      </c>
+      <c r="U19">
+        <v>36339165152</v>
+      </c>
+      <c r="V19">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W19">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X19">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y19">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z19">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA19">
+        <v>840410.4</v>
+      </c>
+      <c r="AB19">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC19">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>210899518400</v>
       </c>
+      <c r="Q20">
+        <v>471212502400</v>
+      </c>
+      <c r="R20">
+        <v>260312984000</v>
+      </c>
+      <c r="S20">
+        <v>35576200</v>
+      </c>
+      <c r="T20">
+        <v>22810600</v>
+      </c>
+      <c r="U20">
+        <v>36339165152</v>
+      </c>
+      <c r="V20">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W20">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X20">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y20">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z20">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA20">
+        <v>840410.4</v>
+      </c>
+      <c r="AB20">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC20">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>235026110300</v>
       </c>
+      <c r="Q21">
+        <v>524041535100</v>
+      </c>
+      <c r="R21">
+        <v>289015424800</v>
+      </c>
+      <c r="S21">
+        <v>39672700</v>
+      </c>
+      <c r="T21">
+        <v>25054700</v>
+      </c>
+      <c r="U21">
+        <v>36339165152</v>
+      </c>
+      <c r="V21">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W21">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X21">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y21">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z21">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA21">
+        <v>840410.4</v>
+      </c>
+      <c r="AB21">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC21">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>268487073700</v>
       </c>
+      <c r="Q22">
+        <v>576805906600</v>
+      </c>
+      <c r="R22">
+        <v>308318832900</v>
+      </c>
+      <c r="S22">
+        <v>43440100</v>
+      </c>
+      <c r="T22">
+        <v>26418700</v>
+      </c>
+      <c r="U22">
+        <v>36339165152</v>
+      </c>
+      <c r="V22">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W22">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X22">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y22">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z22">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA22">
+        <v>840410.4</v>
+      </c>
+      <c r="AB22">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC22">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>285801312400</v>
       </c>
+      <c r="Q23">
+        <v>622027801500</v>
+      </c>
+      <c r="R23">
+        <v>336226489100</v>
+      </c>
+      <c r="S23">
+        <v>46706600</v>
+      </c>
+      <c r="T23">
+        <v>28400300</v>
+      </c>
+      <c r="U23">
+        <v>36339165152</v>
+      </c>
+      <c r="V23">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W23">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X23">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y23">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z23">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA23">
+        <v>840410.4</v>
+      </c>
+      <c r="AB23">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC23">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>308732769400</v>
       </c>
+      <c r="Q24">
+        <v>663094809400</v>
+      </c>
+      <c r="R24">
+        <v>354362040000</v>
+      </c>
+      <c r="S24">
+        <v>50162300</v>
+      </c>
+      <c r="T24">
+        <v>29875800</v>
+      </c>
+      <c r="U24">
+        <v>36339165152</v>
+      </c>
+      <c r="V24">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W24">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X24">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y24">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z24">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA24">
+        <v>840410.4</v>
+      </c>
+      <c r="AB24">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC24">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>340131621900</v>
       </c>
+      <c r="Q25">
+        <v>714610712300</v>
+      </c>
+      <c r="R25">
+        <v>374479090400</v>
+      </c>
+      <c r="S25">
+        <v>54054500</v>
+      </c>
+      <c r="T25">
+        <v>31370200</v>
+      </c>
+      <c r="U25">
+        <v>36339165152</v>
+      </c>
+      <c r="V25">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W25">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X25">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y25">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z25">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA25">
+        <v>840410.4</v>
+      </c>
+      <c r="AB25">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC25">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>392381584700</v>
       </c>
+      <c r="Q26">
+        <v>795085308900</v>
+      </c>
+      <c r="R26">
+        <v>402703724200</v>
+      </c>
+      <c r="S26">
+        <v>59657200</v>
+      </c>
+      <c r="T26">
+        <v>33298600</v>
+      </c>
+      <c r="U26">
+        <v>36339165152</v>
+      </c>
+      <c r="V26">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W26">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X26">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y26">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z26">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA26">
+        <v>840410.4</v>
+      </c>
+      <c r="AB26">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC26">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>444271565100</v>
       </c>
+      <c r="Q27">
+        <v>871488524500</v>
+      </c>
+      <c r="R27">
+        <v>427216959400</v>
+      </c>
+      <c r="S27">
+        <v>64980800</v>
+      </c>
+      <c r="T27">
+        <v>34990600</v>
+      </c>
+      <c r="U27">
+        <v>36339165152</v>
+      </c>
+      <c r="V27">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W27">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X27">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y27">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z27">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA27">
+        <v>840410.4</v>
+      </c>
+      <c r="AB27">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC27">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>459776659300</v>
       </c>
+      <c r="Q28">
+        <v>925030338700</v>
+      </c>
+      <c r="R28">
+        <v>465253679400</v>
+      </c>
+      <c r="S28">
+        <v>68781500</v>
+      </c>
+      <c r="T28">
+        <v>37588200</v>
+      </c>
+      <c r="U28">
+        <v>36339165152</v>
+      </c>
+      <c r="V28">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W28">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X28">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y28">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z28">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA28">
+        <v>840410.4</v>
+      </c>
+      <c r="AB28">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC28">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>497275020100</v>
       </c>
+      <c r="Q29">
+        <v>992802374300</v>
+      </c>
+      <c r="R29">
+        <v>495527354200</v>
+      </c>
+      <c r="S29">
+        <v>73410500</v>
+      </c>
+      <c r="T29">
+        <v>39613100</v>
+      </c>
+      <c r="U29">
+        <v>36339165152</v>
+      </c>
+      <c r="V29">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W29">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X29">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y29">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z29">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA29">
+        <v>840410.4</v>
+      </c>
+      <c r="AB29">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC29">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>533488874700</v>
       </c>
+      <c r="Q30">
+        <v>1056877177400</v>
+      </c>
+      <c r="R30">
+        <v>523388302700</v>
+      </c>
+      <c r="S30">
+        <v>77750300</v>
+      </c>
+      <c r="T30">
+        <v>41483100</v>
+      </c>
+      <c r="U30">
+        <v>36339165152</v>
+      </c>
+      <c r="V30">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W30">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X30">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y30">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z30">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA30">
+        <v>840410.4</v>
+      </c>
+      <c r="AB30">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC30">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>547015235200</v>
       </c>
+      <c r="Q31">
+        <v>1099245678500</v>
+      </c>
+      <c r="R31">
+        <v>552230443300</v>
+      </c>
+      <c r="S31">
+        <v>80572700</v>
+      </c>
+      <c r="T31">
+        <v>43517500</v>
+      </c>
+      <c r="U31">
+        <v>36339165152</v>
+      </c>
+      <c r="V31">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W31">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X31">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y31">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z31">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA31">
+        <v>840410.4</v>
+      </c>
+      <c r="AB31">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>556978015400</v>
       </c>
+      <c r="Q32">
+        <v>1135798651600</v>
+      </c>
+      <c r="R32">
+        <v>578820636200</v>
+      </c>
+      <c r="S32">
+        <v>83205900</v>
+      </c>
+      <c r="T32">
+        <v>45607100</v>
+      </c>
+      <c r="U32">
+        <v>36339165152</v>
+      </c>
+      <c r="V32">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W32">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X32">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y32">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z32">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA32">
+        <v>840410.4</v>
+      </c>
+      <c r="AB32">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC32">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>547131013900</v>
       </c>
+      <c r="Q33">
+        <v>1163261652100</v>
+      </c>
+      <c r="R33">
+        <v>616130638200</v>
+      </c>
+      <c r="S33">
+        <v>84957100</v>
+      </c>
+      <c r="T33">
+        <v>48113900</v>
+      </c>
+      <c r="U33">
+        <v>36339165152</v>
+      </c>
+      <c r="V33">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W33">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X33">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y33">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z33">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA33">
+        <v>840410.4</v>
+      </c>
+      <c r="AB33">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC33">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>541769828300</v>
       </c>
+      <c r="Q34">
+        <v>1191597643300</v>
+      </c>
+      <c r="R34">
+        <v>649827815000</v>
+      </c>
+      <c r="S34">
+        <v>86937700</v>
+      </c>
+      <c r="T34">
+        <v>50501800</v>
+      </c>
+      <c r="U34">
+        <v>36339165152</v>
+      </c>
+      <c r="V34">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W34">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X34">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y34">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z34">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA34">
+        <v>840410.4</v>
+      </c>
+      <c r="AB34">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC34">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>500416839900</v>
       </c>
+      <c r="Q35">
+        <v>1211724299400</v>
+      </c>
+      <c r="R35">
+        <v>711307459500</v>
+      </c>
+      <c r="S35">
+        <v>88218000</v>
+      </c>
+      <c r="T35">
+        <v>55008100</v>
+      </c>
+      <c r="U35">
+        <v>36339165152</v>
+      </c>
+      <c r="V35">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W35">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X35">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y35">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z35">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA35">
+        <v>840410.4</v>
+      </c>
+      <c r="AB35">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC35">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>461860273300</v>
       </c>
+      <c r="Q36">
+        <v>1232273148600</v>
+      </c>
+      <c r="R36">
+        <v>770412875300</v>
+      </c>
+      <c r="S36">
+        <v>89348300</v>
+      </c>
+      <c r="T36">
+        <v>59335200</v>
+      </c>
+      <c r="U36">
+        <v>36339165152</v>
+      </c>
+      <c r="V36">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W36">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X36">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y36">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z36">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA36">
+        <v>840410.4</v>
+      </c>
+      <c r="AB36">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC36">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>443250309700</v>
       </c>
+      <c r="Q37">
+        <v>1249929657400</v>
+      </c>
+      <c r="R37">
+        <v>806679347700</v>
+      </c>
+      <c r="S37">
+        <v>90350600</v>
+      </c>
+      <c r="T37">
+        <v>61734800</v>
+      </c>
+      <c r="U37">
+        <v>36339165152</v>
+      </c>
+      <c r="V37">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W37">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X37">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y37">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z37">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA37">
+        <v>840410.4</v>
+      </c>
+      <c r="AB37">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC37">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>447370707100</v>
       </c>
+      <c r="Q38">
+        <v>1274308844200</v>
+      </c>
+      <c r="R38">
+        <v>826938137100</v>
+      </c>
+      <c r="S38">
+        <v>91775500</v>
+      </c>
+      <c r="T38">
+        <v>63021300</v>
+      </c>
+      <c r="U38">
+        <v>36339165152</v>
+      </c>
+      <c r="V38">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W38">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X38">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y38">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z38">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA38">
+        <v>840410.4</v>
+      </c>
+      <c r="AB38">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC38">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>477255077800</v>
       </c>
+      <c r="Q39">
+        <v>1321322379600</v>
+      </c>
+      <c r="R39">
+        <v>844067301800</v>
+      </c>
+      <c r="S39">
+        <v>94973400</v>
+      </c>
+      <c r="T39">
+        <v>64063800</v>
+      </c>
+      <c r="U39">
+        <v>36339165152</v>
+      </c>
+      <c r="V39">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W39">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X39">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y39">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z39">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA39">
+        <v>840410.4</v>
+      </c>
+      <c r="AB39">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC39">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>475971611300</v>
       </c>
+      <c r="Q40">
+        <v>1350395440100</v>
+      </c>
+      <c r="R40">
+        <v>874423828800</v>
+      </c>
+      <c r="S40">
+        <v>97068200</v>
+      </c>
+      <c r="T40">
+        <v>65715600</v>
+      </c>
+      <c r="U40">
+        <v>36339165152</v>
+      </c>
+      <c r="V40">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W40">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X40">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y40">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z40">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA40">
+        <v>840410.4</v>
+      </c>
+      <c r="AB40">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC40">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>477219979100</v>
       </c>
+      <c r="Q41">
+        <v>1368946858000</v>
+      </c>
+      <c r="R41">
+        <v>891726878900</v>
+      </c>
+      <c r="S41">
+        <v>98156300</v>
+      </c>
+      <c r="T41">
+        <v>66819400</v>
+      </c>
+      <c r="U41">
+        <v>36339165152</v>
+      </c>
+      <c r="V41">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W41">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X41">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y41">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z41">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA41">
+        <v>840410.4</v>
+      </c>
+      <c r="AB41">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC41">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>478508193500</v>
       </c>
+      <c r="Q42">
+        <v>1383840682500</v>
+      </c>
+      <c r="R42">
+        <v>905332489000</v>
+      </c>
+      <c r="S42">
+        <v>99013100</v>
+      </c>
+      <c r="T42">
+        <v>67699700</v>
+      </c>
+      <c r="U42">
+        <v>36339165152</v>
+      </c>
+      <c r="V42">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W42">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X42">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y42">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z42">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA42">
+        <v>840410.4</v>
+      </c>
+      <c r="AB42">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC42">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>487394353900</v>
       </c>
+      <c r="Q43">
+        <v>1409170496400</v>
+      </c>
+      <c r="R43">
+        <v>921776142500</v>
+      </c>
+      <c r="S43">
+        <v>100476700</v>
+      </c>
+      <c r="T43">
+        <v>68729000</v>
+      </c>
+      <c r="U43">
+        <v>36339165152</v>
+      </c>
+      <c r="V43">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W43">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X43">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y43">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z43">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA43">
+        <v>840410.4</v>
+      </c>
+      <c r="AB43">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC43">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>498699000700</v>
       </c>
+      <c r="Q44">
+        <v>1433445302000</v>
+      </c>
+      <c r="R44">
+        <v>934746301300</v>
+      </c>
+      <c r="S44">
+        <v>102047300</v>
+      </c>
+      <c r="T44">
+        <v>69562500</v>
+      </c>
+      <c r="U44">
+        <v>36339165152</v>
+      </c>
+      <c r="V44">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W44">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X44">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y44">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z44">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA44">
+        <v>840410.4</v>
+      </c>
+      <c r="AB44">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC44">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>505827706800</v>
       </c>
+      <c r="Q45">
+        <v>1457000122100</v>
+      </c>
+      <c r="R45">
+        <v>951172415300</v>
+      </c>
+      <c r="S45">
+        <v>103568600</v>
+      </c>
+      <c r="T45">
+        <v>70639300</v>
+      </c>
+      <c r="U45">
+        <v>36339165152</v>
+      </c>
+      <c r="V45">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W45">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X45">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y45">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z45">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA45">
+        <v>840410.4</v>
+      </c>
+      <c r="AB45">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC45">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>495975427500</v>
       </c>
+      <c r="Q46">
+        <v>1472634426400</v>
+      </c>
+      <c r="R46">
+        <v>976658998900</v>
+      </c>
+      <c r="S46">
+        <v>104467200</v>
+      </c>
+      <c r="T46">
+        <v>72153600</v>
+      </c>
+      <c r="U46">
+        <v>36339165152</v>
+      </c>
+      <c r="V46">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W46">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X46">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y46">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z46">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA46">
+        <v>840410.4</v>
+      </c>
+      <c r="AB46">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC46">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>465591615100</v>
       </c>
+      <c r="Q47">
+        <v>1483359968200</v>
+      </c>
+      <c r="R47">
+        <v>1017768353100</v>
+      </c>
+      <c r="S47">
+        <v>105121500</v>
+      </c>
+      <c r="T47">
+        <v>74919700</v>
+      </c>
+      <c r="U47">
+        <v>36339165152</v>
+      </c>
+      <c r="V47">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W47">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X47">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y47">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z47">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA47">
+        <v>840410.4</v>
+      </c>
+      <c r="AB47">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC47">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>471258519200</v>
       </c>
+      <c r="Q48">
+        <v>1500171870000</v>
+      </c>
+      <c r="R48">
+        <v>1028913350800</v>
+      </c>
+      <c r="S48">
+        <v>106010000</v>
+      </c>
+      <c r="T48">
+        <v>75764500</v>
+      </c>
+      <c r="U48">
+        <v>36339165152</v>
+      </c>
+      <c r="V48">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W48">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X48">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y48">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z48">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA48">
+        <v>840410.4</v>
+      </c>
+      <c r="AB48">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC48">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>469865498000</v>
       </c>
+      <c r="Q49">
+        <v>1511502555900</v>
+      </c>
+      <c r="R49">
+        <v>1041637057900</v>
+      </c>
+      <c r="S49">
+        <v>106703500</v>
+      </c>
+      <c r="T49">
+        <v>76534000</v>
+      </c>
+      <c r="U49">
+        <v>36339165152</v>
+      </c>
+      <c r="V49">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W49">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X49">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y49">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z49">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA49">
+        <v>840410.4</v>
+      </c>
+      <c r="AB49">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC49">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>462033499000</v>
       </c>
+      <c r="Q50">
+        <v>1524483977800</v>
+      </c>
+      <c r="R50">
+        <v>1062450478800</v>
+      </c>
+      <c r="S50">
+        <v>107306400</v>
+      </c>
+      <c r="T50">
+        <v>77817400</v>
+      </c>
+      <c r="U50">
+        <v>36339165152</v>
+      </c>
+      <c r="V50">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W50">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X50">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y50">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z50">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA50">
+        <v>840410.4</v>
+      </c>
+      <c r="AB50">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC50">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>459534893200</v>
       </c>
+      <c r="Q51">
+        <v>1535217508400</v>
+      </c>
+      <c r="R51">
+        <v>1075682615200</v>
+      </c>
+      <c r="S51">
+        <v>107920200</v>
+      </c>
+      <c r="T51">
+        <v>78611700</v>
+      </c>
+      <c r="U51">
+        <v>36339165152</v>
+      </c>
+      <c r="V51">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W51">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X51">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y51">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z51">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA51">
+        <v>840410.4</v>
+      </c>
+      <c r="AB51">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC51">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>453898861900</v>
       </c>
+      <c r="Q52">
+        <v>1552756763100</v>
+      </c>
+      <c r="R52">
+        <v>1098857901200</v>
+      </c>
+      <c r="S52">
+        <v>108838900</v>
+      </c>
+      <c r="T52">
+        <v>80324000</v>
+      </c>
+      <c r="U52">
+        <v>36339165152</v>
+      </c>
+      <c r="V52">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W52">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X52">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y52">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z52">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA52">
+        <v>840410.4</v>
+      </c>
+      <c r="AB52">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC52">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>466371411100</v>
       </c>
+      <c r="Q53">
+        <v>1573923761100</v>
+      </c>
+      <c r="R53">
+        <v>1107552350000</v>
+      </c>
+      <c r="S53">
+        <v>109867400</v>
+      </c>
+      <c r="T53">
+        <v>81152000</v>
+      </c>
+      <c r="U53">
+        <v>36339165152</v>
+      </c>
+      <c r="V53">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W53">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X53">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y53">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z53">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA53">
+        <v>840410.4</v>
+      </c>
+      <c r="AB53">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC53">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>473664899500</v>
       </c>
+      <c r="Q54">
+        <v>1599287185600</v>
+      </c>
+      <c r="R54">
+        <v>1125622286100</v>
+      </c>
+      <c r="S54">
+        <v>111688200</v>
+      </c>
+      <c r="T54">
+        <v>82221900</v>
+      </c>
+      <c r="U54">
+        <v>36339165152</v>
+      </c>
+      <c r="V54">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W54">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X54">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y54">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z54">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA54">
+        <v>840410.4</v>
+      </c>
+      <c r="AB54">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC54">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>476834320500</v>
       </c>
+      <c r="Q55">
+        <v>1615753494500</v>
+      </c>
+      <c r="R55">
+        <v>1138919174000</v>
+      </c>
+      <c r="S55">
+        <v>112689800</v>
+      </c>
+      <c r="T55">
+        <v>83092200</v>
+      </c>
+      <c r="U55">
+        <v>36339165152</v>
+      </c>
+      <c r="V55">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W55">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X55">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y55">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z55">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA55">
+        <v>840410.4</v>
+      </c>
+      <c r="AB55">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC55">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>464744488300</v>
       </c>
+      <c r="Q56">
+        <v>1626025981600</v>
+      </c>
+      <c r="R56">
+        <v>1161281493300</v>
+      </c>
+      <c r="S56">
+        <v>113292600</v>
+      </c>
+      <c r="T56">
+        <v>84258300</v>
+      </c>
+      <c r="U56">
+        <v>36339165152</v>
+      </c>
+      <c r="V56">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W56">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X56">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y56">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z56">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA56">
+        <v>840410.4</v>
+      </c>
+      <c r="AB56">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC56">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>484562295500</v>
       </c>
+      <c r="Q57">
+        <v>1656428023300</v>
+      </c>
+      <c r="R57">
+        <v>1171865727800</v>
+      </c>
+      <c r="S57">
+        <v>115263700</v>
+      </c>
+      <c r="T57">
+        <v>84906200</v>
+      </c>
+      <c r="U57">
+        <v>36339165152</v>
+      </c>
+      <c r="V57">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W57">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X57">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y57">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z57">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA57">
+        <v>840410.4</v>
+      </c>
+      <c r="AB57">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC57">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>490114092300</v>
       </c>
+      <c r="Q58">
+        <v>1680504950000</v>
+      </c>
+      <c r="R58">
+        <v>1190390857700</v>
+      </c>
+      <c r="S58">
+        <v>116795300</v>
+      </c>
+      <c r="T58">
+        <v>85967000</v>
+      </c>
+      <c r="U58">
+        <v>36339165152</v>
+      </c>
+      <c r="V58">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W58">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X58">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y58">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z58">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA58">
+        <v>840410.4</v>
+      </c>
+      <c r="AB58">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC58">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>486475928800</v>
       </c>
+      <c r="Q59">
+        <v>1692104850400</v>
+      </c>
+      <c r="R59">
+        <v>1205628921600</v>
+      </c>
+      <c r="S59">
+        <v>117480400</v>
+      </c>
+      <c r="T59">
+        <v>86919000</v>
+      </c>
+      <c r="U59">
+        <v>36339165152</v>
+      </c>
+      <c r="V59">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W59">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X59">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y59">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z59">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA59">
+        <v>840410.4</v>
+      </c>
+      <c r="AB59">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC59">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>500910936000</v>
       </c>
+      <c r="Q60">
+        <v>1720259443600</v>
+      </c>
+      <c r="R60">
+        <v>1219348507600</v>
+      </c>
+      <c r="S60">
+        <v>119098000</v>
+      </c>
+      <c r="T60">
+        <v>87773500</v>
+      </c>
+      <c r="U60">
+        <v>36339165152</v>
+      </c>
+      <c r="V60">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W60">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X60">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y60">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z60">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA60">
+        <v>840410.4</v>
+      </c>
+      <c r="AB60">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>517703208700</v>
       </c>
+      <c r="Q61">
+        <v>1746022335500</v>
+      </c>
+      <c r="R61">
+        <v>1228319126800</v>
+      </c>
+      <c r="S61">
+        <v>120492600</v>
+      </c>
+      <c r="T61">
+        <v>88391700</v>
+      </c>
+      <c r="U61">
+        <v>36339165152</v>
+      </c>
+      <c r="V61">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W61">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X61">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y61">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z61">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA61">
+        <v>840410.4</v>
+      </c>
+      <c r="AB61">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC61">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>546357948800</v>
       </c>
+      <c r="Q62">
+        <v>1786679994300</v>
+      </c>
+      <c r="R62">
+        <v>1240322045500</v>
+      </c>
+      <c r="S62">
+        <v>122994700</v>
+      </c>
+      <c r="T62">
+        <v>89143500</v>
+      </c>
+      <c r="U62">
+        <v>36339165152</v>
+      </c>
+      <c r="V62">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W62">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X62">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y62">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z62">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA62">
+        <v>840410.4</v>
+      </c>
+      <c r="AB62">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC62">
+        <v>2</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>591543751300</v>
       </c>
+      <c r="Q63">
+        <v>1848334487000</v>
+      </c>
+      <c r="R63">
+        <v>1256790735700</v>
+      </c>
+      <c r="S63">
+        <v>126585100</v>
+      </c>
+      <c r="T63">
+        <v>90130100</v>
+      </c>
+      <c r="U63">
+        <v>36339165152</v>
+      </c>
+      <c r="V63">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W63">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X63">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y63">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z63">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA63">
+        <v>840410.4</v>
+      </c>
+      <c r="AB63">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC63">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>673075084900</v>
       </c>
+      <c r="Q64">
+        <v>1950392921100</v>
+      </c>
+      <c r="R64">
+        <v>1277317836200</v>
+      </c>
+      <c r="S64">
+        <v>132804000</v>
+      </c>
+      <c r="T64">
+        <v>91345400</v>
+      </c>
+      <c r="U64">
+        <v>36339165152</v>
+      </c>
+      <c r="V64">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W64">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X64">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y64">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z64">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA64">
+        <v>840410.4</v>
+      </c>
+      <c r="AB64">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC64">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>716347805600</v>
       </c>
+      <c r="Q65">
+        <v>2006764589200</v>
+      </c>
+      <c r="R65">
+        <v>1290416783600</v>
+      </c>
+      <c r="S65">
+        <v>136467600</v>
+      </c>
+      <c r="T65">
+        <v>92066800</v>
+      </c>
+      <c r="U65">
+        <v>36339165152</v>
+      </c>
+      <c r="V65">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W65">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X65">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y65">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z65">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA65">
+        <v>840410.4</v>
+      </c>
+      <c r="AB65">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC65">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>759149233100</v>
       </c>
+      <c r="Q66">
+        <v>2068612826000</v>
+      </c>
+      <c r="R66">
+        <v>1309463592900</v>
+      </c>
+      <c r="S66">
+        <v>140435900</v>
+      </c>
+      <c r="T66">
+        <v>93160200</v>
+      </c>
+      <c r="U66">
+        <v>36339165152</v>
+      </c>
+      <c r="V66">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W66">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X66">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y66">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z66">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA66">
+        <v>840410.4</v>
+      </c>
+      <c r="AB66">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC66">
+        <v>3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>790629188900</v>
       </c>
+      <c r="Q67">
+        <v>2131755034400</v>
+      </c>
+      <c r="R67">
+        <v>1341125845500</v>
+      </c>
+      <c r="S67">
+        <v>144299900</v>
+      </c>
+      <c r="T67">
+        <v>95596900</v>
+      </c>
+      <c r="U67">
+        <v>36339165152</v>
+      </c>
+      <c r="V67">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W67">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X67">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y67">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z67">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA67">
+        <v>840410.4</v>
+      </c>
+      <c r="AB67">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC67">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>783599528700</v>
       </c>
+      <c r="Q68">
+        <v>2155300623100</v>
+      </c>
+      <c r="R68">
+        <v>1371701094400</v>
+      </c>
+      <c r="S68">
+        <v>145774600</v>
+      </c>
+      <c r="T68">
+        <v>97220700</v>
+      </c>
+      <c r="U68">
+        <v>36339165152</v>
+      </c>
+      <c r="V68">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W68">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X68">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y68">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z68">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA68">
+        <v>840410.4</v>
+      </c>
+      <c r="AB68">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC68">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>777620417700</v>
       </c>
+      <c r="Q69">
+        <v>2167534658500</v>
+      </c>
+      <c r="R69">
+        <v>1389914240800</v>
+      </c>
+      <c r="S69">
+        <v>146509100</v>
+      </c>
+      <c r="T69">
+        <v>98308800</v>
+      </c>
+      <c r="U69">
+        <v>36339165152</v>
+      </c>
+      <c r="V69">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W69">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X69">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y69">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z69">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA69">
+        <v>840410.4</v>
+      </c>
+      <c r="AB69">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC69">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>772111123600</v>
       </c>
+      <c r="Q70">
+        <v>2180560384600</v>
+      </c>
+      <c r="R70">
+        <v>1408449261000</v>
+      </c>
+      <c r="S70">
+        <v>147235800</v>
+      </c>
+      <c r="T70">
+        <v>99313700</v>
+      </c>
+      <c r="U70">
+        <v>36339165152</v>
+      </c>
+      <c r="V70">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W70">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X70">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y70">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z70">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA70">
+        <v>840410.4</v>
+      </c>
+      <c r="AB70">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC70">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>765948417100</v>
       </c>
+      <c r="Q71">
+        <v>2197415145400</v>
+      </c>
+      <c r="R71">
+        <v>1431466728300</v>
+      </c>
+      <c r="S71">
+        <v>148167000</v>
+      </c>
+      <c r="T71">
+        <v>100543400</v>
+      </c>
+      <c r="U71">
+        <v>36339165152</v>
+      </c>
+      <c r="V71">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W71">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X71">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y71">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z71">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA71">
+        <v>840410.4</v>
+      </c>
+      <c r="AB71">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC71">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>769624330700</v>
       </c>
+      <c r="Q72">
+        <v>2216010541500</v>
+      </c>
+      <c r="R72">
+        <v>1446386210800</v>
+      </c>
+      <c r="S72">
+        <v>149071800</v>
+      </c>
+      <c r="T72">
+        <v>101300700</v>
+      </c>
+      <c r="U72">
+        <v>36339165152</v>
+      </c>
+      <c r="V72">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W72">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X72">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y72">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z72">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA72">
+        <v>840410.4</v>
+      </c>
+      <c r="AB72">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC72">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>765334816500</v>
       </c>
+      <c r="Q73">
+        <v>2233586911500</v>
+      </c>
+      <c r="R73">
+        <v>1468252095000</v>
+      </c>
+      <c r="S73">
+        <v>150256500</v>
+      </c>
+      <c r="T73">
+        <v>102460800</v>
+      </c>
+      <c r="U73">
+        <v>36339165152</v>
+      </c>
+      <c r="V73">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W73">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X73">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y73">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z73">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA73">
+        <v>840410.4</v>
+      </c>
+      <c r="AB73">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC73">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>753070735200</v>
       </c>
+      <c r="Q74">
+        <v>2243267106900</v>
+      </c>
+      <c r="R74">
+        <v>1490196371700</v>
+      </c>
+      <c r="S74">
+        <v>150984200</v>
+      </c>
+      <c r="T74">
+        <v>103900800</v>
+      </c>
+      <c r="U74">
+        <v>36339165152</v>
+      </c>
+      <c r="V74">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W74">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X74">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y74">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z74">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA74">
+        <v>840410.4</v>
+      </c>
+      <c r="AB74">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC74">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>749480706100</v>
       </c>
+      <c r="Q75">
+        <v>2257686143100</v>
+      </c>
+      <c r="R75">
+        <v>1508205437000</v>
+      </c>
+      <c r="S75">
+        <v>151921900</v>
+      </c>
+      <c r="T75">
+        <v>105182100</v>
+      </c>
+      <c r="U75">
+        <v>36339165152</v>
+      </c>
+      <c r="V75">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W75">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X75">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y75">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z75">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA75">
+        <v>840410.4</v>
+      </c>
+      <c r="AB75">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC75">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>743282485000</v>
       </c>
+      <c r="Q76">
+        <v>2299969117000</v>
+      </c>
+      <c r="R76">
+        <v>1556686632000</v>
+      </c>
+      <c r="S76">
+        <v>154813100</v>
+      </c>
+      <c r="T76">
+        <v>109397500</v>
+      </c>
+      <c r="U76">
+        <v>36339165152</v>
+      </c>
+      <c r="V76">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W76">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X76">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y76">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z76">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA76">
+        <v>840410.4</v>
+      </c>
+      <c r="AB76">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC76">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>745563221200</v>
       </c>
+      <c r="Q77">
+        <v>2319852745500</v>
+      </c>
+      <c r="R77">
+        <v>1574289524300</v>
+      </c>
+      <c r="S77">
+        <v>156273900</v>
+      </c>
+      <c r="T77">
+        <v>110445100</v>
+      </c>
+      <c r="U77">
+        <v>36339165152</v>
+      </c>
+      <c r="V77">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W77">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X77">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y77">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z77">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA77">
+        <v>840410.4</v>
+      </c>
+      <c r="AB77">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC77">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>747431699600</v>
       </c>
+      <c r="Q78">
+        <v>2345628079300</v>
+      </c>
+      <c r="R78">
+        <v>1598196379700</v>
+      </c>
+      <c r="S78">
+        <v>158160700</v>
+      </c>
+      <c r="T78">
+        <v>112342000</v>
+      </c>
+      <c r="U78">
+        <v>36339165152</v>
+      </c>
+      <c r="V78">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W78">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X78">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y78">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z78">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA78">
+        <v>840410.4</v>
+      </c>
+      <c r="AB78">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC78">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>760849130900</v>
       </c>
+      <c r="Q79">
+        <v>2378084533000</v>
+      </c>
+      <c r="R79">
+        <v>1617235402100</v>
+      </c>
+      <c r="S79">
+        <v>160860200</v>
+      </c>
+      <c r="T79">
+        <v>113482400</v>
+      </c>
+      <c r="U79">
+        <v>36339165152</v>
+      </c>
+      <c r="V79">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W79">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X79">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y79">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z79">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA79">
+        <v>840410.4</v>
+      </c>
+      <c r="AB79">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC79">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>777947471500</v>
       </c>
+      <c r="Q80">
+        <v>2410120160200</v>
+      </c>
+      <c r="R80">
+        <v>1632172688700</v>
+      </c>
+      <c r="S80">
+        <v>162860300</v>
+      </c>
+      <c r="T80">
+        <v>114383800</v>
+      </c>
+      <c r="U80">
+        <v>36339165152</v>
+      </c>
+      <c r="V80">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W80">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X80">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y80">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z80">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA80">
+        <v>840410.4</v>
+      </c>
+      <c r="AB80">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC80">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>816956765000</v>
       </c>
+      <c r="Q81">
+        <v>2462845180100</v>
+      </c>
+      <c r="R81">
+        <v>1645888415100</v>
+      </c>
+      <c r="S81">
+        <v>166510300</v>
+      </c>
+      <c r="T81">
+        <v>115284600</v>
+      </c>
+      <c r="U81">
+        <v>36339165152</v>
+      </c>
+      <c r="V81">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W81">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X81">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y81">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z81">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA81">
+        <v>840410.4</v>
+      </c>
+      <c r="AB81">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC81">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>841784123700</v>
       </c>
+      <c r="Q82">
+        <v>2509635455600</v>
+      </c>
+      <c r="R82">
+        <v>1667851331900</v>
+      </c>
+      <c r="S82">
+        <v>169702000</v>
+      </c>
+      <c r="T82">
+        <v>116738900</v>
+      </c>
+      <c r="U82">
+        <v>36339165152</v>
+      </c>
+      <c r="V82">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W82">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X82">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y82">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z82">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA82">
+        <v>840410.4</v>
+      </c>
+      <c r="AB82">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC82">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>859943922700</v>
       </c>
+      <c r="Q83">
+        <v>2560649013600</v>
+      </c>
+      <c r="R83">
+        <v>1700705090900</v>
+      </c>
+      <c r="S83">
+        <v>172872600</v>
+      </c>
+      <c r="T83">
+        <v>118679300</v>
+      </c>
+      <c r="U83">
+        <v>36339165152</v>
+      </c>
+      <c r="V83">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W83">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X83">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y83">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z83">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA83">
+        <v>840410.4</v>
+      </c>
+      <c r="AB83">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC83">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>885177586900</v>
       </c>
+      <c r="Q84">
+        <v>2613376246900</v>
+      </c>
+      <c r="R84">
+        <v>1728198660000</v>
+      </c>
+      <c r="S84">
+        <v>176251300</v>
+      </c>
+      <c r="T84">
+        <v>120712400</v>
+      </c>
+      <c r="U84">
+        <v>36339165152</v>
+      </c>
+      <c r="V84">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W84">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X84">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y84">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z84">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA84">
+        <v>840410.4</v>
+      </c>
+      <c r="AB84">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC84">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>904556431800</v>
       </c>
+      <c r="Q85">
+        <v>2657937707200</v>
+      </c>
+      <c r="R85">
+        <v>1753381275400</v>
+      </c>
+      <c r="S85">
+        <v>178809900</v>
+      </c>
+      <c r="T85">
+        <v>122256500</v>
+      </c>
+      <c r="U85">
+        <v>36339165152</v>
+      </c>
+      <c r="V85">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W85">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X85">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y85">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z85">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA85">
+        <v>840410.4</v>
+      </c>
+      <c r="AB85">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC85">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>947685989400</v>
       </c>
+      <c r="Q86">
+        <v>2720021678500</v>
+      </c>
+      <c r="R86">
+        <v>1772335689100</v>
+      </c>
+      <c r="S86">
+        <v>182460700</v>
+      </c>
+      <c r="T86">
+        <v>123263100</v>
+      </c>
+      <c r="U86">
+        <v>36339165152</v>
+      </c>
+      <c r="V86">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W86">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X86">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y86">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z86">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA86">
+        <v>840410.4</v>
+      </c>
+      <c r="AB86">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC86">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>1001253410700</v>
       </c>
+      <c r="Q87">
+        <v>2795780625100</v>
+      </c>
+      <c r="R87">
+        <v>1794527214400</v>
+      </c>
+      <c r="S87">
+        <v>187634200</v>
+      </c>
+      <c r="T87">
+        <v>124685000</v>
+      </c>
+      <c r="U87">
+        <v>36339165152</v>
+      </c>
+      <c r="V87">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W87">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X87">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y87">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z87">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA87">
+        <v>840410.4</v>
+      </c>
+      <c r="AB87">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC87">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>1023089945200</v>
       </c>
+      <c r="Q88">
+        <v>2834909139800</v>
+      </c>
+      <c r="R88">
+        <v>1811819194600</v>
+      </c>
+      <c r="S88">
+        <v>189892300</v>
+      </c>
+      <c r="T88">
+        <v>125779100</v>
+      </c>
+      <c r="U88">
+        <v>36339165152</v>
+      </c>
+      <c r="V88">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W88">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X88">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y88">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z88">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA88">
+        <v>840410.4</v>
+      </c>
+      <c r="AB88">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC88">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>1042486343600</v>
       </c>
+      <c r="Q89">
+        <v>2884132969400</v>
+      </c>
+      <c r="R89">
+        <v>1841646625800</v>
+      </c>
+      <c r="S89">
+        <v>193054400</v>
+      </c>
+      <c r="T89">
+        <v>127588500</v>
+      </c>
+      <c r="U89">
+        <v>36339165152</v>
+      </c>
+      <c r="V89">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W89">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X89">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y89">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z89">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA89">
+        <v>840410.4</v>
+      </c>
+      <c r="AB89">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC89">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>1035239198700</v>
       </c>
+      <c r="Q90">
+        <v>2907017315600</v>
+      </c>
+      <c r="R90">
+        <v>1871778116900</v>
+      </c>
+      <c r="S90">
+        <v>194094600</v>
+      </c>
+      <c r="T90">
+        <v>129805400</v>
+      </c>
+      <c r="U90">
+        <v>36339165152</v>
+      </c>
+      <c r="V90">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W90">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X90">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y90">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z90">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA90">
+        <v>840410.4</v>
+      </c>
+      <c r="AB90">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC90">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>1039941764100</v>
       </c>
+      <c r="Q91">
+        <v>2933048341800</v>
+      </c>
+      <c r="R91">
+        <v>1893106577700</v>
+      </c>
+      <c r="S91">
+        <v>195275100</v>
+      </c>
+      <c r="T91">
+        <v>131022900</v>
+      </c>
+      <c r="U91">
+        <v>36339165152</v>
+      </c>
+      <c r="V91">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W91">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X91">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y91">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z91">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA91">
+        <v>840410.4</v>
+      </c>
+      <c r="AB91">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC91">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>1043036234600</v>
       </c>
+      <c r="Q92">
+        <v>2963498314500</v>
+      </c>
+      <c r="R92">
+        <v>1920462079900</v>
+      </c>
+      <c r="S92">
+        <v>196846100</v>
+      </c>
+      <c r="T92">
+        <v>132947500</v>
+      </c>
+      <c r="U92">
+        <v>36339165152</v>
+      </c>
+      <c r="V92">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W92">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X92">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y92">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z92">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA92">
+        <v>840410.4</v>
+      </c>
+      <c r="AB92">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC92">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>1051289001300</v>
       </c>
+      <c r="Q93">
+        <v>2993405811300</v>
+      </c>
+      <c r="R93">
+        <v>1942116810000</v>
+      </c>
+      <c r="S93">
+        <v>198657300</v>
+      </c>
+      <c r="T93">
+        <v>134183400</v>
+      </c>
+      <c r="U93">
+        <v>36339165152</v>
+      </c>
+      <c r="V93">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W93">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X93">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y93">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z93">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA93">
+        <v>840410.4</v>
+      </c>
+      <c r="AB93">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC93">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>1070427316400</v>
       </c>
+      <c r="Q94">
+        <v>3030457488900</v>
+      </c>
+      <c r="R94">
+        <v>1960030172500</v>
+      </c>
+      <c r="S94">
+        <v>200678700</v>
+      </c>
+      <c r="T94">
+        <v>135160400</v>
+      </c>
+      <c r="U94">
+        <v>36339165152</v>
+      </c>
+      <c r="V94">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W94">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X94">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y94">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z94">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA94">
+        <v>840410.4</v>
+      </c>
+      <c r="AB94">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC94">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>1152153294200</v>
       </c>
+      <c r="Q95">
+        <v>3134559172300</v>
+      </c>
+      <c r="R95">
+        <v>1982405878100</v>
+      </c>
+      <c r="S95">
+        <v>206615200</v>
+      </c>
+      <c r="T95">
+        <v>136434100</v>
+      </c>
+      <c r="U95">
+        <v>36339165152</v>
+      </c>
+      <c r="V95">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W95">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X95">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y95">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z95">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA95">
+        <v>840410.4</v>
+      </c>
+      <c r="AB95">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC95">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>1206035403400</v>
       </c>
+      <c r="Q96">
+        <v>3205833599500</v>
+      </c>
+      <c r="R96">
+        <v>1999798196100</v>
+      </c>
+      <c r="S96">
+        <v>209911800</v>
+      </c>
+      <c r="T96">
+        <v>137453800</v>
+      </c>
+      <c r="U96">
+        <v>36339165152</v>
+      </c>
+      <c r="V96">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W96">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X96">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y96">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z96">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA96">
+        <v>840410.4</v>
+      </c>
+      <c r="AB96">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC96">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>1298352640300</v>
       </c>
+      <c r="Q97">
+        <v>3319905674600</v>
+      </c>
+      <c r="R97">
+        <v>2021553034300</v>
+      </c>
+      <c r="S97">
+        <v>215940700</v>
+      </c>
+      <c r="T97">
+        <v>138613500</v>
+      </c>
+      <c r="U97">
+        <v>36339165152</v>
+      </c>
+      <c r="V97">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W97">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X97">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y97">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z97">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA97">
+        <v>840410.4</v>
+      </c>
+      <c r="AB97">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC97">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>1400847511200</v>
       </c>
+      <c r="Q98">
+        <v>3445201596400</v>
+      </c>
+      <c r="R98">
+        <v>2044354085200</v>
+      </c>
+      <c r="S98">
+        <v>223126300</v>
+      </c>
+      <c r="T98">
+        <v>139965700</v>
+      </c>
+      <c r="U98">
+        <v>36339165152</v>
+      </c>
+      <c r="V98">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W98">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X98">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y98">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z98">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA98">
+        <v>840410.4</v>
+      </c>
+      <c r="AB98">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC98">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>1436554324000</v>
       </c>
+      <c r="Q99">
+        <v>3506353418300</v>
+      </c>
+      <c r="R99">
+        <v>2069799094300</v>
+      </c>
+      <c r="S99">
+        <v>226498700</v>
+      </c>
+      <c r="T99">
+        <v>141533400</v>
+      </c>
+      <c r="U99">
+        <v>36339165152</v>
+      </c>
+      <c r="V99">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W99">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X99">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y99">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z99">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA99">
+        <v>840410.4</v>
+      </c>
+      <c r="AB99">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC99">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>1459981211600</v>
       </c>
+      <c r="Q100">
+        <v>3558053591900</v>
+      </c>
+      <c r="R100">
+        <v>2098072380300</v>
+      </c>
+      <c r="S100">
+        <v>229612700</v>
+      </c>
+      <c r="T100">
+        <v>143199200</v>
+      </c>
+      <c r="U100">
+        <v>36339165152</v>
+      </c>
+      <c r="V100">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W100">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X100">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y100">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z100">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA100">
+        <v>840410.4</v>
+      </c>
+      <c r="AB100">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC100">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>1473314865700</v>
       </c>
+      <c r="Q101">
+        <v>3604483364400</v>
+      </c>
+      <c r="R101">
+        <v>2131168498700</v>
+      </c>
+      <c r="S101">
+        <v>232626000</v>
+      </c>
+      <c r="T101">
+        <v>144925700</v>
+      </c>
+      <c r="U101">
+        <v>36339165152</v>
+      </c>
+      <c r="V101">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W101">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X101">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y101">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z101">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA101">
+        <v>840410.4</v>
+      </c>
+      <c r="AB101">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC101">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>1474322886700</v>
       </c>
+      <c r="Q102">
+        <v>3647109008000</v>
+      </c>
+      <c r="R102">
+        <v>2172786121300</v>
+      </c>
+      <c r="S102">
+        <v>234808900</v>
+      </c>
+      <c r="T102">
+        <v>147423400</v>
+      </c>
+      <c r="U102">
+        <v>36339165152</v>
+      </c>
+      <c r="V102">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W102">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X102">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y102">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z102">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA102">
+        <v>840410.4</v>
+      </c>
+      <c r="AB102">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC102">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>1491891878300</v>
       </c>
+      <c r="Q103">
+        <v>3694268149800</v>
+      </c>
+      <c r="R103">
+        <v>2202376271500</v>
+      </c>
+      <c r="S103">
+        <v>237256300</v>
+      </c>
+      <c r="T103">
+        <v>148996700</v>
+      </c>
+      <c r="U103">
+        <v>36339165152</v>
+      </c>
+      <c r="V103">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W103">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X103">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y103">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z103">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA103">
+        <v>840410.4</v>
+      </c>
+      <c r="AB103">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC103">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>1488156853600</v>
       </c>
+      <c r="Q104">
+        <v>3721819793800</v>
+      </c>
+      <c r="R104">
+        <v>2233662940200</v>
+      </c>
+      <c r="S104">
+        <v>239133900</v>
+      </c>
+      <c r="T104">
+        <v>150915100</v>
+      </c>
+      <c r="U104">
+        <v>36339165152</v>
+      </c>
+      <c r="V104">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W104">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X104">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y104">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z104">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA104">
+        <v>840410.4</v>
+      </c>
+      <c r="AB104">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC104">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>1468353451000</v>
       </c>
+      <c r="Q105">
+        <v>3749648324300</v>
+      </c>
+      <c r="R105">
+        <v>2281294873300</v>
+      </c>
+      <c r="S105">
+        <v>240532400</v>
+      </c>
+      <c r="T105">
+        <v>153525600</v>
+      </c>
+      <c r="U105">
+        <v>36339165152</v>
+      </c>
+      <c r="V105">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W105">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X105">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y105">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z105">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA105">
+        <v>840410.4</v>
+      </c>
+      <c r="AB105">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC105">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>1471401853600</v>
       </c>
+      <c r="Q106">
+        <v>3783970658600</v>
+      </c>
+      <c r="R106">
+        <v>2312568805000</v>
+      </c>
+      <c r="S106">
+        <v>242115800</v>
+      </c>
+      <c r="T106">
+        <v>155203300</v>
+      </c>
+      <c r="U106">
+        <v>36339165152</v>
+      </c>
+      <c r="V106">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W106">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X106">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y106">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z106">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA106">
+        <v>840410.4</v>
+      </c>
+      <c r="AB106">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC106">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>1479437484200</v>
       </c>
+      <c r="Q107">
+        <v>3817307719200</v>
+      </c>
+      <c r="R107">
+        <v>2337870235000</v>
+      </c>
+      <c r="S107">
+        <v>243895100</v>
+      </c>
+      <c r="T107">
+        <v>156648100</v>
+      </c>
+      <c r="U107">
+        <v>36339165152</v>
+      </c>
+      <c r="V107">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W107">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X107">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y107">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z107">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA107">
+        <v>840410.4</v>
+      </c>
+      <c r="AB107">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC107">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>1489819930100</v>
       </c>
+      <c r="Q108">
+        <v>3850203368000</v>
+      </c>
+      <c r="R108">
+        <v>2360383437900</v>
+      </c>
+      <c r="S108">
+        <v>245667100</v>
+      </c>
+      <c r="T108">
+        <v>157885000</v>
+      </c>
+      <c r="U108">
+        <v>36339165152</v>
+      </c>
+      <c r="V108">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W108">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X108">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y108">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z108">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA108">
+        <v>840410.4</v>
+      </c>
+      <c r="AB108">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC108">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>1499453492500</v>
       </c>
+      <c r="Q109">
+        <v>3887936697700</v>
+      </c>
+      <c r="R109">
+        <v>2388483205200</v>
+      </c>
+      <c r="S109">
+        <v>247971500</v>
+      </c>
+      <c r="T109">
+        <v>159487200</v>
+      </c>
+      <c r="U109">
+        <v>36339165152</v>
+      </c>
+      <c r="V109">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W109">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X109">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y109">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z109">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA109">
+        <v>840410.4</v>
+      </c>
+      <c r="AB109">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC109">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>1512002165200</v>
       </c>
+      <c r="Q110">
+        <v>3932247413400</v>
+      </c>
+      <c r="R110">
+        <v>2420245248200</v>
+      </c>
+      <c r="S110">
+        <v>251229000</v>
+      </c>
+      <c r="T110">
+        <v>161181500</v>
+      </c>
+      <c r="U110">
+        <v>36339165152</v>
+      </c>
+      <c r="V110">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W110">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X110">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y110">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z110">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA110">
+        <v>840410.4</v>
+      </c>
+      <c r="AB110">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC110">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>1530174754300</v>
       </c>
+      <c r="Q111">
+        <v>3979610735800</v>
+      </c>
+      <c r="R111">
+        <v>2449435981500</v>
+      </c>
+      <c r="S111">
+        <v>254205500</v>
+      </c>
+      <c r="T111">
+        <v>162640900</v>
+      </c>
+      <c r="U111">
+        <v>36339165152</v>
+      </c>
+      <c r="V111">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W111">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X111">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y111">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z111">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA111">
+        <v>840410.4</v>
+      </c>
+      <c r="AB111">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC111">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>1559553266200</v>
       </c>
+      <c r="Q112">
+        <v>4038301427100</v>
+      </c>
+      <c r="R112">
+        <v>2478748160900</v>
+      </c>
+      <c r="S112">
+        <v>257871600</v>
+      </c>
+      <c r="T112">
+        <v>164457400</v>
+      </c>
+      <c r="U112">
+        <v>36339165152</v>
+      </c>
+      <c r="V112">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W112">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X112">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y112">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z112">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA112">
+        <v>840410.4</v>
+      </c>
+      <c r="AB112">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC112">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>1559917587700</v>
       </c>
+      <c r="Q113">
+        <v>4084810890400</v>
+      </c>
+      <c r="R113">
+        <v>2524893302700</v>
+      </c>
+      <c r="S113">
+        <v>261943100</v>
+      </c>
+      <c r="T113">
+        <v>167279300</v>
+      </c>
+      <c r="U113">
+        <v>36339165152</v>
+      </c>
+      <c r="V113">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W113">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X113">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y113">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z113">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA113">
+        <v>840410.4</v>
+      </c>
+      <c r="AB113">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>1554064665000</v>
       </c>
+      <c r="Q114">
+        <v>4131541015500</v>
+      </c>
+      <c r="R114">
+        <v>2577476350500</v>
+      </c>
+      <c r="S114">
+        <v>264502400</v>
+      </c>
+      <c r="T114">
+        <v>170121300</v>
+      </c>
+      <c r="U114">
+        <v>36339165152</v>
+      </c>
+      <c r="V114">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W114">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X114">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y114">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z114">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA114">
+        <v>840410.4</v>
+      </c>
+      <c r="AB114">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC114">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>1559674723700</v>
       </c>
+      <c r="Q115">
+        <v>4164014771100</v>
+      </c>
+      <c r="R115">
+        <v>2604340047400</v>
+      </c>
+      <c r="S115">
+        <v>266516700</v>
+      </c>
+      <c r="T115">
+        <v>171844000</v>
+      </c>
+      <c r="U115">
+        <v>36339165152</v>
+      </c>
+      <c r="V115">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W115">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X115">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y115">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z115">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA115">
+        <v>840410.4</v>
+      </c>
+      <c r="AB115">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC115">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>1572756716600</v>
       </c>
+      <c r="Q116">
+        <v>4200048764000</v>
+      </c>
+      <c r="R116">
+        <v>2627292047400</v>
+      </c>
+      <c r="S116">
+        <v>268786100</v>
+      </c>
+      <c r="T116">
+        <v>173261200</v>
+      </c>
+      <c r="U116">
+        <v>36339165152</v>
+      </c>
+      <c r="V116">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W116">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X116">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y116">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z116">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA116">
+        <v>840410.4</v>
+      </c>
+      <c r="AB116">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC116">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>1564879136800</v>
       </c>
+      <c r="Q117">
+        <v>4231708949200</v>
+      </c>
+      <c r="R117">
+        <v>2666829812400</v>
+      </c>
+      <c r="S117">
+        <v>270509600</v>
+      </c>
+      <c r="T117">
+        <v>176451800</v>
+      </c>
+      <c r="U117">
+        <v>36339165152</v>
+      </c>
+      <c r="V117">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W117">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X117">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y117">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z117">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA117">
+        <v>840410.4</v>
+      </c>
+      <c r="AB117">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC117">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>1577364436600</v>
       </c>
+      <c r="Q118">
+        <v>4267327109300</v>
+      </c>
+      <c r="R118">
+        <v>2689962672700</v>
+      </c>
+      <c r="S118">
+        <v>272709200</v>
+      </c>
+      <c r="T118">
+        <v>178013500</v>
+      </c>
+      <c r="U118">
+        <v>36339165152</v>
+      </c>
+      <c r="V118">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W118">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X118">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y118">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z118">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA118">
+        <v>840410.4</v>
+      </c>
+      <c r="AB118">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC118">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>1622877993900</v>
       </c>
+      <c r="Q119">
+        <v>4343489449800</v>
+      </c>
+      <c r="R119">
+        <v>2720611455900</v>
+      </c>
+      <c r="S119">
+        <v>276900400</v>
+      </c>
+      <c r="T119">
+        <v>180282100</v>
+      </c>
+      <c r="U119">
+        <v>36339165152</v>
+      </c>
+      <c r="V119">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W119">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X119">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y119">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z119">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA119">
+        <v>840410.4</v>
+      </c>
+      <c r="AB119">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC119">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>1684015230000</v>
       </c>
+      <c r="Q120">
+        <v>4432380169400</v>
+      </c>
+      <c r="R120">
+        <v>2748364939400</v>
+      </c>
+      <c r="S120">
+        <v>282176300</v>
+      </c>
+      <c r="T120">
+        <v>182400300</v>
+      </c>
+      <c r="U120">
+        <v>36339165152</v>
+      </c>
+      <c r="V120">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W120">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X120">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y120">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z120">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA120">
+        <v>840410.4</v>
+      </c>
+      <c r="AB120">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC120">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>1684015236500</v>
       </c>
+      <c r="Q121">
+        <v>4432380175900</v>
+      </c>
+      <c r="R121">
+        <v>2748364939400</v>
+      </c>
+      <c r="S121">
+        <v>282176800</v>
+      </c>
+      <c r="T121">
+        <v>182400300</v>
+      </c>
+      <c r="U121">
+        <v>36339165152</v>
+      </c>
+      <c r="V121">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W121">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X121">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y121">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z121">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA121">
+        <v>840410.4</v>
+      </c>
+      <c r="AB121">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>1684015237800</v>
       </c>
+      <c r="Q122">
+        <v>4432380177200</v>
+      </c>
+      <c r="R122">
+        <v>2748364939400</v>
+      </c>
+      <c r="S122">
+        <v>282176900</v>
+      </c>
+      <c r="T122">
+        <v>182400300</v>
+      </c>
+      <c r="U122">
+        <v>36339165152</v>
+      </c>
+      <c r="V122">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W122">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X122">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y122">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z122">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA122">
+        <v>840410.4</v>
+      </c>
+      <c r="AB122">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,6 +11309,45 @@
       <c r="P123">
         <v>1760771512500</v>
       </c>
+      <c r="Q123">
+        <v>4542345860100</v>
+      </c>
+      <c r="R123">
+        <v>2781574347600</v>
+      </c>
+      <c r="S123">
+        <v>289626300</v>
+      </c>
+      <c r="T123">
+        <v>184579000</v>
+      </c>
+      <c r="U123">
+        <v>36339165152</v>
+      </c>
+      <c r="V123">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W123">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X123">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y123">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z123">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA123">
+        <v>840410.4</v>
+      </c>
+      <c r="AB123">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC123">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124">
@@ -6601,6 +11398,45 @@
       <c r="P124">
         <v>1760775442500</v>
       </c>
+      <c r="Q124">
+        <v>4542349790100</v>
+      </c>
+      <c r="R124">
+        <v>2781574347600</v>
+      </c>
+      <c r="S124">
+        <v>289626600</v>
+      </c>
+      <c r="T124">
+        <v>184579000</v>
+      </c>
+      <c r="U124">
+        <v>36339165152</v>
+      </c>
+      <c r="V124">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W124">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X124">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y124">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z124">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA124">
+        <v>840410.4</v>
+      </c>
+      <c r="AB124">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125">
@@ -6651,6 +11487,45 @@
       <c r="P125">
         <v>1760795092500</v>
       </c>
+      <c r="Q125">
+        <v>4542369440100</v>
+      </c>
+      <c r="R125">
+        <v>2781574347600</v>
+      </c>
+      <c r="S125">
+        <v>289628100</v>
+      </c>
+      <c r="T125">
+        <v>184579000</v>
+      </c>
+      <c r="U125">
+        <v>36339165152</v>
+      </c>
+      <c r="V125">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W125">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X125">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y125">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z125">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA125">
+        <v>840410.4</v>
+      </c>
+      <c r="AB125">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126">
@@ -6701,10 +11576,49 @@
       <c r="P126">
         <v>1760821295100</v>
       </c>
+      <c r="Q126">
+        <v>4542395644000</v>
+      </c>
+      <c r="R126">
+        <v>2781574348900</v>
+      </c>
+      <c r="S126">
+        <v>289630400</v>
+      </c>
+      <c r="T126">
+        <v>184579100</v>
+      </c>
+      <c r="U126">
+        <v>36339165152</v>
+      </c>
+      <c r="V126">
+        <v>22252594791.2</v>
+      </c>
+      <c r="W126">
+        <v>61423058367.2</v>
+      </c>
+      <c r="X126">
+        <v>3953990.4</v>
+      </c>
+      <c r="Y126">
+        <v>2317043.2</v>
+      </c>
+      <c r="Z126">
+        <v>1476632.8</v>
+      </c>
+      <c r="AA126">
+        <v>840410.4</v>
+      </c>
+      <c r="AB126">
+        <v>14086570360.8</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P126"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC126"/>
   </ignoredErrors>
 </worksheet>
 </file>